--- a/项目管理/进度计划/Demo-里程碑6/Demo-里程碑6计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑6/Demo-里程碑6计划.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/项目管理/进度计划/Demo-里程碑6/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="1560" windowWidth="38400" windowHeight="17540" tabRatio="349" activeTab="1"/>
+    <workbookView xWindow="1360" yWindow="540" windowWidth="36440" windowHeight="19460" tabRatio="349" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑6" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">里程碑6!$A$14:$M$142</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -66,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="722">
   <si>
     <t>分类</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -7510,6 +7505,10 @@
   </si>
   <si>
     <t>关联工会</t>
+  </si>
+  <si>
+    <t>状态机跟进</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7639,7 +7638,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7647,7 +7646,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7672,7 +7671,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7780,7 +7779,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8043,7 +8042,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="327">
+  <cellStyleXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -8379,8 +8378,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8925,337 +8926,362 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="327">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="329">
     <cellStyle name="Normal 2" xfId="298"/>
     <cellStyle name="常规 12" xfId="157"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 25" xfId="283"/>
     <cellStyle name="常规 3" xfId="190"/>
     <cellStyle name="常规 4" xfId="144"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9466,20 +9492,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9833,10 +9845,10 @@
   <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="205" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="7" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="8" customWidth="1"/>
@@ -9853,7 +9865,7 @@
     <col min="14" max="16384" width="8.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1">
       <c r="B1" s="2" t="s">
         <v>104</v>
       </c>
@@ -9865,7 +9877,7 @@
       <c r="I1" s="3"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30">
       <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
@@ -9884,7 +9896,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="C3" s="10" t="s">
         <v>94</v>
       </c>
@@ -9900,7 +9912,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="C4" s="10" t="s">
         <v>71</v>
       </c>
@@ -9912,7 +9924,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
@@ -9931,7 +9943,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
@@ -9947,7 +9959,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>30</v>
@@ -9963,7 +9975,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
         <v>31</v>
@@ -9979,7 +9991,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="32">
       <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
@@ -9997,7 +10009,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
         <v>685</v>
@@ -10009,7 +10021,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
         <v>692</v>
@@ -10021,7 +10033,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="C12" s="10" t="s">
         <v>31</v>
       </c>
@@ -10030,7 +10042,7 @@
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -10055,7 +10067,7 @@
       </c>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A14" s="17" t="s">
         <v>9</v>
       </c>
@@ -10096,7 +10108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -10127,7 +10139,7 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -10158,7 +10170,7 @@
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
     </row>
-    <row r="17" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -10191,7 +10203,7 @@
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
     </row>
-    <row r="18" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -10222,7 +10234,7 @@
       </c>
       <c r="M18" s="21"/>
     </row>
-    <row r="19" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A19" s="5">
         <v>5</v>
       </c>
@@ -10255,7 +10267,7 @@
       </c>
       <c r="M19" s="21"/>
     </row>
-    <row r="20" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A20" s="5">
         <v>6</v>
       </c>
@@ -10288,7 +10300,7 @@
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15">
       <c r="A21" s="5">
         <v>7</v>
       </c>
@@ -10317,7 +10329,7 @@
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
     </row>
-    <row r="22" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A22" s="5">
         <v>8</v>
       </c>
@@ -10346,7 +10358,7 @@
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15">
       <c r="A23" s="5">
         <v>9</v>
       </c>
@@ -10375,7 +10387,7 @@
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
     </row>
-    <row r="24" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A24" s="5">
         <v>10</v>
       </c>
@@ -10406,7 +10418,7 @@
       </c>
       <c r="M24" s="21"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15">
       <c r="A25" s="5">
         <v>11</v>
       </c>
@@ -10439,7 +10451,7 @@
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15">
       <c r="A26" s="5">
         <v>12</v>
       </c>
@@ -10467,7 +10479,7 @@
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15">
       <c r="A27" s="5">
         <v>13</v>
       </c>
@@ -10500,7 +10512,7 @@
       </c>
       <c r="M27" s="37"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15">
       <c r="A28" s="5">
         <v>14</v>
       </c>
@@ -10529,7 +10541,7 @@
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15">
       <c r="A29" s="5">
         <v>15</v>
       </c>
@@ -10562,7 +10574,7 @@
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15">
       <c r="A30" s="5">
         <v>16</v>
       </c>
@@ -10591,7 +10603,7 @@
       <c r="L30" s="37"/>
       <c r="M30" s="37"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15">
       <c r="A31" s="5">
         <v>17</v>
       </c>
@@ -10622,7 +10634,7 @@
       <c r="L31" s="37"/>
       <c r="M31" s="37"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15">
       <c r="A32" s="5">
         <v>18</v>
       </c>
@@ -10655,7 +10667,7 @@
       </c>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15">
       <c r="A33" s="5">
         <v>19</v>
       </c>
@@ -10684,7 +10696,7 @@
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="5">
         <v>20</v>
       </c>
@@ -10713,7 +10725,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15">
       <c r="A35" s="5">
         <v>21</v>
       </c>
@@ -10746,7 +10758,7 @@
       </c>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15">
       <c r="A36" s="5">
         <v>22</v>
       </c>
@@ -10779,7 +10791,7 @@
       </c>
       <c r="M36" s="21"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15">
       <c r="A37" s="5">
         <v>23</v>
       </c>
@@ -10812,7 +10824,7 @@
       </c>
       <c r="M37" s="21"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15">
       <c r="A38" s="5">
         <v>24</v>
       </c>
@@ -10843,7 +10855,7 @@
       </c>
       <c r="M38" s="21"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15">
       <c r="A39" s="5">
         <v>25</v>
       </c>
@@ -10872,7 +10884,7 @@
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15">
       <c r="A40" s="5">
         <v>26</v>
       </c>
@@ -10901,7 +10913,7 @@
       </c>
       <c r="M40" s="21"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15">
       <c r="A41" s="5">
         <v>27</v>
       </c>
@@ -10930,7 +10942,7 @@
       </c>
       <c r="M41" s="21"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15">
       <c r="A42" s="5">
         <v>28</v>
       </c>
@@ -10959,7 +10971,7 @@
       </c>
       <c r="M42" s="21"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15">
       <c r="A43" s="5">
         <v>29</v>
       </c>
@@ -10986,7 +10998,7 @@
       <c r="L43" s="22"/>
       <c r="M43" s="21"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15">
       <c r="A44" s="5">
         <v>30</v>
       </c>
@@ -11013,7 +11025,7 @@
       <c r="L44" s="22"/>
       <c r="M44" s="21"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15">
       <c r="A45" s="5">
         <v>31</v>
       </c>
@@ -11042,7 +11054,7 @@
       </c>
       <c r="M45" s="22"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15">
       <c r="A46" s="5">
         <v>32</v>
       </c>
@@ -11061,7 +11073,7 @@
       <c r="L46" s="22"/>
       <c r="M46" s="21"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15">
       <c r="A47" s="5">
         <v>33</v>
       </c>
@@ -11090,7 +11102,7 @@
       <c r="L47" s="22"/>
       <c r="M47" s="21"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15">
       <c r="A48" s="5">
         <v>34</v>
       </c>
@@ -11119,7 +11131,7 @@
       <c r="L48" s="22"/>
       <c r="M48" s="21"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15">
       <c r="A49" s="5">
         <v>35</v>
       </c>
@@ -11148,7 +11160,7 @@
       <c r="L49" s="22"/>
       <c r="M49" s="21"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15">
       <c r="A50" s="5">
         <v>36</v>
       </c>
@@ -11177,7 +11189,7 @@
       <c r="L50" s="22"/>
       <c r="M50" s="21"/>
     </row>
-    <row r="51" spans="1:13" ht="32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="32">
       <c r="A51" s="5">
         <v>37</v>
       </c>
@@ -11206,7 +11218,7 @@
       <c r="L51" s="22"/>
       <c r="M51" s="21"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15">
       <c r="A52" s="5">
         <v>38</v>
       </c>
@@ -11235,7 +11247,7 @@
       <c r="L52" s="22"/>
       <c r="M52" s="21"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15">
       <c r="A53" s="5">
         <v>39</v>
       </c>
@@ -11264,7 +11276,7 @@
       <c r="L53" s="22"/>
       <c r="M53" s="21"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15">
       <c r="A54" s="5">
         <v>40</v>
       </c>
@@ -11293,7 +11305,7 @@
       <c r="L54" s="22"/>
       <c r="M54" s="21"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15">
       <c r="A55" s="5">
         <v>41</v>
       </c>
@@ -11322,7 +11334,7 @@
       <c r="L55" s="22"/>
       <c r="M55" s="21"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15">
       <c r="A56" s="5">
         <v>42</v>
       </c>
@@ -11351,7 +11363,7 @@
       <c r="L56" s="22"/>
       <c r="M56" s="21"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15">
       <c r="A57" s="5">
         <v>43</v>
       </c>
@@ -11380,7 +11392,7 @@
       <c r="L57" s="22"/>
       <c r="M57" s="21"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15">
       <c r="A58" s="5">
         <v>44</v>
       </c>
@@ -11409,7 +11421,7 @@
       <c r="L58" s="22"/>
       <c r="M58" s="21"/>
     </row>
-    <row r="59" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="48">
       <c r="A59" s="5">
         <v>45</v>
       </c>
@@ -11438,7 +11450,7 @@
       <c r="L59" s="22"/>
       <c r="M59" s="21"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15">
       <c r="A60" s="5">
         <v>46</v>
       </c>
@@ -11467,7 +11479,7 @@
       </c>
       <c r="M60" s="21"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="15">
       <c r="A61" s="5">
         <v>47</v>
       </c>
@@ -11496,7 +11508,7 @@
       </c>
       <c r="M61" s="21"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="15">
       <c r="A62" s="5">
         <v>48</v>
       </c>
@@ -11525,7 +11537,7 @@
       </c>
       <c r="M62" s="21"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="15">
       <c r="A63" s="5">
         <v>49</v>
       </c>
@@ -11544,7 +11556,7 @@
       <c r="L63" s="21"/>
       <c r="M63" s="21"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="15">
       <c r="A64" s="5">
         <v>50</v>
       </c>
@@ -11573,7 +11585,7 @@
       <c r="L64" s="21"/>
       <c r="M64" s="21"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="15">
       <c r="A65" s="5">
         <v>51</v>
       </c>
@@ -11602,7 +11614,7 @@
       <c r="L65" s="21"/>
       <c r="M65" s="21"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="15">
       <c r="A66" s="5">
         <v>52</v>
       </c>
@@ -11631,7 +11643,7 @@
       <c r="L66" s="21"/>
       <c r="M66" s="21"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="15">
       <c r="A67" s="5">
         <v>53</v>
       </c>
@@ -11660,7 +11672,7 @@
       <c r="L67" s="21"/>
       <c r="M67" s="21"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="15">
       <c r="A68" s="5">
         <v>54</v>
       </c>
@@ -11689,7 +11701,7 @@
       <c r="L68" s="21"/>
       <c r="M68" s="21"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="15">
       <c r="A69" s="5">
         <v>55</v>
       </c>
@@ -11720,7 +11732,7 @@
       </c>
       <c r="M69" s="21"/>
     </row>
-    <row r="70" spans="1:13" ht="32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="32">
       <c r="A70" s="5">
         <v>56</v>
       </c>
@@ -11749,7 +11761,7 @@
       <c r="L70" s="21"/>
       <c r="M70" s="21"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="15">
       <c r="A71" s="5">
         <v>57</v>
       </c>
@@ -11778,7 +11790,7 @@
       <c r="L71" s="21"/>
       <c r="M71" s="21"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="15">
       <c r="A72" s="5">
         <v>58</v>
       </c>
@@ -11807,7 +11819,7 @@
       </c>
       <c r="M72" s="21"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="15">
       <c r="A73" s="5">
         <v>59</v>
       </c>
@@ -11833,7 +11845,7 @@
       <c r="L73" s="21"/>
       <c r="M73" s="21"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="15">
       <c r="A74" s="5">
         <v>60</v>
       </c>
@@ -11852,7 +11864,7 @@
       <c r="L74" s="22"/>
       <c r="M74" s="21"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="15">
       <c r="A75" s="5">
         <v>61</v>
       </c>
@@ -11881,7 +11893,7 @@
       <c r="L75" s="21"/>
       <c r="M75" s="21"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="15">
       <c r="A76" s="5">
         <v>62</v>
       </c>
@@ -11910,7 +11922,7 @@
       <c r="L76" s="22"/>
       <c r="M76" s="21"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="15">
       <c r="A77" s="5">
         <v>63</v>
       </c>
@@ -11939,7 +11951,7 @@
       <c r="L77" s="22"/>
       <c r="M77" s="21"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="15">
       <c r="A78" s="5">
         <v>64</v>
       </c>
@@ -11968,7 +11980,7 @@
       <c r="L78" s="22"/>
       <c r="M78" s="21"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="15">
       <c r="A79" s="5">
         <v>65</v>
       </c>
@@ -11995,7 +12007,7 @@
       <c r="L79" s="37"/>
       <c r="M79" s="37"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="15">
       <c r="A80" s="5">
         <v>66</v>
       </c>
@@ -12022,7 +12034,7 @@
       <c r="L80" s="37"/>
       <c r="M80" s="37"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="15">
       <c r="A81" s="5">
         <v>67</v>
       </c>
@@ -12049,7 +12061,7 @@
       <c r="L81" s="37"/>
       <c r="M81" s="37"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="15">
       <c r="A82" s="5">
         <v>68</v>
       </c>
@@ -12076,7 +12088,7 @@
       <c r="L82" s="37"/>
       <c r="M82" s="37"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="15">
       <c r="A83" s="5">
         <v>69</v>
       </c>
@@ -12103,7 +12115,7 @@
       <c r="L83" s="71"/>
       <c r="M83" s="37"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="15">
       <c r="A84" s="5">
         <v>70</v>
       </c>
@@ -12130,7 +12142,7 @@
       <c r="L84" s="71"/>
       <c r="M84" s="37"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="15">
       <c r="A85" s="5">
         <v>71</v>
       </c>
@@ -12156,7 +12168,7 @@
       <c r="L85" s="71"/>
       <c r="M85" s="37"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="15">
       <c r="A86" s="5">
         <v>72</v>
       </c>
@@ -12183,7 +12195,7 @@
       <c r="L86" s="71"/>
       <c r="M86" s="37"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="15">
       <c r="A87" s="5">
         <v>73</v>
       </c>
@@ -12210,7 +12222,7 @@
       <c r="L87" s="37"/>
       <c r="M87" s="37"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="15">
       <c r="A88" s="5">
         <v>74</v>
       </c>
@@ -12237,7 +12249,7 @@
       <c r="L88" s="37"/>
       <c r="M88" s="37"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="15">
       <c r="A89" s="5">
         <v>75</v>
       </c>
@@ -12266,7 +12278,7 @@
       <c r="L89" s="37"/>
       <c r="M89" s="37"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="15">
       <c r="A90" s="5">
         <v>76</v>
       </c>
@@ -12295,7 +12307,7 @@
       <c r="L90" s="71"/>
       <c r="M90" s="37"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="15">
       <c r="A91" s="5">
         <v>77</v>
       </c>
@@ -12324,7 +12336,7 @@
       <c r="L91" s="71"/>
       <c r="M91" s="37"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="15">
       <c r="A92" s="5">
         <v>78</v>
       </c>
@@ -12353,7 +12365,7 @@
       <c r="L92" s="71"/>
       <c r="M92" s="37"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="15">
       <c r="A93" s="5">
         <v>79</v>
       </c>
@@ -12382,7 +12394,7 @@
       <c r="L93" s="71"/>
       <c r="M93" s="37"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="15">
       <c r="A94" s="5">
         <v>80</v>
       </c>
@@ -12409,7 +12421,7 @@
       <c r="L94" s="71"/>
       <c r="M94" s="37"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="15">
       <c r="A95" s="5">
         <v>81</v>
       </c>
@@ -12436,7 +12448,7 @@
       <c r="L95" s="71"/>
       <c r="M95" s="37"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="15">
       <c r="A96" s="5">
         <v>82</v>
       </c>
@@ -12463,7 +12475,7 @@
       <c r="L96" s="71"/>
       <c r="M96" s="37"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="15">
       <c r="A97" s="5">
         <v>83</v>
       </c>
@@ -12492,7 +12504,7 @@
       <c r="L97" s="71"/>
       <c r="M97" s="37"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="15">
       <c r="A98" s="5">
         <v>84</v>
       </c>
@@ -12521,7 +12533,7 @@
       <c r="L98" s="71"/>
       <c r="M98" s="37"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="15">
       <c r="A99" s="5">
         <v>85</v>
       </c>
@@ -12552,7 +12564,7 @@
       <c r="L99" s="37"/>
       <c r="M99" s="37"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="15">
       <c r="A100" s="5">
         <v>86</v>
       </c>
@@ -12585,7 +12597,7 @@
       <c r="L100" s="37"/>
       <c r="M100" s="37"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="15">
       <c r="A101" s="5">
         <v>87</v>
       </c>
@@ -12614,7 +12626,7 @@
       </c>
       <c r="M101" s="37"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="15">
       <c r="A102" s="5">
         <v>88</v>
       </c>
@@ -12641,7 +12653,7 @@
       <c r="L102" s="37"/>
       <c r="M102" s="37"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="15">
       <c r="A103" s="5">
         <v>89</v>
       </c>
@@ -12668,7 +12680,7 @@
       <c r="L103" s="37"/>
       <c r="M103" s="37"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="15">
       <c r="A104" s="5">
         <v>90</v>
       </c>
@@ -12695,7 +12707,7 @@
       <c r="L104" s="37"/>
       <c r="M104" s="37"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="15">
       <c r="A105" s="5">
         <v>91</v>
       </c>
@@ -12714,7 +12726,7 @@
       <c r="L105" s="21"/>
       <c r="M105" s="21"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="15">
       <c r="A106" s="5">
         <v>92</v>
       </c>
@@ -12732,7 +12744,7 @@
       <c r="L106" s="21"/>
       <c r="M106" s="21"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="15">
       <c r="A107" s="5">
         <v>93</v>
       </c>
@@ -12751,7 +12763,7 @@
       <c r="L107" s="21"/>
       <c r="M107" s="21"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="15">
       <c r="A108" s="5">
         <v>94</v>
       </c>
@@ -12769,7 +12781,7 @@
       <c r="L108" s="21"/>
       <c r="M108" s="21"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="15">
       <c r="A109" s="5">
         <v>95</v>
       </c>
@@ -12788,7 +12800,7 @@
       <c r="L109" s="21"/>
       <c r="M109" s="21"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="15">
       <c r="A110" s="5">
         <v>96</v>
       </c>
@@ -12807,7 +12819,7 @@
       <c r="L110" s="22"/>
       <c r="M110" s="21"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="15">
       <c r="A111" s="5">
         <v>97</v>
       </c>
@@ -12826,7 +12838,7 @@
       <c r="L111" s="21"/>
       <c r="M111" s="21"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="15">
       <c r="A112" s="5">
         <v>98</v>
       </c>
@@ -12845,7 +12857,7 @@
       <c r="L112" s="37"/>
       <c r="M112" s="37"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="15">
       <c r="A113" s="5">
         <v>99</v>
       </c>
@@ -12864,7 +12876,7 @@
       <c r="L113" s="37"/>
       <c r="M113" s="37"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="15">
       <c r="A114" s="5">
         <v>100</v>
       </c>
@@ -12883,7 +12895,7 @@
       <c r="L114" s="37"/>
       <c r="M114" s="37"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="15">
       <c r="A115" s="5">
         <v>101</v>
       </c>
@@ -12902,7 +12914,7 @@
       <c r="L115" s="21"/>
       <c r="M115" s="21"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="15">
       <c r="A116" s="5">
         <v>102</v>
       </c>
@@ -12921,7 +12933,7 @@
       <c r="L116" s="21"/>
       <c r="M116" s="21"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="15">
       <c r="A117" s="5">
         <v>103</v>
       </c>
@@ -12940,7 +12952,7 @@
       <c r="L117" s="21"/>
       <c r="M117" s="21"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="15">
       <c r="A118" s="5">
         <v>104</v>
       </c>
@@ -12959,7 +12971,7 @@
       <c r="L118" s="21"/>
       <c r="M118" s="21"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="15">
       <c r="A119" s="5">
         <v>105</v>
       </c>
@@ -12978,7 +12990,7 @@
       <c r="L119" s="22"/>
       <c r="M119" s="22"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="15">
       <c r="A120" s="5">
         <v>106</v>
       </c>
@@ -12997,7 +13009,7 @@
       <c r="L120" s="21"/>
       <c r="M120" s="21"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="15">
       <c r="A121" s="5">
         <v>107</v>
       </c>
@@ -13016,7 +13028,7 @@
       <c r="L121" s="19"/>
       <c r="M121" s="19"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="15">
       <c r="A122" s="5">
         <v>108</v>
       </c>
@@ -13035,7 +13047,7 @@
       <c r="L122" s="22"/>
       <c r="M122" s="21"/>
     </row>
-    <row r="123" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="16.5" customHeight="1">
       <c r="A123" s="5">
         <v>109</v>
       </c>
@@ -13054,7 +13066,7 @@
       <c r="L123" s="22"/>
       <c r="M123" s="21"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="15">
       <c r="A124" s="5">
         <v>110</v>
       </c>
@@ -13073,7 +13085,7 @@
       <c r="L124" s="22"/>
       <c r="M124" s="21"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="15">
       <c r="A125" s="5">
         <v>111</v>
       </c>
@@ -13092,7 +13104,7 @@
       <c r="L125" s="21"/>
       <c r="M125" s="21"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="15">
       <c r="A126" s="5">
         <v>112</v>
       </c>
@@ -13110,7 +13122,7 @@
       <c r="L126" s="21"/>
       <c r="M126" s="21"/>
     </row>
-    <row r="127" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" s="35" customFormat="1" ht="15">
       <c r="A127" s="5">
         <v>113</v>
       </c>
@@ -13129,7 +13141,7 @@
       <c r="L127" s="33"/>
       <c r="M127" s="33"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="15">
       <c r="A128" s="5">
         <v>114</v>
       </c>
@@ -13148,7 +13160,7 @@
       <c r="L128" s="21"/>
       <c r="M128" s="21"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="15">
       <c r="A129" s="5">
         <v>115</v>
       </c>
@@ -13167,7 +13179,7 @@
       <c r="L129" s="21"/>
       <c r="M129" s="21"/>
     </row>
-    <row r="130" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" s="36" customFormat="1" ht="15">
       <c r="A130" s="5">
         <v>116</v>
       </c>
@@ -13186,7 +13198,7 @@
       <c r="L130" s="19"/>
       <c r="M130" s="19"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" ht="15">
       <c r="A131" s="5">
         <v>117</v>
       </c>
@@ -13205,7 +13217,7 @@
       <c r="L131" s="21"/>
       <c r="M131" s="21"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="15">
       <c r="A132" s="5">
         <v>118</v>
       </c>
@@ -13224,7 +13236,7 @@
       <c r="L132" s="21"/>
       <c r="M132" s="21"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="15">
       <c r="A133" s="5">
         <v>119</v>
       </c>
@@ -13243,7 +13255,7 @@
       <c r="L133" s="21"/>
       <c r="M133" s="21"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="15">
       <c r="A134" s="5">
         <v>120</v>
       </c>
@@ -13262,7 +13274,7 @@
       <c r="L134" s="21"/>
       <c r="M134" s="21"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="15">
       <c r="A135" s="5">
         <v>121</v>
       </c>
@@ -13281,7 +13293,7 @@
       <c r="L135" s="21"/>
       <c r="M135" s="21"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="15">
       <c r="A136" s="5">
         <v>122</v>
       </c>
@@ -13300,7 +13312,7 @@
       <c r="L136" s="21"/>
       <c r="M136" s="21"/>
     </row>
-    <row r="137" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" s="35" customFormat="1" ht="15">
       <c r="A137" s="5">
         <v>123</v>
       </c>
@@ -13319,7 +13331,7 @@
       <c r="L137" s="33"/>
       <c r="M137" s="33"/>
     </row>
-    <row r="138" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" s="35" customFormat="1" ht="15">
       <c r="A138" s="5">
         <v>124</v>
       </c>
@@ -13338,7 +13350,7 @@
       <c r="L138" s="33"/>
       <c r="M138" s="33"/>
     </row>
-    <row r="139" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" s="35" customFormat="1" ht="15">
       <c r="A139" s="5">
         <v>125</v>
       </c>
@@ -13357,7 +13369,7 @@
       <c r="L139" s="33"/>
       <c r="M139" s="33"/>
     </row>
-    <row r="140" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" s="35" customFormat="1" ht="15">
       <c r="A140" s="5">
         <v>126</v>
       </c>
@@ -13376,7 +13388,7 @@
       <c r="L140" s="33"/>
       <c r="M140" s="33"/>
     </row>
-    <row r="141" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" s="35" customFormat="1">
       <c r="A141" s="33"/>
       <c r="B141" s="34"/>
       <c r="C141" s="34"/>
@@ -13391,7 +13403,7 @@
       <c r="L141" s="33"/>
       <c r="M141" s="33"/>
     </row>
-    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="15" customHeight="1">
       <c r="A142" s="19"/>
       <c r="B142" s="26"/>
       <c r="C142" s="26"/>
@@ -13406,57 +13418,62 @@
       <c r="L142" s="19"/>
       <c r="M142" s="19"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13">
       <c r="L144" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A14:M142"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="H126 C115:C116 B126:F126 B142:M142 B138:C141 G130:M132 C132:F132 C135 H135 E141:M141 H137:M140 C136:H136 C137 B132:B137 F119:M123 F117:I118 E117:E123 J115:M118 C117:D117 B115:B117 I125:M129 B124:M124 B130:F131 I135:M136 C133:D134 H133:M134 E137:G137 E140:G140 E133:G135 D138:G139 B127:H129 B118:D123 B125:H125 L106:M106 G106:J106 D105:H105 I104:M105 G73 G38:M39 H25 H27:H33 H13:M13 F7:F8 D13 F12 C40:C42 B38:E39 B40:B41 B25:G33 I25:M33 A14:M16 D40:M41 B42:E42 G42:M42 B34:M37 E108:M108 I73:M73 G107:M107 D106:F107 B105:C108 B73:E73 B43:M57 B59:M72 B58 D58:M58 B109:M109 B74:M78 I90:I92 J79:M82 J87:M89 B79:H82 B87:H87 E86:I86 K90:K92 K83:K86 M90:M98 M83:M86 B83:C84 E93:J98 B88:C98 E88:H92 G85:H85 B86:C86 B99:H104 I99:J103 L99:M103 B110:C114 E110:M114 E115:I116 D110:D116 B17:M24 A17:A140 E83:I84">
-    <cfRule type="cellIs" dxfId="25" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="502" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J126:M126 H126 K123:K124 J122:K122 G136:H136 J128:M129 G128:H129 G131:M132 I126:I129 H135 F115:F117 I125:M125 E126:F126 E124:H124 F122:F123 I135:M136 H133:M134 G137:G140 E140 G133:G135 E128:E137 G66:M66 G105 L106 K110 K111:L111 H75:M75 E75:F75 I42 I38:J39 J40:M41 K32 F35:F37 L29 E40:F41 J29 H40:H41 K42:L42 J35:M37 H35:H37 K34 K44:K46 K52 I53:I62 I47:I51 I74 I108:J108 I73:M73 F105:F110 H65:M65 H72:M72 E66 F63:F66 K69 E71:F72 E67:F67 F68:F70 K76:K78">
-    <cfRule type="cellIs" dxfId="24" priority="504" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="504" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="505" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="25" priority="505" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J126:M126 H126 K123:K124 J122:K122 E126:F126 G136:H136 J128:M129 G128:H129 G131:M132 I126:I129 H135 F115:F117 I125:M125 E124:H124 F122:F123 I135:M136 H133:M134 G137:G140 E140 G133:G135 E128:E137 G66:M66 G105 L106 K110 K111:L111 H75:M75 E75:F75 I42 I38:J39 J40:M41 K32 F35:F37 L29 E40:F41 J29 H40:H41 K42:L42 I1:I6 J35:M37 H35:H37 K34 K44:K46 K52 I53:I62 I47:I51 I74 I108:J108 I73:M73 F105:F110 H65:M65 H72:M72 E66 F63:F66 K69 E71:F72 E67:F67 F68:F70 K76:K78">
-    <cfRule type="cellIs" dxfId="22" priority="503" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="503" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D141 D51">
-    <cfRule type="cellIs" dxfId="21" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="187" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:C85 E85:F85">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T141"/>
+  <dimension ref="A2:T142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E88" sqref="E88"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="38" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="110" customWidth="1"/>
@@ -13482,7 +13499,7 @@
     <col min="22" max="16384" width="8.7109375" style="110"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="38" customFormat="1">
       <c r="B2" s="38" t="s">
         <v>89</v>
       </c>
@@ -13522,7 +13539,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="38" t="s">
         <v>547</v>
       </c>
@@ -13554,7 +13571,7 @@
       <c r="R3" s="179"/>
       <c r="S3" s="179"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="B4" s="179" t="s">
         <v>522</v>
       </c>
@@ -13583,7 +13600,7 @@
       <c r="R4" s="179"/>
       <c r="S4" s="179"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="B5" s="179" t="s">
         <v>523</v>
       </c>
@@ -13612,7 +13629,7 @@
       <c r="R5" s="179"/>
       <c r="S5" s="179"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="B6" s="179" t="s">
         <v>525</v>
       </c>
@@ -13641,7 +13658,7 @@
       <c r="R6" s="179"/>
       <c r="S6" s="179"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="B7" s="185" t="s">
         <v>527</v>
       </c>
@@ -13670,7 +13687,7 @@
       <c r="R7" s="179"/>
       <c r="S7" s="179"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="B8" s="185" t="s">
         <v>548</v>
       </c>
@@ -13699,7 +13716,7 @@
       <c r="R8" s="179"/>
       <c r="S8" s="179"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="B9" s="185" t="s">
         <v>529</v>
       </c>
@@ -13728,7 +13745,7 @@
       <c r="R9" s="179"/>
       <c r="S9" s="179"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="B10" s="180" t="s">
         <v>346</v>
       </c>
@@ -13761,7 +13778,7 @@
       <c r="R10" s="179"/>
       <c r="S10" s="179"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="B11" s="180" t="s">
         <v>532</v>
       </c>
@@ -13790,7 +13807,7 @@
       <c r="R11" s="179"/>
       <c r="S11" s="179"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="B12" s="179" t="s">
         <v>533</v>
       </c>
@@ -13819,7 +13836,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="B13" s="180" t="s">
         <v>534</v>
       </c>
@@ -13848,7 +13865,7 @@
       <c r="R13" s="179"/>
       <c r="S13" s="179"/>
     </row>
-    <row r="14" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="38" customFormat="1">
       <c r="B14" s="179" t="s">
         <v>535</v>
       </c>
@@ -13878,7 +13895,7 @@
       <c r="S14" s="179"/>
       <c r="T14" s="46"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="B15" s="179" t="s">
         <v>536</v>
       </c>
@@ -13907,7 +13924,7 @@
       <c r="R15" s="185"/>
       <c r="S15" s="182"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="B16" s="179" t="s">
         <v>537</v>
       </c>
@@ -13936,7 +13953,7 @@
       <c r="R16" s="180"/>
       <c r="S16" s="179"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20">
       <c r="B17" s="179" t="s">
         <v>538</v>
       </c>
@@ -13966,7 +13983,7 @@
       <c r="S17" s="179"/>
       <c r="T17" s="110"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20">
       <c r="B18" s="180" t="s">
         <v>539</v>
       </c>
@@ -13996,7 +14013,7 @@
       <c r="S18" s="179"/>
       <c r="T18" s="110"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20">
       <c r="B19" s="180" t="s">
         <v>540</v>
       </c>
@@ -14026,7 +14043,7 @@
       <c r="S19" s="179"/>
       <c r="T19" s="110"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20">
       <c r="B20" s="185" t="s">
         <v>549</v>
       </c>
@@ -14056,7 +14073,7 @@
       <c r="S20" s="179"/>
       <c r="T20" s="110"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20">
       <c r="B21" s="184" t="s">
         <v>542</v>
       </c>
@@ -14086,7 +14103,7 @@
       <c r="S21" s="179"/>
       <c r="T21" s="110"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20">
       <c r="B22" s="185" t="s">
         <v>357</v>
       </c>
@@ -14116,7 +14133,7 @@
       <c r="S22" s="179"/>
       <c r="T22" s="110"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20">
       <c r="B23" s="180" t="s">
         <v>543</v>
       </c>
@@ -14146,7 +14163,7 @@
       <c r="S23" s="179"/>
       <c r="T23" s="110"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20">
       <c r="B24" s="217" t="s">
         <v>705</v>
       </c>
@@ -14176,7 +14193,7 @@
       <c r="S24" s="179"/>
       <c r="T24" s="110"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20">
       <c r="B25" s="179" t="s">
         <v>550</v>
       </c>
@@ -14206,7 +14223,7 @@
       <c r="S25" s="179"/>
       <c r="T25" s="110"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20">
       <c r="B26" s="180" t="s">
         <v>551</v>
       </c>
@@ -14236,7 +14253,7 @@
       <c r="S26" s="179"/>
       <c r="T26" s="110"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20">
       <c r="B27" s="179" t="s">
         <v>544</v>
       </c>
@@ -14266,7 +14283,7 @@
       <c r="S27" s="179"/>
       <c r="T27" s="110"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20">
       <c r="B28" s="179" t="s">
         <v>360</v>
       </c>
@@ -14296,7 +14313,7 @@
       </c>
       <c r="T28" s="110"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20">
       <c r="B29" s="179" t="s">
         <v>545</v>
       </c>
@@ -14326,7 +14343,7 @@
       </c>
       <c r="T29" s="110"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20">
       <c r="B30" s="179" t="s">
         <v>455</v>
       </c>
@@ -14356,7 +14373,7 @@
       </c>
       <c r="T30" s="110"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20">
       <c r="B31" s="185" t="s">
         <v>546</v>
       </c>
@@ -14386,7 +14403,7 @@
       </c>
       <c r="T31" s="110"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20">
       <c r="B32" s="179" t="s">
         <v>349</v>
       </c>
@@ -14412,7 +14429,7 @@
       <c r="S32" s="179"/>
       <c r="T32" s="110"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="B33" s="179"/>
       <c r="C33" s="182"/>
       <c r="D33" s="182"/>
@@ -14433,7 +14450,7 @@
       <c r="S33" s="179"/>
       <c r="T33" s="110"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="B34" s="179"/>
       <c r="C34" s="182"/>
       <c r="D34" s="182"/>
@@ -14454,7 +14471,7 @@
       <c r="S34" s="179"/>
       <c r="T34" s="110"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="B35" s="179"/>
       <c r="C35" s="182"/>
       <c r="D35" s="182">
@@ -14478,7 +14495,7 @@
       <c r="S35" s="179"/>
       <c r="T35" s="110"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="B36" s="184" t="s">
         <v>552</v>
       </c>
@@ -14519,7 +14536,7 @@
       </c>
       <c r="T36" s="110"/>
     </row>
-    <row r="37" spans="1:20" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="119" customFormat="1">
       <c r="A37" s="116"/>
       <c r="B37" s="117"/>
       <c r="C37" s="118"/>
@@ -14533,7 +14550,7 @@
       <c r="Q37" s="120"/>
       <c r="T37" s="120"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38" s="38" t="s">
         <v>254</v>
       </c>
@@ -14559,7 +14576,7 @@
       <c r="I38" s="107"/>
       <c r="L38" s="107"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="B39" s="107" t="s">
         <v>255</v>
       </c>
@@ -14579,7 +14596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="B40" s="145" t="s">
         <v>351</v>
       </c>
@@ -14602,7 +14619,7 @@
       <c r="I40" s="107"/>
       <c r="L40" s="107"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="B41" s="160" t="s">
         <v>374</v>
       </c>
@@ -14610,7 +14627,7 @@
         <v>0.5</v>
       </c>
       <c r="D41" s="108">
-        <f t="shared" ref="D41:D51" si="2">SUM(G41+J41+M41+P41+S41)</f>
+        <f t="shared" ref="D41:D52" si="2">SUM(G41+J41+M41+P41+S41)</f>
         <v>0.5</v>
       </c>
       <c r="I41" s="107"/>
@@ -14622,47 +14639,42 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="145" t="s">
+    <row r="42" spans="1:20">
+      <c r="B42" s="220" t="s">
+        <v>721</v>
+      </c>
+      <c r="D42" s="108">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="220" t="s">
+        <v>721</v>
+      </c>
+      <c r="G42" s="110">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="107"/>
+      <c r="L42" s="160"/>
+      <c r="O42" s="160"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="B43" s="145" t="s">
         <v>344</v>
       </c>
-      <c r="C42" s="152">
+      <c r="C43" s="152">
         <v>4</v>
       </c>
-      <c r="D42" s="108">
+      <c r="D43" s="108">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E42" s="219" t="s">
+      <c r="E43" s="219" t="s">
         <v>713</v>
       </c>
-      <c r="F42" s="166" t="s">
+      <c r="F43" s="166" t="s">
         <v>419</v>
       </c>
-      <c r="G42" s="110">
+      <c r="G43" s="110">
         <v>2</v>
-      </c>
-      <c r="I42" s="169" t="s">
-        <v>418</v>
-      </c>
-      <c r="J42" s="110">
-        <v>3</v>
-      </c>
-      <c r="L42" s="107"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="169" t="s">
-        <v>421</v>
-      </c>
-      <c r="C43" s="152">
-        <v>3</v>
-      </c>
-      <c r="D43" s="108">
-        <f>SUM(G43+J43+M43+P43+S43)</f>
-        <v>3</v>
-      </c>
-      <c r="E43" s="219" t="s">
-        <v>714</v>
       </c>
       <c r="I43" s="169" t="s">
         <v>418</v>
@@ -14670,117 +14682,111 @@
       <c r="J43" s="110">
         <v>3</v>
       </c>
-      <c r="L43" s="160"/>
-      <c r="O43" s="161"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="145" t="s">
+      <c r="L43" s="107"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="B44" s="169" t="s">
+        <v>421</v>
+      </c>
+      <c r="C44" s="152">
+        <v>3</v>
+      </c>
+      <c r="D44" s="108">
+        <f>SUM(G44+J44+M44+P44+S44)</f>
+        <v>3</v>
+      </c>
+      <c r="E44" s="219" t="s">
+        <v>714</v>
+      </c>
+      <c r="I44" s="169" t="s">
+        <v>418</v>
+      </c>
+      <c r="J44" s="110">
+        <v>3</v>
+      </c>
+      <c r="L44" s="160"/>
+      <c r="O44" s="161"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="B45" s="145" t="s">
         <v>345</v>
       </c>
-      <c r="C44" s="152">
+      <c r="C45" s="152">
         <v>1</v>
       </c>
-      <c r="D44" s="108">
+      <c r="D45" s="108">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F44" s="160"/>
-      <c r="L44" s="160" t="s">
+      <c r="F45" s="160"/>
+      <c r="L45" s="160" t="s">
         <v>371</v>
       </c>
-      <c r="M44" s="110">
+      <c r="M45" s="110">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="107" t="s">
+    <row r="46" spans="1:20">
+      <c r="B46" s="107" t="s">
         <v>256</v>
       </c>
-      <c r="C45" s="108">
+      <c r="C46" s="108">
         <v>4</v>
       </c>
-      <c r="D45" s="108">
+      <c r="D46" s="108">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I45" s="107"/>
-      <c r="L45" s="161" t="s">
+      <c r="I46" s="107"/>
+      <c r="L46" s="161" t="s">
         <v>377</v>
       </c>
-      <c r="M45" s="110">
+      <c r="M46" s="110">
         <v>2</v>
       </c>
-      <c r="O45" s="161" t="s">
+      <c r="O46" s="161" t="s">
         <v>370</v>
       </c>
-      <c r="P45" s="110">
+      <c r="P46" s="110">
         <v>2</v>
       </c>
-      <c r="R45" s="161"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="161" t="s">
+      <c r="R46" s="161"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="B47" s="161" t="s">
         <v>375</v>
       </c>
-      <c r="C46" s="108">
+      <c r="C47" s="108">
         <v>3</v>
       </c>
-      <c r="D46" s="108">
+      <c r="D47" s="108">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E46" s="219" t="s">
+      <c r="E47" s="219" t="s">
         <v>715</v>
       </c>
-      <c r="L46" s="179" t="s">
+      <c r="L47" s="179" t="s">
         <v>518</v>
       </c>
-      <c r="M46" s="110">
+      <c r="M47" s="110">
         <v>3</v>
       </c>
-      <c r="O46" s="161"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="160" t="s">
+      <c r="O47" s="161"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="B48" s="160" t="s">
         <v>376</v>
       </c>
-      <c r="C47" s="108">
+      <c r="C48" s="108">
         <v>1</v>
       </c>
-      <c r="D47" s="108">
+      <c r="D48" s="108">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I47" s="107"/>
-      <c r="L47" s="107"/>
-      <c r="R47" s="161" t="s">
-        <v>372</v>
-      </c>
-      <c r="S47" s="110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="160" t="s">
-        <v>386</v>
-      </c>
-      <c r="C48" s="152">
-        <v>2</v>
-      </c>
-      <c r="D48" s="108">
-        <f>SUM(G48+J48+P48+M48+S48)</f>
-        <v>3</v>
-      </c>
-      <c r="E48" s="219" t="s">
-        <v>716</v>
-      </c>
       <c r="I48" s="107"/>
-      <c r="O48" s="160" t="s">
-        <v>388</v>
-      </c>
-      <c r="P48" s="110">
-        <v>2</v>
-      </c>
+      <c r="L48" s="107"/>
       <c r="R48" s="161" t="s">
         <v>372</v>
       </c>
@@ -14788,469 +14794,478 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="161" t="s">
+    <row r="49" spans="1:20">
+      <c r="B49" s="160" t="s">
+        <v>386</v>
+      </c>
+      <c r="C49" s="152">
+        <v>2</v>
+      </c>
+      <c r="D49" s="108">
+        <f>SUM(G49+J49+P49+M49+S49)</f>
+        <v>3</v>
+      </c>
+      <c r="E49" s="219" t="s">
+        <v>716</v>
+      </c>
+      <c r="I49" s="107"/>
+      <c r="O49" s="160" t="s">
+        <v>388</v>
+      </c>
+      <c r="P49" s="110">
+        <v>2</v>
+      </c>
+      <c r="R49" s="161" t="s">
+        <v>372</v>
+      </c>
+      <c r="S49" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="B50" s="161" t="s">
         <v>387</v>
       </c>
-      <c r="C49" s="152">
+      <c r="C50" s="152">
         <v>0.5</v>
       </c>
-      <c r="D49" s="108">
-        <f>SUM(G49+J49+M49+P49+S49)</f>
+      <c r="D50" s="108">
+        <f>SUM(G50+J50+M50+P50+S50)</f>
         <v>0.5</v>
       </c>
-      <c r="I49" s="107"/>
-      <c r="L49" s="160"/>
-      <c r="O49" s="161"/>
-      <c r="R49" s="166" t="s">
+      <c r="I50" s="107"/>
+      <c r="L50" s="160"/>
+      <c r="O50" s="161"/>
+      <c r="R50" s="166" t="s">
         <v>413</v>
       </c>
-      <c r="S49" s="110">
+      <c r="S50" s="110">
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="107" t="s">
+    <row r="51" spans="1:20">
+      <c r="B51" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="C50" s="108">
+      <c r="C51" s="108">
         <v>3</v>
       </c>
-      <c r="D50" s="108">
+      <c r="D51" s="108">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I50" s="107"/>
-      <c r="L50" s="107"/>
-      <c r="R50" s="161" t="s">
+      <c r="I51" s="107"/>
+      <c r="L51" s="107"/>
+      <c r="R51" s="161" t="s">
         <v>378</v>
       </c>
-      <c r="S50" s="110">
+      <c r="S51" s="110">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="107"/>
-      <c r="D51" s="108">
+    <row r="52" spans="1:20">
+      <c r="B52" s="107"/>
+      <c r="D52" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="107"/>
-      <c r="L51" s="107"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="107" t="s">
+      <c r="I52" s="107"/>
+      <c r="L52" s="107"/>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="B53" s="107" t="s">
         <v>276</v>
       </c>
-      <c r="C52" s="108">
-        <f>SUM(C38:C51)</f>
+      <c r="C53" s="108">
+        <f>SUM(C38:C52)</f>
         <v>25.5</v>
       </c>
-      <c r="D52" s="108">
-        <f>SUM(D38:D51)</f>
-        <v>28</v>
-      </c>
-      <c r="G52" s="110">
-        <f>SUM(G38:G51)</f>
-        <v>5</v>
-      </c>
-      <c r="I52" s="107"/>
-      <c r="J52" s="110">
-        <f>SUM(J38:J51)</f>
+      <c r="D53" s="108">
+        <f>SUM(D38:D52)</f>
+        <v>28.5</v>
+      </c>
+      <c r="G53" s="110">
+        <f>SUM(G38:G52)</f>
+        <v>5.5</v>
+      </c>
+      <c r="I53" s="107"/>
+      <c r="J53" s="110">
+        <f>SUM(J38:J52)</f>
         <v>6</v>
       </c>
-      <c r="L52" s="107"/>
-      <c r="M52" s="110">
-        <f>SUM(M38:M51)</f>
+      <c r="L53" s="107"/>
+      <c r="M53" s="110">
+        <f>SUM(M38:M52)</f>
         <v>6</v>
       </c>
-      <c r="P52" s="110">
-        <f>SUM(P38:P51)</f>
+      <c r="P53" s="110">
+        <f>SUM(P38:P52)</f>
         <v>5.5</v>
       </c>
-      <c r="Q52" s="110"/>
-      <c r="S52" s="110">
-        <f>SUM(S38:S51)</f>
+      <c r="Q53" s="110"/>
+      <c r="S53" s="110">
+        <f>SUM(S38:S52)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="116"/>
-      <c r="B53" s="117"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="118"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="117"/>
-      <c r="K53" s="120"/>
-      <c r="L53" s="117"/>
-      <c r="N53" s="120"/>
-      <c r="Q53" s="120"/>
-      <c r="T53" s="120"/>
-    </row>
-    <row r="54" spans="1:20" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+    <row r="54" spans="1:20" s="119" customFormat="1">
+      <c r="A54" s="116"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="118"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="117"/>
+      <c r="K54" s="120"/>
+      <c r="L54" s="117"/>
+      <c r="N54" s="120"/>
+      <c r="Q54" s="120"/>
+      <c r="T54" s="120"/>
+    </row>
+    <row r="55" spans="1:20" s="105" customFormat="1">
+      <c r="A55" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="111" t="s">
+      <c r="B55" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="C54" s="150">
+      <c r="C55" s="150">
         <v>1</v>
       </c>
-      <c r="D54" s="108">
-        <f t="shared" ref="D54:D66" si="3">SUM(G54+J54+M54+P54+S54)</f>
+      <c r="D55" s="108">
+        <f t="shared" ref="D55:D67" si="3">SUM(G55+J55+M55+P55+S55)</f>
         <v>1</v>
       </c>
-      <c r="E54" s="108"/>
-      <c r="F54" s="111" t="s">
+      <c r="E55" s="108"/>
+      <c r="F55" s="111" t="s">
         <v>154</v>
       </c>
-      <c r="G54" s="112">
+      <c r="G55" s="112">
         <v>1</v>
       </c>
-      <c r="H54" s="113"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="112"/>
-      <c r="K54" s="113"/>
-      <c r="N54" s="113"/>
-      <c r="Q54" s="113"/>
-      <c r="T54" s="113"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="110"/>
-      <c r="B55" s="105" t="s">
+      <c r="H55" s="113"/>
+      <c r="I55" s="111"/>
+      <c r="J55" s="112"/>
+      <c r="K55" s="113"/>
+      <c r="N55" s="113"/>
+      <c r="Q55" s="113"/>
+      <c r="T55" s="113"/>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="110"/>
+      <c r="B56" s="105" t="s">
         <v>251</v>
       </c>
-      <c r="C55" s="151">
+      <c r="C56" s="151">
         <v>1</v>
       </c>
-      <c r="D55" s="108">
+      <c r="D56" s="108">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F55" s="107"/>
-      <c r="G55" s="112"/>
-      <c r="L55" s="161" t="s">
+      <c r="F56" s="107"/>
+      <c r="G56" s="112"/>
+      <c r="L56" s="161" t="s">
         <v>380</v>
       </c>
-      <c r="M55" s="110">
+      <c r="M56" s="110">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="110"/>
-      <c r="B56" s="102" t="s">
+    <row r="57" spans="1:20">
+      <c r="A57" s="110"/>
+      <c r="B57" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="C56" s="155">
+      <c r="C57" s="155">
         <v>4</v>
       </c>
-      <c r="D56" s="108">
+      <c r="D57" s="108">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="E56" s="219" t="s">
+      <c r="E57" s="219" t="s">
         <v>717</v>
       </c>
-      <c r="F56" s="110" t="s">
+      <c r="F57" s="110" t="s">
         <v>257</v>
       </c>
-      <c r="G56" s="112">
+      <c r="G57" s="112">
         <v>2</v>
       </c>
-      <c r="I56" s="110" t="s">
+      <c r="I57" s="110" t="s">
         <v>275</v>
       </c>
-      <c r="J56" s="110">
+      <c r="J57" s="110">
         <v>1.5</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="110"/>
-      <c r="B57" s="102" t="s">
+    <row r="58" spans="1:20">
+      <c r="A58" s="110"/>
+      <c r="B58" s="102" t="s">
         <v>277</v>
       </c>
-      <c r="C57" s="155">
+      <c r="C58" s="155">
         <v>1</v>
       </c>
-      <c r="D57" s="108">
+      <c r="D58" s="108">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F57" s="114"/>
-      <c r="G57" s="112"/>
-      <c r="O57" s="161" t="s">
+      <c r="F58" s="114"/>
+      <c r="G58" s="112"/>
+      <c r="O58" s="161" t="s">
         <v>379</v>
       </c>
-      <c r="P57" s="110">
+      <c r="P58" s="110">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="110"/>
-      <c r="B58" s="146" t="s">
+    <row r="59" spans="1:20">
+      <c r="A59" s="110"/>
+      <c r="B59" s="146" t="s">
         <v>346</v>
       </c>
-      <c r="C58" s="153">
+      <c r="C59" s="153">
         <v>2.5</v>
       </c>
-      <c r="D58" s="108">
+      <c r="D59" s="108">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="E58" s="219" t="s">
+      <c r="E59" s="219" t="s">
         <v>718</v>
       </c>
-      <c r="F58" s="107"/>
-      <c r="G58" s="112"/>
-      <c r="I58" s="167" t="s">
+      <c r="F59" s="107"/>
+      <c r="G59" s="112"/>
+      <c r="I59" s="167" t="s">
         <v>398</v>
       </c>
-      <c r="J58" s="153">
+      <c r="J59" s="153">
         <v>2.5</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="110"/>
-      <c r="B59" s="163" t="s">
+    <row r="60" spans="1:20">
+      <c r="A60" s="110"/>
+      <c r="B60" s="163" t="s">
         <v>383</v>
       </c>
-      <c r="C59" s="150">
+      <c r="C60" s="150">
         <v>3</v>
       </c>
-      <c r="D59" s="108">
+      <c r="D60" s="108">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I59" s="107"/>
-      <c r="J59" s="112"/>
-      <c r="L59" s="168" t="s">
+      <c r="I60" s="107"/>
+      <c r="J60" s="112"/>
+      <c r="L60" s="168" t="s">
         <v>395</v>
       </c>
-      <c r="M59" s="112">
+      <c r="M60" s="112">
         <v>3</v>
       </c>
-      <c r="O59" s="168" t="s">
+      <c r="O60" s="168" t="s">
         <v>396</v>
       </c>
-      <c r="P59" s="110">
+      <c r="P60" s="110">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B60" s="107" t="s">
+    <row r="61" spans="1:20">
+      <c r="B61" s="107" t="s">
         <v>260</v>
       </c>
-      <c r="C60" s="108">
+      <c r="C61" s="108">
         <v>1</v>
-      </c>
-      <c r="D60" s="108">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L60" s="107"/>
-      <c r="O60" s="168" t="s">
-        <v>369</v>
-      </c>
-      <c r="P60" s="112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B61" s="160" t="s">
-        <v>389</v>
       </c>
       <c r="D61" s="108">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I61" s="107"/>
-      <c r="L61" s="162"/>
-      <c r="M61" s="112"/>
-      <c r="O61" s="102"/>
-      <c r="P61" s="112"/>
-      <c r="R61" s="102" t="s">
-        <v>390</v>
-      </c>
-      <c r="S61" s="110">
+      <c r="L61" s="107"/>
+      <c r="O61" s="168" t="s">
+        <v>369</v>
+      </c>
+      <c r="P61" s="112">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B62" s="159" t="s">
-        <v>364</v>
-      </c>
-      <c r="C62" s="155">
-        <v>4</v>
+    <row r="62" spans="1:20">
+      <c r="B62" s="160" t="s">
+        <v>389</v>
       </c>
       <c r="D62" s="108">
         <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I62" s="107"/>
+      <c r="L62" s="162"/>
+      <c r="M62" s="112"/>
+      <c r="O62" s="102"/>
+      <c r="P62" s="112"/>
+      <c r="R62" s="102" t="s">
+        <v>390</v>
+      </c>
+      <c r="S62" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="B63" s="159" t="s">
+        <v>364</v>
+      </c>
+      <c r="C63" s="155">
         <v>4</v>
-      </c>
-      <c r="F62" s="114"/>
-      <c r="L62" s="102"/>
-      <c r="M62" s="112"/>
-      <c r="O62" s="168" t="s">
-        <v>415</v>
-      </c>
-      <c r="P62" s="112">
-        <v>2</v>
-      </c>
-      <c r="R62" s="161" t="s">
-        <v>371</v>
-      </c>
-      <c r="S62" s="110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B63" s="148" t="s">
-        <v>365</v>
-      </c>
-      <c r="C63" s="108">
-        <v>3</v>
       </c>
       <c r="D63" s="108">
         <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F63" s="114"/>
+      <c r="L63" s="102"/>
+      <c r="M63" s="112"/>
+      <c r="O63" s="168" t="s">
+        <v>415</v>
+      </c>
+      <c r="P63" s="112">
         <v>2</v>
       </c>
-      <c r="R63" s="166" t="s">
-        <v>422</v>
-      </c>
-      <c r="S63" s="108">
+      <c r="R63" s="161" t="s">
+        <v>371</v>
+      </c>
+      <c r="S63" s="110">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="B64" s="148" t="s">
-        <v>348</v>
-      </c>
-      <c r="C64" s="152">
-        <v>2</v>
+        <v>365</v>
+      </c>
+      <c r="C64" s="108">
+        <v>3</v>
       </c>
       <c r="D64" s="108">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R64" s="166" t="s">
+        <v>422</v>
+      </c>
+      <c r="S64" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="B65" s="148" t="s">
+        <v>348</v>
+      </c>
+      <c r="C65" s="152">
+        <v>2</v>
+      </c>
       <c r="D65" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I65" s="115"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:20">
       <c r="D66" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I66" s="115"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B67" s="108" t="s">
+    <row r="67" spans="1:20">
+      <c r="D67" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="115"/>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="B68" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="108">
-        <f>SUM(C54:C65)</f>
+      <c r="C68" s="108">
+        <f>SUM(C55:C66)</f>
         <v>22.5</v>
       </c>
-      <c r="D67" s="108">
-        <f>SUM(D54:D66)</f>
+      <c r="D68" s="108">
+        <f>SUM(D55:D67)</f>
         <v>21</v>
       </c>
-      <c r="G67" s="108">
-        <f>SUM(G54:G65)</f>
+      <c r="G68" s="108">
+        <f>SUM(G55:G66)</f>
         <v>3</v>
       </c>
-      <c r="I67" s="111"/>
-      <c r="J67" s="108">
-        <f>SUM(J54:J65)</f>
+      <c r="I68" s="111"/>
+      <c r="J68" s="108">
+        <f>SUM(J55:J66)</f>
         <v>4</v>
       </c>
-      <c r="M67" s="108">
-        <f>SUM(M54:M65)</f>
+      <c r="M68" s="108">
+        <f>SUM(M55:M66)</f>
         <v>4</v>
       </c>
-      <c r="P67" s="108">
-        <f>SUM(P54:P65)</f>
+      <c r="P68" s="108">
+        <f>SUM(P55:P66)</f>
         <v>5</v>
       </c>
-      <c r="S67" s="108">
-        <f>SUM(S54:S65)</f>
+      <c r="S68" s="108">
+        <f>SUM(S55:S66)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:20" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="116"/>
-      <c r="C68" s="118"/>
-      <c r="D68" s="118"/>
-      <c r="E68" s="118"/>
-      <c r="H68" s="120"/>
-      <c r="I68" s="121"/>
-      <c r="K68" s="120"/>
-      <c r="N68" s="120"/>
-      <c r="Q68" s="120"/>
-      <c r="T68" s="120"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
+    <row r="69" spans="1:20" s="119" customFormat="1">
+      <c r="A69" s="116"/>
+      <c r="C69" s="118"/>
+      <c r="D69" s="118"/>
+      <c r="E69" s="118"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="121"/>
+      <c r="K69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="Q69" s="120"/>
+      <c r="T69" s="120"/>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="111" t="s">
+      <c r="B70" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="150">
+      <c r="C70" s="150">
         <v>0</v>
       </c>
-      <c r="D69" s="108">
-        <f t="shared" ref="D69:D90" si="4">SUM(G69+J69+M69+P69+S69)</f>
+      <c r="D70" s="108">
+        <f t="shared" ref="D70:D91" si="4">SUM(G70+J70+M70+P70+S70)</f>
         <v>0</v>
       </c>
-      <c r="I69" s="111"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B70" s="106" t="s">
+      <c r="I70" s="111"/>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="B71" s="106" t="s">
         <v>252</v>
       </c>
-      <c r="C70" s="156">
+      <c r="C71" s="156">
         <v>0.5</v>
       </c>
-      <c r="D70" s="108">
+      <c r="D71" s="108">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="F70" s="106" t="s">
+      <c r="F71" s="106" t="s">
         <v>253</v>
       </c>
-      <c r="G70" s="110">
+      <c r="G71" s="110">
         <v>0.5</v>
       </c>
-      <c r="I70" s="111"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B71" s="148" t="s">
+      <c r="I71" s="111"/>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="B72" s="148" t="s">
         <v>355</v>
-      </c>
-      <c r="C71" s="108">
-        <v>0.5</v>
-      </c>
-      <c r="D71" s="108">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="F71" s="110" t="s">
-        <v>150</v>
-      </c>
-      <c r="G71" s="110">
-        <v>0.25</v>
-      </c>
-      <c r="I71" s="111"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B72" s="148" t="s">
-        <v>356</v>
       </c>
       <c r="C72" s="108">
         <v>0.5</v>
@@ -15260,480 +15275,480 @@
         <v>0.25</v>
       </c>
       <c r="F72" s="110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G72" s="110">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B73" s="161" t="s">
-        <v>381</v>
+      <c r="I72" s="111"/>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="B73" s="148" t="s">
+        <v>356</v>
       </c>
       <c r="C73" s="108">
         <v>0.5</v>
       </c>
       <c r="D73" s="108">
-        <f t="shared" ref="D73:D74" si="5">SUM(G73+J73+M73+P73+S73)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I73" s="163" t="s">
-        <v>370</v>
-      </c>
-      <c r="J73" s="110">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="F73" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="G73" s="110">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="B74" s="161" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C74" s="108">
         <v>0.5</v>
       </c>
       <c r="D74" s="108">
+        <f t="shared" ref="D74:D75" si="5">SUM(G74+J74+M74+P74+S74)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I74" s="163" t="s">
+        <v>370</v>
+      </c>
+      <c r="J74" s="110">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="B75" s="161" t="s">
+        <v>382</v>
+      </c>
+      <c r="C75" s="108">
+        <v>0.5</v>
+      </c>
+      <c r="D75" s="108">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="I74" s="163" t="s">
+      <c r="I75" s="163" t="s">
         <v>370</v>
-      </c>
-      <c r="J74" s="110">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B75" s="110" t="s">
-        <v>146</v>
-      </c>
-      <c r="C75" s="108">
-        <v>1</v>
-      </c>
-      <c r="D75" s="108">
-        <f>SUM(G75+J75+M75+P75+S75)</f>
-        <v>1.5</v>
-      </c>
-      <c r="F75" s="166" t="s">
-        <v>423</v>
-      </c>
-      <c r="G75" s="110">
-        <v>1</v>
-      </c>
-      <c r="I75" s="166" t="s">
-        <v>424</v>
       </c>
       <c r="J75" s="110">
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B76" s="148" t="s">
-        <v>367</v>
-      </c>
-      <c r="C76" s="152">
-        <v>2</v>
+    <row r="76" spans="1:20">
+      <c r="B76" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="108">
+        <v>1</v>
       </c>
       <c r="D76" s="108">
         <f>SUM(G76+J76+M76+P76+S76)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F76" s="166" t="s">
+        <v>423</v>
+      </c>
+      <c r="G76" s="110">
+        <v>1</v>
+      </c>
+      <c r="I76" s="166" t="s">
+        <v>424</v>
+      </c>
+      <c r="J76" s="110">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="B77" s="148" t="s">
+        <v>367</v>
+      </c>
+      <c r="C77" s="152">
         <v>2</v>
-      </c>
-      <c r="E76" s="219" t="s">
-        <v>719</v>
-      </c>
-      <c r="F76" s="148" t="s">
-        <v>367</v>
-      </c>
-      <c r="G76" s="110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B77" s="148" t="s">
-        <v>368</v>
-      </c>
-      <c r="C77" s="152">
-        <v>3</v>
       </c>
       <c r="D77" s="108">
         <f>SUM(G77+J77+M77+P77+S77)</f>
+        <v>2</v>
+      </c>
+      <c r="E77" s="219" t="s">
+        <v>719</v>
+      </c>
+      <c r="F77" s="148" t="s">
+        <v>367</v>
+      </c>
+      <c r="G77" s="110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="B78" s="148" t="s">
+        <v>368</v>
+      </c>
+      <c r="C78" s="152">
+        <v>3</v>
+      </c>
+      <c r="D78" s="108">
+        <f>SUM(G78+J78+M78+P78+S78)</f>
         <v>3.5</v>
       </c>
-      <c r="F77" s="148" t="s">
+      <c r="F78" s="148" t="s">
         <v>368</v>
       </c>
-      <c r="G77" s="110">
+      <c r="G78" s="110">
         <v>1</v>
       </c>
-      <c r="I77" s="148" t="s">
+      <c r="I78" s="148" t="s">
         <v>368</v>
       </c>
-      <c r="J77" s="110">
+      <c r="J78" s="110">
         <v>2.5</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B78" s="148" t="s">
+    <row r="79" spans="1:20">
+      <c r="B79" s="148" t="s">
         <v>366</v>
       </c>
-      <c r="C78" s="152">
+      <c r="C79" s="152">
         <v>2</v>
       </c>
-      <c r="D78" s="108">
-        <f t="shared" ref="D78:D89" si="6">SUM(G78+J78+M78+P78+S78)</f>
+      <c r="D79" s="108">
+        <f t="shared" ref="D79:D90" si="6">SUM(G79+J79+M79+P79+S79)</f>
         <v>2</v>
       </c>
-      <c r="I78" s="211" t="s">
+      <c r="I79" s="211" t="s">
         <v>655</v>
       </c>
-      <c r="J78" s="110">
+      <c r="J79" s="110">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B79" s="148" t="s">
+    <row r="80" spans="1:20">
+      <c r="B80" s="148" t="s">
         <v>347</v>
       </c>
-      <c r="C79" s="152">
+      <c r="C80" s="152">
         <v>3</v>
       </c>
-      <c r="D79" s="108">
-        <f>SUM(G79+J79+M79+P79+S79)</f>
+      <c r="D80" s="108">
+        <f>SUM(G80+J80+M80+P80+S80)</f>
         <v>4</v>
       </c>
-      <c r="L79" s="166" t="s">
+      <c r="L80" s="166" t="s">
         <v>425</v>
       </c>
-      <c r="M79" s="110">
+      <c r="M80" s="110">
         <v>3</v>
       </c>
-      <c r="O79" s="166" t="s">
+      <c r="O80" s="166" t="s">
         <v>396</v>
       </c>
-      <c r="P79" s="110">
+      <c r="P80" s="110">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="110"/>
-      <c r="B80" s="158" t="s">
+    <row r="81" spans="1:20">
+      <c r="A81" s="110"/>
+      <c r="B81" s="158" t="s">
         <v>363</v>
       </c>
-      <c r="C80" s="154">
+      <c r="C81" s="154">
         <v>3</v>
       </c>
-      <c r="D80" s="108">
+      <c r="D81" s="108">
         <f t="shared" si="6"/>
         <v>4</v>
-      </c>
-      <c r="G80" s="112"/>
-      <c r="I80" s="160"/>
-      <c r="J80" s="112"/>
-      <c r="L80" s="41" t="s">
-        <v>426</v>
-      </c>
-      <c r="M80" s="110">
-        <v>2</v>
-      </c>
-      <c r="O80" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="P80" s="110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="110"/>
-      <c r="B81" s="164" t="s">
-        <v>385</v>
-      </c>
-      <c r="C81" s="154"/>
-      <c r="D81" s="108">
-        <f t="shared" si="6"/>
-        <v>1</v>
       </c>
       <c r="G81" s="112"/>
       <c r="I81" s="160"/>
       <c r="J81" s="112"/>
-      <c r="L81" s="161"/>
-      <c r="R81" s="41" t="s">
-        <v>372</v>
-      </c>
-      <c r="S81" s="110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L81" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="M81" s="110">
+        <v>2</v>
+      </c>
+      <c r="O81" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="P81" s="110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="110"/>
       <c r="B82" s="164" t="s">
-        <v>384</v>
-      </c>
-      <c r="C82" s="154">
-        <v>1.5</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C82" s="154"/>
       <c r="D82" s="108">
         <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G82" s="112"/>
+      <c r="I82" s="160"/>
+      <c r="J82" s="112"/>
+      <c r="L82" s="161"/>
+      <c r="R82" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="S82" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="A83" s="110"/>
+      <c r="B83" s="164" t="s">
+        <v>384</v>
+      </c>
+      <c r="C83" s="154">
+        <v>1.5</v>
+      </c>
+      <c r="D83" s="108">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="G82" s="112"/>
-      <c r="I82" s="107"/>
-      <c r="J82" s="112"/>
-      <c r="L82" s="41" t="s">
+      <c r="G83" s="112"/>
+      <c r="I83" s="107"/>
+      <c r="J83" s="112"/>
+      <c r="L83" s="41" t="s">
         <v>637</v>
       </c>
-      <c r="M82" s="110">
+      <c r="M83" s="110">
         <v>1</v>
       </c>
-      <c r="O82" s="41" t="s">
+      <c r="O83" s="41" t="s">
         <v>397</v>
       </c>
-      <c r="P82" s="110">
+      <c r="P83" s="110">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B83" s="110" t="s">
+    <row r="84" spans="1:20">
+      <c r="B84" s="110" t="s">
         <v>238</v>
       </c>
-      <c r="C83" s="108">
+      <c r="C84" s="108">
         <v>3</v>
-      </c>
-      <c r="D83" s="108">
-        <f>SUM(G83+J83+M83+P83+S83)</f>
-        <v>4</v>
-      </c>
-      <c r="E83" s="219" t="s">
-        <v>720</v>
-      </c>
-      <c r="I83" s="111"/>
-      <c r="J83" s="108"/>
-      <c r="L83" s="102"/>
-      <c r="M83" s="108"/>
-      <c r="O83" s="165" t="s">
-        <v>428</v>
-      </c>
-      <c r="P83" s="110">
-        <v>1</v>
-      </c>
-      <c r="R83" s="165" t="s">
-        <v>427</v>
-      </c>
-      <c r="S83" s="110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B84" s="107" t="s">
-        <v>233</v>
-      </c>
-      <c r="C84" s="108">
-        <v>2</v>
       </c>
       <c r="D84" s="108">
         <f>SUM(G84+J84+M84+P84+S84)</f>
+        <v>4</v>
+      </c>
+      <c r="E84" s="219" t="s">
+        <v>720</v>
+      </c>
+      <c r="I84" s="111"/>
+      <c r="J84" s="108"/>
+      <c r="L84" s="102"/>
+      <c r="M84" s="108"/>
+      <c r="O84" s="165" t="s">
+        <v>428</v>
+      </c>
+      <c r="P84" s="110">
+        <v>1</v>
+      </c>
+      <c r="R84" s="165" t="s">
+        <v>427</v>
+      </c>
+      <c r="S84" s="110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="B85" s="107" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="108">
         <v>2</v>
       </c>
-      <c r="I84" s="107"/>
-      <c r="O84" s="107"/>
-      <c r="R84" s="107" t="s">
+      <c r="D85" s="108">
+        <f>SUM(G85+J85+M85+P85+S85)</f>
+        <v>2</v>
+      </c>
+      <c r="I85" s="107"/>
+      <c r="O85" s="107"/>
+      <c r="R85" s="107" t="s">
         <v>248</v>
       </c>
-      <c r="S84" s="110">
+      <c r="S85" s="110">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D89" s="108">
+    <row r="90" spans="1:20">
+      <c r="D90" s="108">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B90" s="111"/>
-      <c r="C90" s="150"/>
-      <c r="D90" s="108">
+    <row r="91" spans="1:20">
+      <c r="B91" s="111"/>
+      <c r="C91" s="150"/>
+      <c r="D91" s="108">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="110"/>
-      <c r="B91" s="108" t="s">
+    <row r="92" spans="1:20">
+      <c r="A92" s="110"/>
+      <c r="B92" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="C91" s="108">
-        <f>SUM(C70:C89)</f>
+      <c r="C92" s="108">
+        <f>SUM(C71:C90)</f>
         <v>23</v>
       </c>
-      <c r="D91" s="108">
-        <f>SUM(D70:D89)</f>
+      <c r="D92" s="108">
+        <f>SUM(D71:D90)</f>
         <v>29</v>
       </c>
-      <c r="G91" s="108">
-        <f>SUM(G70:G89)</f>
+      <c r="G92" s="108">
+        <f>SUM(G71:G90)</f>
         <v>5</v>
       </c>
-      <c r="J91" s="108">
-        <f>SUM(J70:J89)</f>
+      <c r="J92" s="108">
+        <f>SUM(J71:J90)</f>
         <v>6</v>
       </c>
-      <c r="M91" s="108">
-        <f>SUM(M70:M89)</f>
+      <c r="M92" s="108">
+        <f>SUM(M71:M90)</f>
         <v>6</v>
       </c>
-      <c r="P91" s="108">
-        <f>SUM(P70:P89)</f>
+      <c r="P92" s="108">
+        <f>SUM(P71:P90)</f>
         <v>6</v>
       </c>
-      <c r="S91" s="108">
-        <f>SUM(S70:S89)</f>
+      <c r="S92" s="108">
+        <f>SUM(S71:S90)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="118"/>
-      <c r="D92" s="118"/>
-      <c r="E92" s="118"/>
-      <c r="H92" s="120"/>
-      <c r="K92" s="120"/>
-      <c r="N92" s="120"/>
-      <c r="Q92" s="120"/>
-      <c r="T92" s="120"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" s="38" t="s">
+    <row r="93" spans="1:20" s="119" customFormat="1">
+      <c r="C93" s="118"/>
+      <c r="D93" s="118"/>
+      <c r="E93" s="118"/>
+      <c r="H93" s="120"/>
+      <c r="K93" s="120"/>
+      <c r="N93" s="120"/>
+      <c r="Q93" s="120"/>
+      <c r="T93" s="120"/>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B93" s="106" t="s">
+      <c r="B94" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="C93" s="156">
+      <c r="C94" s="156">
         <v>1</v>
       </c>
-      <c r="D93" s="108">
-        <f t="shared" ref="D93" si="7">SUM(G93+J93+M93+P93+S93)</f>
+      <c r="D94" s="108">
+        <f t="shared" ref="D94" si="7">SUM(G94+J94+M94+P94+S94)</f>
         <v>1</v>
       </c>
-      <c r="F93" s="106" t="s">
+      <c r="F94" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="G93" s="108">
+      <c r="G94" s="108">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B94" s="148" t="s">
+    <row r="95" spans="1:20">
+      <c r="B95" s="148" t="s">
         <v>362</v>
       </c>
-      <c r="C94" s="108">
+      <c r="C95" s="108">
         <v>2</v>
       </c>
-      <c r="D94" s="108">
-        <f>SUM(G94+J94+M94+P94+S94)</f>
+      <c r="D95" s="108">
+        <f>SUM(G95+J95+M95+P95+S95)</f>
         <v>2</v>
       </c>
-      <c r="F94" s="148" t="s">
+      <c r="F95" s="148" t="s">
         <v>362</v>
       </c>
-      <c r="G94" s="110">
+      <c r="G95" s="110">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B95" s="215" t="s">
+    <row r="96" spans="1:20">
+      <c r="B96" s="215" t="s">
         <v>709</v>
       </c>
-      <c r="C95" s="157">
+      <c r="C96" s="157">
         <v>5</v>
       </c>
-      <c r="D95" s="108">
-        <f t="shared" ref="D95:D110" si="8">SUM(G95+J95+M95+P95+S95)</f>
+      <c r="D96" s="108">
+        <f t="shared" ref="D96:D111" si="8">SUM(G96+J96+M96+P96+S96)</f>
         <v>5</v>
       </c>
-      <c r="F95" s="215" t="s">
+      <c r="F96" s="215" t="s">
         <v>709</v>
       </c>
-      <c r="G95" s="108">
+      <c r="G96" s="108">
         <v>2</v>
       </c>
-      <c r="I95" s="215" t="s">
+      <c r="I96" s="215" t="s">
         <v>709</v>
       </c>
-      <c r="J95" s="110">
+      <c r="J96" s="110">
         <v>3</v>
       </c>
-      <c r="T95" s="110"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B96" s="149" t="s">
+      <c r="T96" s="110"/>
+    </row>
+    <row r="97" spans="1:20">
+      <c r="B97" s="149" t="s">
         <v>350</v>
       </c>
-      <c r="C96" s="150">
+      <c r="C97" s="150">
         <v>3</v>
       </c>
-      <c r="D96" s="108">
+      <c r="D97" s="108">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="G96" s="110">
+      <c r="G97" s="110">
         <v>0</v>
       </c>
-      <c r="I96" s="166" t="s">
+      <c r="I97" s="166" t="s">
         <v>395</v>
       </c>
-      <c r="J96" s="108">
+      <c r="J97" s="108">
         <v>2</v>
       </c>
-      <c r="L96" s="166" t="s">
+      <c r="L97" s="166" t="s">
         <v>396</v>
       </c>
-      <c r="M96" s="110">
+      <c r="M97" s="110">
         <v>1</v>
       </c>
-      <c r="T96" s="110"/>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B97" s="165" t="s">
+      <c r="T97" s="110"/>
+    </row>
+    <row r="98" spans="1:20">
+      <c r="B98" s="165" t="s">
         <v>394</v>
       </c>
-      <c r="C97" s="150">
+      <c r="C98" s="150">
         <v>1</v>
       </c>
-      <c r="I97" s="165" t="s">
+      <c r="I98" s="165" t="s">
         <v>394</v>
       </c>
-      <c r="J97" s="108">
+      <c r="J98" s="108">
         <v>1</v>
       </c>
-      <c r="L97" s="165" t="s">
+      <c r="L98" s="165" t="s">
         <v>394</v>
       </c>
-      <c r="M97" s="110">
+      <c r="M98" s="110">
         <v>0.5</v>
       </c>
-      <c r="T97" s="110"/>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B98" s="148" t="s">
+      <c r="T98" s="110"/>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="B99" s="148" t="s">
         <v>352</v>
-      </c>
-      <c r="C98" s="108">
-        <v>1</v>
-      </c>
-      <c r="D98" s="108">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L98" s="148" t="s">
-        <v>352</v>
-      </c>
-      <c r="M98" s="110">
-        <v>1</v>
-      </c>
-      <c r="T98" s="110"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B99" s="148" t="s">
-        <v>353</v>
       </c>
       <c r="C99" s="108">
         <v>1</v>
@@ -15743,16 +15758,16 @@
         <v>1</v>
       </c>
       <c r="L99" s="148" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M99" s="110">
         <v>1</v>
       </c>
       <c r="T99" s="110"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20">
       <c r="B100" s="148" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C100" s="108">
         <v>1</v>
@@ -15762,16 +15777,16 @@
         <v>1</v>
       </c>
       <c r="L100" s="148" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M100" s="110">
         <v>1</v>
       </c>
       <c r="T100" s="110"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20">
       <c r="B101" s="148" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C101" s="108">
         <v>1</v>
@@ -15781,104 +15796,104 @@
         <v>1</v>
       </c>
       <c r="L101" s="148" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M101" s="110">
         <v>1</v>
       </c>
       <c r="T101" s="110"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20">
       <c r="B102" s="148" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C102" s="108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D102" s="108">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="L102" s="148"/>
-      <c r="O102" s="148" t="s">
+        <v>1</v>
+      </c>
+      <c r="L102" s="148" t="s">
+        <v>358</v>
+      </c>
+      <c r="M102" s="110">
+        <v>1</v>
+      </c>
+      <c r="T102" s="110"/>
+    </row>
+    <row r="103" spans="1:20">
+      <c r="B103" s="148" t="s">
         <v>360</v>
       </c>
-      <c r="P102" s="110">
-        <v>2</v>
-      </c>
-      <c r="T102" s="110"/>
-    </row>
-    <row r="103" spans="1:20" ht="51" x14ac:dyDescent="0.25">
-      <c r="A103" s="110"/>
-      <c r="B103" s="144" t="s">
-        <v>334</v>
-      </c>
-      <c r="C103" s="157">
+      <c r="C103" s="108">
         <v>3</v>
       </c>
       <c r="D103" s="108">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="I103" s="106"/>
-      <c r="J103" s="108"/>
-      <c r="O103" s="144" t="s">
+        <v>2</v>
+      </c>
+      <c r="L103" s="148"/>
+      <c r="O103" s="148" t="s">
+        <v>360</v>
+      </c>
+      <c r="P103" s="110">
+        <v>2</v>
+      </c>
+      <c r="T103" s="110"/>
+    </row>
+    <row r="104" spans="1:20" ht="51">
+      <c r="A104" s="110"/>
+      <c r="B104" s="144" t="s">
         <v>334</v>
       </c>
-      <c r="P103" s="110">
-        <v>3</v>
-      </c>
-      <c r="T103" s="110"/>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B104" s="147" t="s">
-        <v>361</v>
-      </c>
-      <c r="C104" s="156">
+      <c r="C104" s="157">
         <v>3</v>
       </c>
       <c r="D104" s="108">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="L104" s="106"/>
-      <c r="M104" s="108"/>
-      <c r="O104" s="147" t="s">
+        <v>3</v>
+      </c>
+      <c r="I104" s="106"/>
+      <c r="J104" s="108"/>
+      <c r="O104" s="144" t="s">
+        <v>334</v>
+      </c>
+      <c r="P104" s="110">
+        <v>3</v>
+      </c>
+      <c r="T104" s="110"/>
+    </row>
+    <row r="105" spans="1:20">
+      <c r="B105" s="147" t="s">
         <v>361</v>
       </c>
-      <c r="P104" s="110">
-        <v>1</v>
-      </c>
-      <c r="R104" s="147" t="s">
-        <v>361</v>
-      </c>
-      <c r="S104" s="161">
-        <v>1</v>
-      </c>
-      <c r="T104" s="110"/>
-    </row>
-    <row r="105" spans="1:20" ht="34" x14ac:dyDescent="0.25">
-      <c r="B105" s="106" t="s">
-        <v>263</v>
-      </c>
-      <c r="C105" s="156"/>
+      <c r="C105" s="156">
+        <v>3</v>
+      </c>
       <c r="D105" s="108">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="L105" s="106"/>
       <c r="M105" s="108"/>
-      <c r="R105" s="106" t="s">
+      <c r="O105" s="147" t="s">
+        <v>361</v>
+      </c>
+      <c r="P105" s="110">
+        <v>1</v>
+      </c>
+      <c r="R105" s="147" t="s">
+        <v>361</v>
+      </c>
+      <c r="S105" s="161">
+        <v>1</v>
+      </c>
+      <c r="T105" s="110"/>
+    </row>
+    <row r="106" spans="1:20" ht="34">
+      <c r="B106" s="106" t="s">
         <v>263</v>
-      </c>
-      <c r="S105" s="110">
-        <v>2</v>
-      </c>
-      <c r="T105" s="110"/>
-    </row>
-    <row r="106" spans="1:20" ht="34" x14ac:dyDescent="0.25">
-      <c r="B106" s="106" t="s">
-        <v>264</v>
       </c>
       <c r="C106" s="156"/>
       <c r="D106" s="108">
@@ -15888,26 +15903,34 @@
       <c r="L106" s="106"/>
       <c r="M106" s="108"/>
       <c r="R106" s="106" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="S106" s="110">
         <v>2</v>
       </c>
       <c r="T106" s="110"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A107" s="110"/>
-      <c r="B107" s="106"/>
+    <row r="107" spans="1:20" ht="34">
+      <c r="B107" s="106" t="s">
+        <v>264</v>
+      </c>
       <c r="C107" s="156"/>
       <c r="D107" s="108">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O107" s="106"/>
-      <c r="P107" s="108"/>
+        <v>2</v>
+      </c>
+      <c r="L107" s="106"/>
+      <c r="M107" s="108"/>
+      <c r="R107" s="106" t="s">
+        <v>264</v>
+      </c>
+      <c r="S107" s="110">
+        <v>2</v>
+      </c>
       <c r="T107" s="110"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20">
+      <c r="A108" s="110"/>
       <c r="B108" s="106"/>
       <c r="C108" s="156"/>
       <c r="D108" s="108">
@@ -15918,19 +15941,21 @@
       <c r="P108" s="108"/>
       <c r="T108" s="110"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A109" s="110"/>
+    <row r="109" spans="1:20">
       <c r="B109" s="106"/>
       <c r="C109" s="156"/>
       <c r="D109" s="108">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R109" s="106"/>
-      <c r="S109" s="108"/>
+      <c r="O109" s="106"/>
+      <c r="P109" s="108"/>
       <c r="T109" s="110"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20">
+      <c r="A110" s="110"/>
+      <c r="B110" s="106"/>
+      <c r="C110" s="156"/>
       <c r="D110" s="108">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -15939,166 +15964,161 @@
       <c r="S110" s="108"/>
       <c r="T110" s="110"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B111" s="108" t="s">
+    <row r="111" spans="1:20">
+      <c r="D111" s="108">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R111" s="106"/>
+      <c r="S111" s="108"/>
+      <c r="T111" s="110"/>
+    </row>
+    <row r="112" spans="1:20">
+      <c r="B112" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="C111" s="108">
-        <f>SUM(C93:C109)</f>
+      <c r="C112" s="108">
+        <f>SUM(C94:C110)</f>
         <v>25</v>
       </c>
-      <c r="D111" s="108">
-        <f>SUM(D93:D109)</f>
+      <c r="D112" s="108">
+        <f>SUM(D94:D110)</f>
         <v>26</v>
       </c>
-      <c r="G111" s="108">
-        <f>SUM(G93:G109)</f>
+      <c r="G112" s="108">
+        <f>SUM(G94:G110)</f>
         <v>5</v>
       </c>
-      <c r="J111" s="108">
-        <f>SUM(J93:J109)</f>
+      <c r="J112" s="108">
+        <f>SUM(J94:J110)</f>
         <v>6</v>
       </c>
-      <c r="M111" s="108">
-        <f>SUM(M93:M109)</f>
+      <c r="M112" s="108">
+        <f>SUM(M94:M110)</f>
         <v>5.5</v>
       </c>
-      <c r="P111" s="108">
-        <f>SUM(P93:P109)</f>
+      <c r="P112" s="108">
+        <f>SUM(P94:P110)</f>
         <v>6</v>
       </c>
-      <c r="S111" s="108">
-        <f>SUM(S93:S110)</f>
+      <c r="S112" s="108">
+        <f>SUM(S94:S111)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F114" t="s">
+    <row r="115" spans="1:20" customFormat="1" ht="18">
+      <c r="F115" t="s">
         <v>445</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I115" t="s">
         <v>444</v>
       </c>
-      <c r="L114" t="s">
+      <c r="L115" t="s">
         <v>443</v>
       </c>
-      <c r="O114" t="s">
+      <c r="O115" t="s">
         <v>442</v>
       </c>
-      <c r="R114" t="s">
+      <c r="R115" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="115" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="38"/>
-      <c r="B115" s="166" t="s">
+    <row r="116" spans="1:20" s="166" customFormat="1">
+      <c r="A116" s="38"/>
+      <c r="B116" s="166" t="s">
         <v>399</v>
       </c>
-      <c r="C115" s="171"/>
-      <c r="D115" s="171"/>
-      <c r="E115" s="171"/>
-      <c r="F115" s="166" t="s">
-        <v>440</v>
-      </c>
-      <c r="H115" s="170"/>
-      <c r="I115" s="166" t="s">
-        <v>440</v>
-      </c>
-      <c r="K115" s="170"/>
-      <c r="L115" s="166" t="s">
-        <v>440</v>
-      </c>
-      <c r="N115" s="170"/>
-      <c r="O115" s="166" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q115" s="170"/>
-      <c r="R115" s="166" t="s">
-        <v>440</v>
-      </c>
-      <c r="T115" s="170"/>
-    </row>
-    <row r="116" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="38"/>
       <c r="C116" s="171"/>
       <c r="D116" s="171"/>
       <c r="E116" s="171"/>
+      <c r="F116" s="166" t="s">
+        <v>440</v>
+      </c>
       <c r="H116" s="170"/>
+      <c r="I116" s="166" t="s">
+        <v>440</v>
+      </c>
       <c r="K116" s="170"/>
+      <c r="L116" s="166" t="s">
+        <v>440</v>
+      </c>
       <c r="N116" s="170"/>
+      <c r="O116" s="166" t="s">
+        <v>440</v>
+      </c>
       <c r="Q116" s="170"/>
+      <c r="R116" s="166" t="s">
+        <v>440</v>
+      </c>
       <c r="T116" s="170"/>
     </row>
-    <row r="117" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" s="166" customFormat="1">
       <c r="A117" s="38"/>
       <c r="C117" s="171"/>
       <c r="D117" s="171"/>
       <c r="E117" s="171"/>
+      <c r="H117" s="170"/>
       <c r="K117" s="170"/>
       <c r="N117" s="170"/>
       <c r="Q117" s="170"/>
       <c r="T117" s="170"/>
     </row>
-    <row r="118" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" s="166" customFormat="1">
       <c r="A118" s="38"/>
       <c r="C118" s="171"/>
       <c r="D118" s="171"/>
       <c r="E118" s="171"/>
-      <c r="F118" s="166" t="s">
-        <v>417</v>
-      </c>
-      <c r="H118" s="170"/>
-      <c r="I118" s="166" t="s">
-        <v>449</v>
-      </c>
       <c r="K118" s="170"/>
-      <c r="L118" s="166" t="s">
-        <v>410</v>
-      </c>
       <c r="N118" s="170"/>
-      <c r="O118" s="166" t="s">
-        <v>448</v>
-      </c>
       <c r="Q118" s="170"/>
-      <c r="R118" s="166" t="s">
-        <v>454</v>
-      </c>
       <c r="T118" s="170"/>
     </row>
-    <row r="119" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" s="166" customFormat="1">
       <c r="A119" s="38"/>
       <c r="C119" s="171"/>
       <c r="D119" s="171"/>
       <c r="E119" s="171"/>
+      <c r="F119" s="166" t="s">
+        <v>417</v>
+      </c>
+      <c r="H119" s="170"/>
+      <c r="I119" s="166" t="s">
+        <v>449</v>
+      </c>
       <c r="K119" s="170"/>
       <c r="L119" s="166" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N119" s="170"/>
       <c r="O119" s="166" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="Q119" s="170"/>
       <c r="R119" s="166" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="T119" s="170"/>
     </row>
-    <row r="120" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" s="166" customFormat="1">
       <c r="A120" s="38"/>
       <c r="C120" s="171"/>
       <c r="D120" s="171"/>
       <c r="E120" s="171"/>
-      <c r="H120" s="170"/>
       <c r="K120" s="170"/>
       <c r="L120" s="166" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="N120" s="170"/>
+      <c r="O120" s="166" t="s">
+        <v>416</v>
+      </c>
       <c r="Q120" s="170"/>
+      <c r="R120" s="166" t="s">
+        <v>455</v>
+      </c>
       <c r="T120" s="170"/>
     </row>
-    <row r="121" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" s="166" customFormat="1">
       <c r="A121" s="38"/>
       <c r="C121" s="171"/>
       <c r="D121" s="171"/>
@@ -16106,190 +16126,190 @@
       <c r="H121" s="170"/>
       <c r="K121" s="170"/>
       <c r="L121" s="166" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="N121" s="170"/>
       <c r="Q121" s="170"/>
       <c r="T121" s="170"/>
     </row>
-    <row r="122" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" s="166" customFormat="1">
       <c r="A122" s="38"/>
       <c r="C122" s="171"/>
       <c r="D122" s="171"/>
       <c r="E122" s="171"/>
       <c r="H122" s="170"/>
       <c r="K122" s="170"/>
+      <c r="L122" s="166" t="s">
+        <v>408</v>
+      </c>
       <c r="N122" s="170"/>
       <c r="Q122" s="170"/>
       <c r="T122" s="170"/>
     </row>
-    <row r="123" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" s="166" customFormat="1">
       <c r="A123" s="38"/>
       <c r="C123" s="171"/>
       <c r="D123" s="171"/>
       <c r="E123" s="171"/>
-      <c r="F123" s="166" t="s">
-        <v>396</v>
-      </c>
       <c r="H123" s="170"/>
-      <c r="I123" s="166" t="s">
-        <v>396</v>
-      </c>
       <c r="K123" s="170"/>
-      <c r="L123" s="166" t="s">
-        <v>396</v>
-      </c>
       <c r="N123" s="170"/>
-      <c r="O123" s="166" t="s">
-        <v>396</v>
-      </c>
       <c r="Q123" s="170"/>
-      <c r="R123" s="166" t="s">
-        <v>396</v>
-      </c>
       <c r="T123" s="170"/>
     </row>
-    <row r="124" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" s="166" customFormat="1">
       <c r="A124" s="38"/>
       <c r="C124" s="171"/>
       <c r="D124" s="171"/>
       <c r="E124" s="171"/>
+      <c r="F124" s="166" t="s">
+        <v>396</v>
+      </c>
       <c r="H124" s="170"/>
+      <c r="I124" s="166" t="s">
+        <v>396</v>
+      </c>
       <c r="K124" s="170"/>
+      <c r="L124" s="166" t="s">
+        <v>396</v>
+      </c>
       <c r="N124" s="170"/>
+      <c r="O124" s="166" t="s">
+        <v>396</v>
+      </c>
       <c r="Q124" s="170"/>
+      <c r="R124" s="166" t="s">
+        <v>396</v>
+      </c>
       <c r="T124" s="170"/>
     </row>
-    <row r="125" spans="1:20" s="166" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" s="166" customFormat="1">
       <c r="A125" s="38"/>
       <c r="C125" s="171"/>
       <c r="D125" s="171"/>
       <c r="E125" s="171"/>
-      <c r="F125" s="166" t="s">
-        <v>400</v>
-      </c>
       <c r="H125" s="170"/>
-      <c r="I125" s="166" t="s">
-        <v>438</v>
-      </c>
       <c r="K125" s="170"/>
-      <c r="L125" s="166" t="s">
-        <v>414</v>
-      </c>
       <c r="N125" s="170"/>
-      <c r="O125" s="7" t="s">
-        <v>519</v>
-      </c>
       <c r="Q125" s="170"/>
-      <c r="R125" s="166" t="s">
-        <v>364</v>
-      </c>
       <c r="T125" s="170"/>
     </row>
-    <row r="126" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" s="166" customFormat="1" ht="18">
       <c r="A126" s="38"/>
       <c r="C126" s="171"/>
       <c r="D126" s="171"/>
       <c r="E126" s="171"/>
       <c r="F126" s="166" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H126" s="170"/>
       <c r="I126" s="166" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K126" s="170"/>
-      <c r="L126" s="165" t="s">
-        <v>394</v>
+      <c r="L126" s="166" t="s">
+        <v>414</v>
       </c>
       <c r="N126" s="170"/>
-      <c r="O126" s="166" t="s">
-        <v>412</v>
+      <c r="O126" s="7" t="s">
+        <v>519</v>
       </c>
       <c r="Q126" s="170"/>
       <c r="R126" s="166" t="s">
-        <v>453</v>
+        <v>364</v>
       </c>
       <c r="T126" s="170"/>
     </row>
-    <row r="127" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" s="166" customFormat="1">
       <c r="A127" s="38"/>
       <c r="C127" s="171"/>
       <c r="D127" s="171"/>
       <c r="E127" s="171"/>
       <c r="F127" s="166" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="H127" s="170"/>
       <c r="I127" s="166" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="K127" s="170"/>
-      <c r="L127" s="166" t="s">
-        <v>420</v>
+      <c r="L127" s="165" t="s">
+        <v>394</v>
       </c>
       <c r="N127" s="170"/>
       <c r="O127" s="166" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="Q127" s="170"/>
+      <c r="R127" s="166" t="s">
+        <v>453</v>
+      </c>
       <c r="T127" s="170"/>
     </row>
-    <row r="128" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" s="166" customFormat="1">
       <c r="A128" s="38"/>
       <c r="C128" s="171"/>
       <c r="D128" s="171"/>
       <c r="E128" s="171"/>
-      <c r="F128" s="179" t="s">
-        <v>520</v>
+      <c r="F128" s="166" t="s">
+        <v>434</v>
       </c>
       <c r="H128" s="170"/>
       <c r="I128" s="166" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="K128" s="170"/>
       <c r="L128" s="166" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="N128" s="170"/>
       <c r="O128" s="166" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q128" s="170"/>
       <c r="T128" s="170"/>
     </row>
-    <row r="129" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" s="166" customFormat="1">
       <c r="A129" s="38"/>
       <c r="C129" s="171"/>
       <c r="D129" s="171"/>
       <c r="E129" s="171"/>
+      <c r="F129" s="179" t="s">
+        <v>520</v>
+      </c>
       <c r="H129" s="170"/>
+      <c r="I129" s="166" t="s">
+        <v>436</v>
+      </c>
       <c r="K129" s="170"/>
       <c r="L129" s="166" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="N129" s="170"/>
       <c r="O129" s="166" t="s">
-        <v>360</v>
+        <v>451</v>
       </c>
       <c r="Q129" s="170"/>
       <c r="T129" s="170"/>
     </row>
-    <row r="130" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" s="166" customFormat="1">
       <c r="A130" s="38"/>
       <c r="C130" s="171"/>
       <c r="D130" s="171"/>
       <c r="E130" s="171"/>
       <c r="H130" s="170"/>
       <c r="K130" s="170"/>
+      <c r="L130" s="166" t="s">
+        <v>409</v>
+      </c>
       <c r="N130" s="170"/>
       <c r="O130" s="166" t="s">
-        <v>452</v>
+        <v>360</v>
       </c>
       <c r="Q130" s="170"/>
       <c r="T130" s="170"/>
     </row>
-    <row r="131" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" s="166" customFormat="1">
       <c r="A131" s="38"/>
       <c r="C131" s="171"/>
       <c r="D131" s="171"/>
@@ -16297,148 +16317,172 @@
       <c r="H131" s="170"/>
       <c r="K131" s="170"/>
       <c r="N131" s="170"/>
+      <c r="O131" s="166" t="s">
+        <v>452</v>
+      </c>
       <c r="Q131" s="170"/>
       <c r="T131" s="170"/>
     </row>
-    <row r="132" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F132" s="166" t="s">
+    <row r="132" spans="1:20" s="166" customFormat="1">
+      <c r="A132" s="38"/>
+      <c r="C132" s="171"/>
+      <c r="D132" s="171"/>
+      <c r="E132" s="171"/>
+      <c r="H132" s="170"/>
+      <c r="K132" s="170"/>
+      <c r="N132" s="170"/>
+      <c r="Q132" s="170"/>
+      <c r="T132" s="170"/>
+    </row>
+    <row r="133" spans="1:20" customFormat="1" ht="18">
+      <c r="F133" s="166" t="s">
         <v>435</v>
       </c>
-      <c r="I132" s="166" t="s">
+      <c r="I133" s="166" t="s">
         <v>435</v>
       </c>
-      <c r="L132" s="166" t="s">
+      <c r="L133" s="166" t="s">
         <v>435</v>
       </c>
-      <c r="O132" t="s">
+      <c r="O133" t="s">
         <v>435</v>
       </c>
-      <c r="R132" t="s">
+      <c r="R133" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="133" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F133" s="166"/>
-      <c r="I133" s="166"/>
-      <c r="L133" s="166"/>
-    </row>
-    <row r="134" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F134" s="166" t="s">
+    <row r="134" spans="1:20" customFormat="1" ht="18">
+      <c r="F134" s="166"/>
+      <c r="I134" s="166"/>
+      <c r="L134" s="166"/>
+    </row>
+    <row r="135" spans="1:20" customFormat="1" ht="18">
+      <c r="F135" s="166" t="s">
         <v>143</v>
       </c>
-      <c r="I134" s="166" t="s">
+      <c r="I135" s="166" t="s">
         <v>434</v>
       </c>
-      <c r="O134" t="s">
+      <c r="O135" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="135" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="I135" s="166" t="s">
+    <row r="136" spans="1:20" customFormat="1" ht="18">
+      <c r="I136" s="166" t="s">
         <v>433</v>
       </c>
-      <c r="L135" s="166" t="s">
+      <c r="L136" s="166" t="s">
         <v>432</v>
       </c>
-      <c r="O135" t="s">
+      <c r="O136" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="136" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="L136" s="166"/>
-    </row>
-    <row r="137" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F137" s="166" t="s">
+    <row r="137" spans="1:20" customFormat="1" ht="18">
+      <c r="L137" s="166"/>
+    </row>
+    <row r="138" spans="1:20" customFormat="1" ht="18">
+      <c r="F138" s="166" t="s">
         <v>431</v>
       </c>
-      <c r="I137" s="166" t="s">
+      <c r="I138" s="166" t="s">
         <v>431</v>
       </c>
-      <c r="L137" s="166" t="s">
+      <c r="L138" s="166" t="s">
         <v>431</v>
       </c>
-      <c r="O137" t="s">
+      <c r="O138" t="s">
         <v>431</v>
       </c>
-      <c r="R137" t="s">
+      <c r="R138" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="138" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F139" s="166" t="s">
+    <row r="139" spans="1:20" customFormat="1" ht="18"/>
+    <row r="140" spans="1:20" customFormat="1" ht="18">
+      <c r="F140" s="166" t="s">
         <v>403</v>
       </c>
-      <c r="I139" s="166" t="s">
+      <c r="I140" s="166" t="s">
         <v>405</v>
       </c>
-      <c r="L139" s="166" t="s">
+      <c r="L140" s="166" t="s">
         <v>407</v>
       </c>
-      <c r="O139" t="s">
+      <c r="O140" t="s">
         <v>456</v>
       </c>
-      <c r="R139" t="s">
+      <c r="R140" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="140" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F140" s="166" t="s">
+    <row r="141" spans="1:20" customFormat="1" ht="18">
+      <c r="F141" s="166" t="s">
         <v>404</v>
       </c>
-      <c r="I140" s="166" t="s">
+      <c r="I141" s="166" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="141" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="I141" s="166" t="s">
+    <row r="142" spans="1:20" customFormat="1" ht="18">
+      <c r="I142" s="166" t="s">
         <v>429</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="B111 B91 F95 B67 B53:C53 B52 F57:F58 F55 L47 O84 B47:C47 F62 F44 C48:C49 B48 B60:C61 B84:C84 I80:I82 L37:L44 I45 I59 I61 L60 I37:I43 B37:C45 B50:C51 I47:I53 L49:L53 I84">
-    <cfRule type="cellIs" dxfId="19" priority="81" operator="equal">
+  <conditionalFormatting sqref="B112 B92 F96 B68 B54:C54 B53 F58:F59 F56 L48 O85 B48:C48 F63 F45 C49:C50 B49 B61:C62 B85:C85 I81:I83 L37:L45 I46 I60 I62 L61 I37:I44 B37:C46 B51:C52 I48:I54 L50:L54 I85">
+    <cfRule type="cellIs" dxfId="21" priority="82" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I103 O107:O108 R109:R110 B93:C93 B95:C95 L104:L106 B103:C109 F93 B70:C70 F70 I65:I71 I73:I74 B80:C82 O103:O104 R104:R106 F95 I95">
-    <cfRule type="cellIs" dxfId="18" priority="64" operator="equal">
+  <conditionalFormatting sqref="I104 O108:O109 R110:R111 B94:C94 B96:C96 L105:L107 B104:C110 F94 B71:C71 F71 I66:I72 I74:I75 B81:C83 O104:O105 R105:R107 F96 I96">
+    <cfRule type="cellIs" dxfId="20" priority="65" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O48">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+  <conditionalFormatting sqref="O49">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R84">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+  <conditionalFormatting sqref="R85">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O41">
+  <conditionalFormatting sqref="O41:O42">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16 I21 B21 F5:F6 I36 B36:C36 G20:G21 G23 G18 G26">
     <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16 I21 B21 F5:F6 I36 B36:C36 G20:G21 G23 G18 G26">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16446,14 +16490,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="39"/>
     <col min="2" max="2" width="36.7109375" style="172" customWidth="1"/>
@@ -16468,7 +16512,7 @@
     <col min="11" max="16384" width="8.7109375" style="172"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="39" customFormat="1">
       <c r="B2" s="39" t="s">
         <v>283</v>
       </c>
@@ -16497,7 +16541,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="39" t="s">
         <v>458</v>
       </c>
@@ -16509,7 +16553,7 @@
       </c>
       <c r="J3" s="45"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="172" t="s">
         <v>506</v>
       </c>
@@ -16519,35 +16563,35 @@
       <c r="G4" s="47"/>
       <c r="I4" s="47"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="191" t="s">
         <v>593</v>
       </c>
       <c r="G5" s="47"/>
       <c r="I5" s="47"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="174" t="s">
         <v>466</v>
       </c>
       <c r="H6" s="53"/>
       <c r="I6" s="47"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="175" t="s">
         <v>464</v>
       </c>
       <c r="H7" s="53"/>
       <c r="I7" s="47"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="174" t="s">
         <v>465</v>
       </c>
       <c r="H8" s="53"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="174"/>
       <c r="D9" s="174" t="s">
         <v>470</v>
@@ -16560,7 +16604,7 @@
       </c>
       <c r="I9" s="47"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="C10" s="47"/>
       <c r="D10" s="172" t="s">
         <v>556</v>
@@ -16568,14 +16612,14 @@
       <c r="H10" s="125"/>
       <c r="I10" s="47"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="D11" s="172" t="s">
         <v>467</v>
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="47"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="174"/>
       <c r="D12" s="172" t="s">
         <v>468</v>
@@ -16583,7 +16627,7 @@
       <c r="G12" s="172"/>
       <c r="I12" s="47"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="174"/>
       <c r="F13" s="172" t="s">
         <v>507</v>
@@ -16594,14 +16638,14 @@
       </c>
       <c r="I13" s="47"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="F14" s="174" t="s">
         <v>463</v>
       </c>
       <c r="G14" s="172"/>
       <c r="I14" s="47"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="D15" s="174"/>
       <c r="F15" s="172" t="s">
         <v>472</v>
@@ -16609,7 +16653,7 @@
       <c r="G15" s="176"/>
       <c r="I15" s="47"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="G16" s="172"/>
       <c r="H16" s="174" t="s">
         <v>508</v>
@@ -16618,20 +16662,20 @@
         <v>461</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="H17" s="172" t="s">
         <v>473</v>
       </c>
       <c r="I17" s="47"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="B18" s="174"/>
       <c r="H18" s="172" t="s">
         <v>474</v>
       </c>
       <c r="I18" s="47"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="B19" s="174"/>
       <c r="D19" s="174"/>
       <c r="H19" s="172" t="s">
@@ -16639,7 +16683,7 @@
       </c>
       <c r="I19" s="47"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="B20" s="174"/>
       <c r="D20" s="174"/>
       <c r="H20" s="172" t="s">
@@ -16647,7 +16691,7 @@
       </c>
       <c r="I20" s="47"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="B21" s="174"/>
       <c r="D21" s="174"/>
       <c r="H21" s="53"/>
@@ -16656,14 +16700,14 @@
         <v>477</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="18" customHeight="1">
       <c r="B22" s="53"/>
       <c r="I22" s="47"/>
       <c r="J22" s="172" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="B23" s="174" t="s">
         <v>560</v>
       </c>
@@ -16673,7 +16717,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="B24" s="174" t="s">
         <v>139</v>
       </c>
@@ -16683,11 +16727,11 @@
       <c r="H24" s="53"/>
       <c r="I24" s="47"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="B25" s="53"/>
       <c r="I25" s="47"/>
     </row>
-    <row r="26" spans="1:10" s="178" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="178" customFormat="1">
       <c r="A26" s="126"/>
       <c r="B26" s="129"/>
       <c r="C26" s="177"/>
@@ -16696,7 +16740,7 @@
       <c r="G26" s="177"/>
       <c r="I26" s="128"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="39" t="s">
         <v>479</v>
       </c>
@@ -16709,7 +16753,7 @@
       <c r="H27" s="53"/>
       <c r="I27" s="47"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="B28" s="172" t="s">
         <v>557</v>
       </c>
@@ -16721,7 +16765,7 @@
       </c>
       <c r="I28" s="47"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="B29" s="175" t="s">
         <v>558</v>
       </c>
@@ -16735,7 +16779,7 @@
       </c>
       <c r="I29" s="47"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="D30" s="172" t="s">
         <v>513</v>
       </c>
@@ -16747,7 +16791,7 @@
       </c>
       <c r="I30" s="47"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="D31" s="172" t="s">
         <v>512</v>
       </c>
@@ -16759,7 +16803,7 @@
       </c>
       <c r="I31" s="47"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="B32" s="175"/>
       <c r="C32" s="49"/>
       <c r="F32" s="172" t="s">
@@ -16774,7 +16818,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="H33" s="172" t="s">
         <v>473</v>
       </c>
@@ -16782,14 +16826,14 @@
         <v>487</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="178" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="178" customFormat="1">
       <c r="A35" s="126"/>
       <c r="C35" s="177"/>
       <c r="E35" s="177"/>
       <c r="G35" s="177"/>
       <c r="I35" s="177"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="39" t="s">
         <v>488</v>
       </c>
@@ -16808,7 +16852,7 @@
       </c>
       <c r="I36" s="47"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="D37" s="172" t="s">
         <v>468</v>
       </c>
@@ -16821,7 +16865,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="C38" s="47"/>
       <c r="G38" s="47"/>
       <c r="H38" s="172" t="s">
@@ -16832,7 +16876,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="H39" s="172" t="s">
         <v>493</v>
       </c>
@@ -16841,17 +16885,17 @@
         <v>584</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="B40" s="172" t="s">
         <v>561</v>
       </c>
       <c r="F40" s="43"/>
       <c r="H40" s="43"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="H41" s="43"/>
     </row>
-    <row r="42" spans="1:11" s="178" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="178" customFormat="1">
       <c r="A42" s="126"/>
       <c r="B42" s="127"/>
       <c r="C42" s="177"/>
@@ -16859,7 +16903,7 @@
       <c r="G42" s="177"/>
       <c r="I42" s="128"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="39" t="s">
         <v>494</v>
       </c>
@@ -16868,7 +16912,7 @@
       </c>
       <c r="I43" s="47"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="B44" s="172" t="s">
         <v>496</v>
       </c>
@@ -16884,13 +16928,13 @@
       </c>
       <c r="I44" s="47"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="D45" s="172" t="s">
         <v>288</v>
       </c>
       <c r="I45" s="47"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="B46" s="43"/>
       <c r="H46" s="172" t="s">
         <v>516</v>
@@ -16900,21 +16944,21 @@
       </c>
       <c r="K46" s="47"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="I47" s="47"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="B48" s="43"/>
       <c r="D48" s="43"/>
       <c r="H48" s="53"/>
       <c r="I48" s="47"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="B49" s="43"/>
       <c r="D49" s="43"/>
       <c r="I49" s="47"/>
     </row>
-    <row r="50" spans="1:10" s="178" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="178" customFormat="1">
       <c r="A50" s="126"/>
       <c r="C50" s="177"/>
       <c r="E50" s="177"/>
@@ -16922,7 +16966,7 @@
       <c r="H50" s="129"/>
       <c r="I50" s="177"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="39" t="s">
         <v>499</v>
       </c>
@@ -16930,7 +16974,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="B52" s="172" t="s">
         <v>501</v>
       </c>
@@ -16944,31 +16988,31 @@
       <c r="G52" s="47"/>
       <c r="I52" s="47"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="G53" s="47"/>
       <c r="I53" s="47"/>
       <c r="J53" s="172" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="G54" s="47"/>
       <c r="I54" s="47"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="G55" s="47"/>
       <c r="I55" s="47"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="E56" s="47"/>
       <c r="G56" s="47"/>
       <c r="I56" s="47"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="F57" s="43"/>
       <c r="I57" s="47"/>
     </row>
-    <row r="58" spans="1:10" s="178" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="178" customFormat="1">
       <c r="A58" s="126"/>
       <c r="C58" s="177"/>
       <c r="E58" s="177"/>
@@ -16976,7 +17020,7 @@
       <c r="G58" s="177"/>
       <c r="I58" s="128"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="39" t="s">
         <v>502</v>
       </c>
@@ -16990,7 +17034,7 @@
       </c>
       <c r="I59" s="47"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="B60" s="172" t="s">
         <v>292</v>
       </c>
@@ -16999,7 +17043,7 @@
       <c r="G60" s="47"/>
       <c r="I60" s="47"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="B61" s="175" t="s">
         <v>464</v>
       </c>
@@ -17012,7 +17056,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="D62" s="172" t="s">
         <v>554</v>
       </c>
@@ -17025,7 +17069,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="B63" s="175"/>
       <c r="E63" s="47"/>
       <c r="F63" s="172" t="s">
@@ -17037,13 +17081,13 @@
         <v>461</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="D64" s="43"/>
       <c r="H64" s="172" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:10">
       <c r="J65" s="172" t="s">
         <v>505</v>
       </c>
@@ -17051,32 +17095,37 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="F44 H10 F9 D9 B12:B13 F14 B18:B21 D19:D21 B29 B32 B6:B9 J23 B24">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43 H16 D15">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61 B63">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17091,7 +17140,7 @@
       <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="79"/>
     <col min="2" max="2" width="31.85546875" style="81" customWidth="1"/>
@@ -17107,7 +17156,7 @@
     <col min="12" max="16384" width="8.7109375" style="81"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="72" customFormat="1">
       <c r="B2" s="72" t="s">
         <v>266</v>
       </c>
@@ -17139,7 +17188,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="72" customFormat="1">
       <c r="A3" s="75" t="s">
         <v>90</v>
       </c>
@@ -17152,7 +17201,7 @@
       </c>
       <c r="E3" s="74"/>
     </row>
-    <row r="4" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="72" customFormat="1">
       <c r="A4" s="75"/>
       <c r="B4" s="130" t="s">
         <v>314</v>
@@ -17169,7 +17218,7 @@
       <c r="J4" s="83"/>
       <c r="K4" s="76"/>
     </row>
-    <row r="5" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="72" customFormat="1">
       <c r="B5" s="188" t="s">
         <v>567</v>
       </c>
@@ -17186,7 +17235,7 @@
       </c>
       <c r="K5" s="76"/>
     </row>
-    <row r="6" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="72" customFormat="1">
       <c r="A6" s="75"/>
       <c r="B6" s="130" t="s">
         <v>297</v>
@@ -17198,7 +17247,7 @@
       <c r="J6" s="77"/>
       <c r="K6" s="78"/>
     </row>
-    <row r="7" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="72" customFormat="1">
       <c r="D7" s="191" t="s">
         <v>572</v>
       </c>
@@ -17207,7 +17256,7 @@
       <c r="I7" s="77"/>
       <c r="K7" s="76"/>
     </row>
-    <row r="8" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="72" customFormat="1">
       <c r="A8" s="75"/>
       <c r="C8" s="77"/>
       <c r="D8" s="130" t="s">
@@ -17219,7 +17268,7 @@
       <c r="J8" s="85"/>
       <c r="K8" s="78"/>
     </row>
-    <row r="9" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="72" customFormat="1">
       <c r="C9" s="77"/>
       <c r="D9" s="131" t="s">
         <v>298</v>
@@ -17237,7 +17286,7 @@
       </c>
       <c r="K9" s="76"/>
     </row>
-    <row r="10" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="72" customFormat="1">
       <c r="C10" s="77"/>
       <c r="D10" s="131"/>
       <c r="F10" s="190" t="s">
@@ -17253,7 +17302,7 @@
       </c>
       <c r="K10" s="76"/>
     </row>
-    <row r="11" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="72" customFormat="1">
       <c r="C11" s="77"/>
       <c r="F11" s="132" t="s">
         <v>304</v>
@@ -17264,7 +17313,7 @@
       <c r="J11" s="77"/>
       <c r="K11" s="76"/>
     </row>
-    <row r="12" spans="1:11" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="76" customFormat="1">
       <c r="A12" s="75"/>
       <c r="F12" s="130" t="s">
         <v>305</v>
@@ -17273,7 +17322,7 @@
       <c r="H12" s="77"/>
       <c r="I12" s="77"/>
     </row>
-    <row r="13" spans="1:11" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="76" customFormat="1">
       <c r="A13" s="75"/>
       <c r="F13" s="130"/>
       <c r="G13" s="77"/>
@@ -17285,7 +17334,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="76" customFormat="1">
       <c r="A14" s="75"/>
       <c r="F14" s="130"/>
       <c r="G14" s="77"/>
@@ -17297,7 +17346,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="76" customFormat="1">
       <c r="A15" s="75"/>
       <c r="F15" s="130"/>
       <c r="G15" s="77"/>
@@ -17306,7 +17355,7 @@
       </c>
       <c r="I15" s="77"/>
     </row>
-    <row r="16" spans="1:11" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="76" customFormat="1">
       <c r="A16" s="75"/>
       <c r="G16" s="77"/>
       <c r="H16" s="131" t="s">
@@ -17315,7 +17364,7 @@
       <c r="I16" s="77"/>
       <c r="J16" s="77"/>
     </row>
-    <row r="17" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="76" customFormat="1">
       <c r="A17" s="75"/>
       <c r="B17" s="77"/>
       <c r="C17" s="77"/>
@@ -17327,7 +17376,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="76" customFormat="1">
       <c r="A18" s="75"/>
       <c r="B18" s="77"/>
       <c r="C18" s="77"/>
@@ -17337,7 +17386,7 @@
       <c r="I18" s="77"/>
       <c r="J18" s="77"/>
     </row>
-    <row r="19" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="76" customFormat="1">
       <c r="A19" s="75"/>
       <c r="B19" s="77"/>
       <c r="C19" s="77"/>
@@ -17347,7 +17396,7 @@
       <c r="I19" s="77"/>
       <c r="J19" s="77"/>
     </row>
-    <row r="20" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="76" customFormat="1">
       <c r="A20" s="75"/>
       <c r="B20" s="77"/>
       <c r="C20" s="77"/>
@@ -17357,7 +17406,7 @@
       <c r="I20" s="77"/>
       <c r="J20" s="77"/>
     </row>
-    <row r="21" spans="1:10" s="194" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="194" customFormat="1">
       <c r="A21" s="192"/>
       <c r="B21" s="193"/>
       <c r="C21" s="193"/>
@@ -17367,7 +17416,7 @@
       <c r="I21" s="193"/>
       <c r="J21" s="193"/>
     </row>
-    <row r="22" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="76" customFormat="1">
       <c r="A22" s="75" t="s">
         <v>91</v>
       </c>
@@ -17379,7 +17428,7 @@
       <c r="I22" s="77"/>
       <c r="J22" s="77"/>
     </row>
-    <row r="23" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="76" customFormat="1">
       <c r="A23" s="75"/>
       <c r="D23" s="130" t="s">
         <v>296</v>
@@ -17396,7 +17445,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="76" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="76" customFormat="1" ht="34">
       <c r="A24" s="75"/>
       <c r="B24" s="130" t="s">
         <v>313</v>
@@ -17412,7 +17461,7 @@
       <c r="I24" s="77"/>
       <c r="J24" s="84"/>
     </row>
-    <row r="25" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="76" customFormat="1">
       <c r="A25" s="75"/>
       <c r="B25" s="188" t="s">
         <v>567</v>
@@ -17422,7 +17471,7 @@
       <c r="I25" s="77"/>
       <c r="J25" s="77"/>
     </row>
-    <row r="26" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="76" customFormat="1">
       <c r="A26" s="75"/>
       <c r="B26" s="77"/>
       <c r="C26" s="77"/>
@@ -17438,7 +17487,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="76" customFormat="1">
       <c r="A27" s="75"/>
       <c r="B27" s="83"/>
       <c r="C27" s="77"/>
@@ -17455,7 +17504,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="76" customFormat="1">
       <c r="A28" s="75"/>
       <c r="B28" s="77"/>
       <c r="C28" s="77"/>
@@ -17467,7 +17516,7 @@
       <c r="I28" s="77"/>
       <c r="J28" s="77"/>
     </row>
-    <row r="29" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="76" customFormat="1">
       <c r="A29" s="75"/>
       <c r="B29" s="83"/>
       <c r="C29" s="77"/>
@@ -17481,7 +17530,7 @@
       <c r="I29" s="77"/>
       <c r="J29" s="132"/>
     </row>
-    <row r="30" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="76" customFormat="1">
       <c r="A30" s="75"/>
       <c r="B30" s="83"/>
       <c r="C30" s="77"/>
@@ -17497,7 +17546,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="76" customFormat="1">
       <c r="A31" s="75"/>
       <c r="F31" s="130"/>
       <c r="G31" s="77"/>
@@ -17506,7 +17555,7 @@
       </c>
       <c r="I31" s="77"/>
     </row>
-    <row r="32" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="76" customFormat="1">
       <c r="A32" s="75"/>
       <c r="B32" s="77"/>
       <c r="C32" s="77"/>
@@ -17518,7 +17567,7 @@
       <c r="I32" s="77"/>
       <c r="J32" s="130"/>
     </row>
-    <row r="33" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="76" customFormat="1">
       <c r="A33" s="75"/>
       <c r="F33" s="130"/>
       <c r="G33" s="77"/>
@@ -17527,7 +17576,7 @@
       </c>
       <c r="I33" s="77"/>
     </row>
-    <row r="34" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="76" customFormat="1">
       <c r="A34" s="75"/>
       <c r="F34" s="130"/>
       <c r="G34" s="77"/>
@@ -17536,7 +17585,7 @@
       </c>
       <c r="I34" s="77"/>
     </row>
-    <row r="35" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="76" customFormat="1">
       <c r="A35" s="75"/>
       <c r="B35" s="77"/>
       <c r="C35" s="77"/>
@@ -17549,7 +17598,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="76" customFormat="1">
       <c r="A36" s="75"/>
       <c r="B36" s="77"/>
       <c r="C36" s="77"/>
@@ -17558,7 +17607,7 @@
       <c r="I36" s="77"/>
       <c r="J36" s="77"/>
     </row>
-    <row r="37" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="76" customFormat="1">
       <c r="A37" s="75"/>
       <c r="B37" s="77"/>
       <c r="C37" s="77"/>
@@ -17569,7 +17618,7 @@
       <c r="I37" s="77"/>
       <c r="J37" s="77"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="B38" s="77"/>
       <c r="C38" s="77"/>
       <c r="D38" s="77"/>
@@ -17580,7 +17629,7 @@
       <c r="I38" s="77"/>
       <c r="J38" s="77"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="B39" s="77"/>
       <c r="C39" s="77"/>
       <c r="D39" s="77"/>
@@ -17591,7 +17640,7 @@
       <c r="I39" s="77"/>
       <c r="J39" s="77"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="B40" s="77"/>
       <c r="C40" s="77"/>
       <c r="D40" s="77"/>
@@ -17602,7 +17651,7 @@
       <c r="I40" s="77"/>
       <c r="J40" s="77"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="B41" s="77"/>
       <c r="C41" s="77"/>
       <c r="D41" s="77"/>
@@ -17616,27 +17665,32 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C25 D17:D20 B17:B20 J25 J36 H17 H36 H9:H12 H20:I20 H19 I7 J18:J19 H8:I8 J9:J10 B3:D3 C4:D4 G21:G22 C17:C22 B24:F24 D23:E23 I4:J4 E5 C8:D8 B6:C6 I6:J6 C9:C11 I9:I19 K4:K25 G4:G11 G27:G30 I21:I30 I32:J32">
-    <cfRule type="cellIs" dxfId="6" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="104" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21 B21 H18 H37 H35 H21 B24">
-    <cfRule type="cellIs" dxfId="5" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="71" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I34 K33:K34">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31 K31">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17651,7 +17705,7 @@
       <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="86" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="87" bestFit="1" customWidth="1"/>
@@ -17671,7 +17725,7 @@
     <col min="16" max="16384" width="8.7109375" style="86"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="46" customFormat="1">
       <c r="A2" s="199"/>
       <c r="B2" s="200"/>
       <c r="C2" s="201" t="s">
@@ -17708,7 +17762,7 @@
       </c>
       <c r="O2" s="199"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="38" t="s">
         <v>217</v>
       </c>
@@ -17738,7 +17792,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="38"/>
       <c r="C4" s="123" t="s">
         <v>318</v>
@@ -17763,7 +17817,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="C5" s="123" t="s">
         <v>319</v>
       </c>
@@ -17790,7 +17844,7 @@
       <c r="L5" s="42"/>
       <c r="N5" s="42"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="C6" s="195" t="s">
         <v>586</v>
       </c>
@@ -17805,14 +17859,14 @@
       <c r="L6" s="42"/>
       <c r="N6" s="42"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="E7" s="51"/>
       <c r="H7" s="48"/>
       <c r="J7" s="48"/>
       <c r="L7" s="42"/>
       <c r="N7" s="42"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="D8" s="123"/>
       <c r="E8" s="51"/>
       <c r="G8" s="42"/>
@@ -17827,7 +17881,7 @@
       <c r="L8" s="42"/>
       <c r="N8" s="42"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="G9" s="42"/>
       <c r="H9" s="48"/>
       <c r="J9" s="51"/>
@@ -17835,7 +17889,7 @@
       <c r="L9" s="42"/>
       <c r="N9" s="42"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="C10" s="86" t="s">
         <v>167</v>
       </c>
@@ -17856,15 +17910,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="G11" s="42"/>
     </row>
-    <row r="12" spans="1:15" s="137" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="137" customFormat="1">
       <c r="B12" s="138"/>
       <c r="E12" s="139"/>
       <c r="J12" s="139"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="38" t="s">
         <v>265</v>
       </c>
@@ -17899,7 +17953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="38"/>
       <c r="C14" s="123" t="s">
         <v>326</v>
@@ -17932,37 +17986,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="38"/>
       <c r="I15" s="195" t="s">
         <v>606</v>
       </c>
       <c r="K15" s="52"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="38"/>
       <c r="D16" s="123"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="38"/>
       <c r="C17" s="195"/>
       <c r="D17" s="195"/>
       <c r="K17" s="52"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="38"/>
       <c r="C18" s="195"/>
       <c r="D18" s="195"/>
       <c r="K18" s="52"/>
     </row>
-    <row r="19" spans="1:15" s="137" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="137" customFormat="1">
       <c r="A19" s="141"/>
       <c r="B19" s="138"/>
       <c r="E19" s="139"/>
       <c r="J19" s="139"/>
       <c r="K19" s="142"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="38" t="s">
         <v>81</v>
       </c>
@@ -17988,7 +18042,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="38"/>
       <c r="C21" s="123" t="s">
         <v>322</v>
@@ -18006,16 +18060,16 @@
       <c r="J21" s="48"/>
       <c r="K21" s="195"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="38"/>
       <c r="H22" s="99"/>
     </row>
-    <row r="23" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="18" thickBot="1">
       <c r="A23" s="38" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="18" thickBot="1">
       <c r="A24" s="202" t="s">
         <v>209</v>
       </c>
@@ -18046,7 +18100,7 @@
       <c r="N24" s="207"/>
       <c r="O24" s="208"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="67" t="s">
         <v>168</v>
       </c>
@@ -18065,7 +18119,7 @@
       <c r="N25" s="65"/>
       <c r="O25" s="66"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="67" t="s">
         <v>169</v>
       </c>
@@ -18084,7 +18138,7 @@
       <c r="N26" s="65"/>
       <c r="O26" s="66"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="67" t="s">
         <v>170</v>
       </c>
@@ -18103,7 +18157,7 @@
       <c r="N27" s="65"/>
       <c r="O27" s="66"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="67" t="s">
         <v>171</v>
       </c>
@@ -18122,7 +18176,7 @@
       <c r="N28" s="65"/>
       <c r="O28" s="66"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="86" t="s">
         <v>162</v>
       </c>
@@ -18141,7 +18195,7 @@
       <c r="N29" s="89"/>
       <c r="O29" s="104"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="86" t="s">
         <v>193</v>
       </c>
@@ -18160,7 +18214,7 @@
       <c r="N30" s="89"/>
       <c r="O30" s="104"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="86" t="s">
         <v>166</v>
       </c>
@@ -18179,7 +18233,7 @@
       <c r="N31" s="89"/>
       <c r="O31" s="104"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="86" t="s">
         <v>164</v>
       </c>
@@ -18198,7 +18252,7 @@
       <c r="N32" s="89"/>
       <c r="O32" s="104"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="86" t="s">
         <v>192</v>
       </c>
@@ -18217,7 +18271,7 @@
       <c r="N33" s="89"/>
       <c r="O33" s="104"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" s="86" t="s">
         <v>160</v>
       </c>
@@ -18236,7 +18290,7 @@
       <c r="N34" s="89"/>
       <c r="O34" s="104"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" s="86" t="s">
         <v>163</v>
       </c>
@@ -18257,7 +18311,7 @@
       <c r="N35" s="89"/>
       <c r="O35" s="104"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="100" t="s">
         <v>218</v>
       </c>
@@ -18276,7 +18330,7 @@
       <c r="N36" s="89"/>
       <c r="O36" s="92"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="86" t="s">
         <v>161</v>
       </c>
@@ -18297,7 +18351,7 @@
       <c r="N37" s="89"/>
       <c r="O37" s="104"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="86" t="s">
         <v>159</v>
       </c>
@@ -18318,7 +18372,7 @@
       <c r="N38" s="89"/>
       <c r="O38" s="104"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="86" t="s">
         <v>165</v>
       </c>
@@ -18337,7 +18391,7 @@
       <c r="N39" s="89"/>
       <c r="O39" s="104"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="123" t="s">
         <v>315</v>
       </c>
@@ -18356,7 +18410,7 @@
       <c r="N40" s="89"/>
       <c r="O40" s="92"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="123" t="s">
         <v>316</v>
       </c>
@@ -18375,7 +18429,7 @@
       <c r="N41" s="89"/>
       <c r="O41" s="92"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="86" t="s">
         <v>330</v>
       </c>
@@ -18394,7 +18448,7 @@
       <c r="N42" s="89"/>
       <c r="O42" s="92"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="86" t="s">
         <v>210</v>
       </c>
@@ -18413,7 +18467,7 @@
       <c r="N43" s="89"/>
       <c r="O43" s="92"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="86" t="s">
         <v>211</v>
       </c>
@@ -18432,7 +18486,7 @@
       <c r="N44" s="89"/>
       <c r="O44" s="92"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="143" t="s">
         <v>331</v>
       </c>
@@ -18451,7 +18505,7 @@
       <c r="N45" s="89"/>
       <c r="O45" s="92"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="143" t="s">
         <v>212</v>
       </c>
@@ -18470,7 +18524,7 @@
       <c r="N46" s="89"/>
       <c r="O46" s="92"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="B47" s="93"/>
       <c r="C47" s="89"/>
       <c r="D47" s="89"/>
@@ -18486,7 +18540,7 @@
       <c r="N47" s="89"/>
       <c r="O47" s="92"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="B48" s="90"/>
       <c r="C48" s="89"/>
       <c r="D48" s="89"/>
@@ -18502,7 +18556,7 @@
       <c r="N48" s="89"/>
       <c r="O48" s="92"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" s="123" t="s">
         <v>328</v>
       </c>
@@ -18521,7 +18575,7 @@
       <c r="N49" s="89"/>
       <c r="O49" s="92"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" s="123" t="s">
         <v>327</v>
       </c>
@@ -18539,7 +18593,7 @@
       <c r="N50" s="89"/>
       <c r="O50" s="92"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" s="195" t="s">
         <v>608</v>
       </c>
@@ -18556,7 +18610,7 @@
       <c r="N51" s="89"/>
       <c r="O51" s="92"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15">
       <c r="A52" s="195" t="s">
         <v>329</v>
       </c>
@@ -18573,7 +18627,7 @@
       <c r="N52" s="89"/>
       <c r="O52" s="92"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15">
       <c r="A53" s="195" t="s">
         <v>591</v>
       </c>
@@ -18590,7 +18644,7 @@
       <c r="N53" s="89"/>
       <c r="O53" s="92"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15">
       <c r="A54" s="195" t="s">
         <v>612</v>
       </c>
@@ -18607,7 +18661,7 @@
       <c r="N54" s="89"/>
       <c r="O54" s="92"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" s="123" t="s">
         <v>611</v>
       </c>
@@ -18624,7 +18678,7 @@
       <c r="N55" s="89"/>
       <c r="O55" s="92"/>
     </row>
-    <row r="56" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="18" thickBot="1">
       <c r="A56" s="94"/>
       <c r="B56" s="95"/>
       <c r="C56" s="96"/>
@@ -18641,41 +18695,41 @@
       <c r="N56" s="96"/>
       <c r="O56" s="98"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="B58" s="86"/>
       <c r="C58" s="41"/>
       <c r="D58" s="41"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="B59" s="86"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="B60" s="86"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15">
       <c r="B61" s="86"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15">
       <c r="B62" s="86"/>
       <c r="E62" s="86"/>
       <c r="J62" s="86"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15">
       <c r="B63" s="86"/>
       <c r="E63" s="86"/>
       <c r="J63" s="86"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="B64" s="86"/>
       <c r="E64" s="86"/>
       <c r="J64" s="86"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10">
       <c r="B65" s="86"/>
       <c r="E65" s="86"/>
       <c r="J65" s="86"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10">
       <c r="B66" s="86"/>
       <c r="E66" s="86"/>
       <c r="J66" s="86"/>
@@ -18683,23 +18737,28 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="F24:G24 I24 K24 A24:D24 M24:O24 A25:E28 H25:O28">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9 K14:K15 K17:K20">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:M14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18711,7 +18770,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="7"/>
     <col min="2" max="2" width="5.42578125" style="7" customWidth="1"/>
@@ -18719,57 +18778,57 @@
     <col min="4" max="16384" width="11.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="21">
       <c r="B2" s="28" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" s="7" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="C4" s="7" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="C5" s="7" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="C6" s="7" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4">
       <c r="C7" s="7" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4">
       <c r="C8" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4">
       <c r="C9" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="C10" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4">
       <c r="B12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4">
       <c r="C13" s="7">
         <v>1</v>
       </c>
@@ -18777,62 +18836,62 @@
         <v>703</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4">
       <c r="C14" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="21">
       <c r="B17" s="28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="C19" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="C20" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="C21" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="C22" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="C23" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="C24" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4">
       <c r="C25" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4">
       <c r="B27" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="C28" s="7">
         <v>1</v>
       </c>
@@ -18840,12 +18899,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4">
       <c r="D29" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4">
       <c r="C30" s="7">
         <v>2</v>
       </c>
@@ -18853,12 +18912,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="D31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4">
       <c r="C32" s="7">
         <v>3</v>
       </c>
@@ -18866,12 +18925,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4">
       <c r="D33" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4">
       <c r="C34" s="7">
         <v>4</v>
       </c>
@@ -18879,12 +18938,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4">
       <c r="D35" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4">
       <c r="C36" s="7">
         <v>5</v>
       </c>
@@ -18892,12 +18951,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4">
       <c r="D37" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4">
       <c r="C38" s="7">
         <v>6</v>
       </c>
@@ -18905,7 +18964,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4">
       <c r="C39" s="7">
         <v>7</v>
       </c>
@@ -18913,12 +18972,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4">
       <c r="D40" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4">
       <c r="C41" s="7">
         <v>8</v>
       </c>
@@ -18926,7 +18985,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4">
       <c r="C42" s="7">
         <v>9</v>
       </c>
@@ -18934,7 +18993,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4">
       <c r="C43" s="7">
         <v>10</v>
       </c>
@@ -18942,7 +19001,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4">
       <c r="C44" s="7">
         <v>11</v>
       </c>
@@ -18950,7 +19009,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4">
       <c r="C45" s="7">
         <v>12</v>
       </c>
@@ -18958,83 +19017,83 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4">
       <c r="D46"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4">
       <c r="D47"/>
     </row>
-    <row r="48" spans="2:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" ht="21">
       <c r="B48" s="28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="C50" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="C51" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3">
       <c r="C52" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3">
       <c r="C53" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="C54" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="C55" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="C56" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3">
       <c r="C57" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3">
       <c r="C58" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3">
       <c r="C60" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3">
       <c r="C61" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3">
       <c r="B63" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3">
       <c r="B64" s="7">
         <v>1</v>
       </c>
@@ -19042,7 +19101,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4">
       <c r="B65" s="7">
         <v>2</v>
       </c>
@@ -19050,7 +19109,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4">
       <c r="B66" s="7">
         <v>3</v>
       </c>
@@ -19058,22 +19117,22 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4">
       <c r="C67" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4">
       <c r="C68" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4">
       <c r="B72" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4">
       <c r="B73" s="7">
         <v>1</v>
       </c>
@@ -19082,25 +19141,25 @@
       </c>
       <c r="D73" s="50"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4">
       <c r="C74" s="50"/>
       <c r="D74" s="50" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4">
       <c r="C75" s="50"/>
       <c r="D75" s="50" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4">
       <c r="C76" s="50"/>
       <c r="D76" s="50" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4">
       <c r="B77" s="7">
         <v>2</v>
       </c>
@@ -19108,7 +19167,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4">
       <c r="B78" s="7">
         <v>3</v>
       </c>
@@ -19116,7 +19175,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4">
       <c r="B79" s="29">
         <v>4</v>
       </c>
@@ -19124,7 +19183,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4">
       <c r="B80" s="7">
         <v>5</v>
       </c>
@@ -19132,62 +19191,62 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" ht="21">
       <c r="B83" s="28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9">
       <c r="B84" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9">
       <c r="C85" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9">
       <c r="C86" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9">
       <c r="C87" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9">
       <c r="C88" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9">
       <c r="C89" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9">
       <c r="C90" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9">
       <c r="C92" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9">
       <c r="C93" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9">
       <c r="C94" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9">
       <c r="C95" s="7" t="s">
         <v>116</v>
       </c>
@@ -19195,27 +19254,27 @@
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9">
       <c r="C96" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7">
       <c r="C98" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7">
       <c r="C99" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7">
       <c r="B101" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7">
       <c r="B102" s="7">
         <v>1</v>
       </c>
@@ -19223,22 +19282,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7">
       <c r="D103" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7">
       <c r="D104" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7">
       <c r="D105" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7">
       <c r="B106" s="7">
         <v>2</v>
       </c>
@@ -19246,7 +19305,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7">
       <c r="B107" s="7">
         <v>3</v>
       </c>
@@ -19254,7 +19313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7">
       <c r="B108" s="7">
         <v>4</v>
       </c>
@@ -19262,7 +19321,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7">
       <c r="B109" s="7">
         <v>5</v>
       </c>
@@ -19270,12 +19329,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7">
       <c r="B111" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7">
       <c r="B112" s="7">
         <v>1</v>
       </c>
@@ -19286,7 +19345,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8">
       <c r="B113" s="7">
         <v>2</v>
       </c>
@@ -19297,37 +19356,37 @@
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:8" ht="21">
       <c r="B116" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8">
       <c r="C117" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8">
       <c r="C118" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8">
       <c r="C119" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8">
       <c r="C120" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8">
       <c r="C121" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8">
       <c r="C122" s="29" t="s">
         <v>15</v>
       </c>
@@ -19335,23 +19394,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8">
       <c r="C123" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8">
       <c r="C124" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8">
       <c r="C125" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G125" s="30"/>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8">
       <c r="C126" s="7" t="s">
         <v>52</v>
       </c>
@@ -19359,12 +19418,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8">
       <c r="C127" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:8">
       <c r="C128" s="7" t="s">
         <v>24</v>
       </c>
@@ -19372,7 +19431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:8">
       <c r="C129" s="7" t="s">
         <v>19</v>
       </c>
@@ -19380,7 +19439,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:8">
       <c r="C130" s="7" t="s">
         <v>20</v>
       </c>
@@ -19388,7 +19447,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:8">
       <c r="C131" s="7" t="s">
         <v>55</v>
       </c>
@@ -19397,5 +19456,10 @@
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/项目管理/进度计划/Demo-里程碑6/Demo-里程碑6计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑6/Demo-里程碑6计划.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/Demo-里程碑6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/项目管理/进度计划/Demo-里程碑6/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="700" windowWidth="30980" windowHeight="19080" tabRatio="349" activeTab="5"/>
+    <workbookView xWindow="3520" yWindow="700" windowWidth="30980" windowHeight="19080" tabRatio="349" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑6" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="744">
   <si>
     <t>分类</t>
     <phoneticPr fontId="21" type="noConversion"/>
@@ -8374,6 +8374,9 @@
   <si>
     <t xml:space="preserve">9、 有关项目进展的情况，可以随时广播给大家 </t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣具体需求</t>
   </si>
 </sst>
 </file>
@@ -8510,7 +8513,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8518,7 +8521,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8543,7 +8546,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8651,7 +8654,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -9265,7 +9268,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9831,337 +9834,340 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="329">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="298"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="157"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 25" xfId="283"/>
     <cellStyle name="常规 3" xfId="190"/>
     <cellStyle name="常规 4" xfId="144"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -12313,7 +12319,7 @@
       <c r="L58" s="22"/>
       <c r="M58" s="21"/>
     </row>
-    <row r="59" spans="1:13" ht="32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>45</v>
       </c>
@@ -14351,13 +14357,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T143"/>
+  <dimension ref="A2:T144"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E101" sqref="E101"/>
+      <selection pane="bottomRight" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -16568,7 +16574,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="108">
-        <f t="shared" ref="D96:D112" si="8">SUM(G96+J96+M96+P96+S96)</f>
+        <f t="shared" ref="D96:D113" si="8">SUM(G96+J96+M96+P96+S96)</f>
         <v>5</v>
       </c>
       <c r="F96" s="215" t="s">
@@ -16829,18 +16835,20 @@
       <c r="T108" s="110"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A109" s="110"/>
-      <c r="B109" s="106"/>
+      <c r="B109" s="231" t="s">
+        <v>743</v>
+      </c>
       <c r="C109" s="156"/>
       <c r="D109" s="108">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O109" s="106"/>
-      <c r="P109" s="108"/>
+        <v>2</v>
+      </c>
+      <c r="L109" s="106"/>
+      <c r="M109" s="108"/>
+      <c r="R109" s="106"/>
       <c r="T109" s="110"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="110"/>
       <c r="B110" s="106"/>
       <c r="C110" s="156"/>
       <c r="D110" s="108">
@@ -16852,18 +16860,20 @@
       <c r="T110" s="110"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A111" s="110"/>
       <c r="B111" s="106"/>
       <c r="C111" s="156"/>
       <c r="D111" s="108">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R111" s="106"/>
-      <c r="S111" s="108"/>
+      <c r="O111" s="106"/>
+      <c r="P111" s="108"/>
       <c r="T111" s="110"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="110"/>
+      <c r="B112" s="106"/>
+      <c r="C112" s="156"/>
       <c r="D112" s="108">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -16873,93 +16883,91 @@
       <c r="T112" s="110"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B113" s="108" t="s">
+      <c r="D113" s="108">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R113" s="106"/>
+      <c r="S113" s="108"/>
+      <c r="T113" s="110"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B114" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="C113" s="108">
-        <f>SUM(C94:C111)</f>
+      <c r="C114" s="108">
+        <f>SUM(C94:C112)</f>
         <v>25</v>
       </c>
-      <c r="D113" s="108">
-        <f>SUM(D94:D111)</f>
-        <v>28</v>
-      </c>
-      <c r="G113" s="108">
-        <f>SUM(G94:G111)</f>
+      <c r="D114" s="108">
+        <f>SUM(D94:D112)</f>
+        <v>30</v>
+      </c>
+      <c r="G114" s="108">
+        <f>SUM(G94:G112)</f>
         <v>5</v>
       </c>
-      <c r="J113" s="108">
-        <f>SUM(J94:J111)</f>
+      <c r="J114" s="108">
+        <f>SUM(J94:J112)</f>
         <v>6</v>
       </c>
-      <c r="M113" s="108">
-        <f>SUM(M94:M111)</f>
+      <c r="M114" s="108">
+        <f>SUM(M94:M112)</f>
         <v>5.5</v>
       </c>
-      <c r="P113" s="108">
-        <f>SUM(P94:P111)</f>
+      <c r="P114" s="108">
+        <f>SUM(P94:P112)</f>
         <v>6</v>
       </c>
-      <c r="S113" s="108">
-        <f>SUM(S94:S112)</f>
+      <c r="S114" s="108">
+        <f>SUM(S94:S113)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F116" t="s">
+    <row r="117" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
         <v>427</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I117" t="s">
         <v>426</v>
       </c>
-      <c r="L116" t="s">
+      <c r="L117" t="s">
         <v>425</v>
       </c>
-      <c r="O116" t="s">
+      <c r="O117" t="s">
         <v>424</v>
       </c>
-      <c r="R116" t="s">
+      <c r="R117" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="38"/>
-      <c r="B117" s="166" t="s">
-        <v>381</v>
-      </c>
-      <c r="C117" s="171"/>
-      <c r="D117" s="171"/>
-      <c r="E117" s="171"/>
-      <c r="F117" s="166" t="s">
-        <v>422</v>
-      </c>
-      <c r="H117" s="170"/>
-      <c r="I117" s="166" t="s">
-        <v>422</v>
-      </c>
-      <c r="K117" s="170"/>
-      <c r="L117" s="166" t="s">
-        <v>422</v>
-      </c>
-      <c r="N117" s="170"/>
-      <c r="O117" s="166" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q117" s="170"/>
-      <c r="R117" s="166" t="s">
-        <v>422</v>
-      </c>
-      <c r="T117" s="170"/>
     </row>
     <row r="118" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="38"/>
+      <c r="B118" s="166" t="s">
+        <v>381</v>
+      </c>
       <c r="C118" s="171"/>
       <c r="D118" s="171"/>
       <c r="E118" s="171"/>
+      <c r="F118" s="166" t="s">
+        <v>422</v>
+      </c>
       <c r="H118" s="170"/>
+      <c r="I118" s="166" t="s">
+        <v>422</v>
+      </c>
       <c r="K118" s="170"/>
+      <c r="L118" s="166" t="s">
+        <v>422</v>
+      </c>
       <c r="N118" s="170"/>
+      <c r="O118" s="166" t="s">
+        <v>422</v>
+      </c>
       <c r="Q118" s="170"/>
+      <c r="R118" s="166" t="s">
+        <v>422</v>
+      </c>
       <c r="T118" s="170"/>
     </row>
     <row r="119" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -16967,6 +16975,7 @@
       <c r="C119" s="171"/>
       <c r="D119" s="171"/>
       <c r="E119" s="171"/>
+      <c r="H119" s="170"/>
       <c r="K119" s="170"/>
       <c r="N119" s="170"/>
       <c r="Q119" s="170"/>
@@ -16977,25 +16986,9 @@
       <c r="C120" s="171"/>
       <c r="D120" s="171"/>
       <c r="E120" s="171"/>
-      <c r="F120" s="166" t="s">
-        <v>399</v>
-      </c>
-      <c r="H120" s="170"/>
-      <c r="I120" s="166" t="s">
-        <v>431</v>
-      </c>
       <c r="K120" s="170"/>
-      <c r="L120" s="166" t="s">
-        <v>392</v>
-      </c>
       <c r="N120" s="170"/>
-      <c r="O120" s="166" t="s">
-        <v>430</v>
-      </c>
       <c r="Q120" s="170"/>
-      <c r="R120" s="166" t="s">
-        <v>436</v>
-      </c>
       <c r="T120" s="170"/>
     </row>
     <row r="121" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -17003,17 +16996,24 @@
       <c r="C121" s="171"/>
       <c r="D121" s="171"/>
       <c r="E121" s="171"/>
+      <c r="F121" s="166" t="s">
+        <v>399</v>
+      </c>
+      <c r="H121" s="170"/>
+      <c r="I121" s="166" t="s">
+        <v>431</v>
+      </c>
       <c r="K121" s="170"/>
       <c r="L121" s="166" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N121" s="170"/>
       <c r="O121" s="166" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="Q121" s="170"/>
       <c r="R121" s="166" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="T121" s="170"/>
     </row>
@@ -17022,13 +17022,18 @@
       <c r="C122" s="171"/>
       <c r="D122" s="171"/>
       <c r="E122" s="171"/>
-      <c r="H122" s="170"/>
       <c r="K122" s="170"/>
       <c r="L122" s="166" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="N122" s="170"/>
+      <c r="O122" s="166" t="s">
+        <v>398</v>
+      </c>
       <c r="Q122" s="170"/>
+      <c r="R122" s="166" t="s">
+        <v>437</v>
+      </c>
       <c r="T122" s="170"/>
     </row>
     <row r="123" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -17039,7 +17044,7 @@
       <c r="H123" s="170"/>
       <c r="K123" s="170"/>
       <c r="L123" s="166" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="N123" s="170"/>
       <c r="Q123" s="170"/>
@@ -17052,6 +17057,9 @@
       <c r="E124" s="171"/>
       <c r="H124" s="170"/>
       <c r="K124" s="170"/>
+      <c r="L124" s="166" t="s">
+        <v>390</v>
+      </c>
       <c r="N124" s="170"/>
       <c r="Q124" s="170"/>
       <c r="T124" s="170"/>
@@ -17061,25 +17069,10 @@
       <c r="C125" s="171"/>
       <c r="D125" s="171"/>
       <c r="E125" s="171"/>
-      <c r="F125" s="166" t="s">
-        <v>378</v>
-      </c>
       <c r="H125" s="170"/>
-      <c r="I125" s="166" t="s">
-        <v>378</v>
-      </c>
       <c r="K125" s="170"/>
-      <c r="L125" s="166" t="s">
-        <v>378</v>
-      </c>
       <c r="N125" s="170"/>
-      <c r="O125" s="166" t="s">
-        <v>378</v>
-      </c>
       <c r="Q125" s="170"/>
-      <c r="R125" s="166" t="s">
-        <v>378</v>
-      </c>
       <c r="T125" s="170"/>
     </row>
     <row r="126" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -17087,61 +17080,61 @@
       <c r="C126" s="171"/>
       <c r="D126" s="171"/>
       <c r="E126" s="171"/>
+      <c r="F126" s="166" t="s">
+        <v>378</v>
+      </c>
       <c r="H126" s="170"/>
+      <c r="I126" s="166" t="s">
+        <v>378</v>
+      </c>
       <c r="K126" s="170"/>
+      <c r="L126" s="166" t="s">
+        <v>378</v>
+      </c>
       <c r="N126" s="170"/>
+      <c r="O126" s="166" t="s">
+        <v>378</v>
+      </c>
       <c r="Q126" s="170"/>
+      <c r="R126" s="166" t="s">
+        <v>378</v>
+      </c>
       <c r="T126" s="170"/>
     </row>
-    <row r="127" spans="1:20" s="166" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="38"/>
       <c r="C127" s="171"/>
       <c r="D127" s="171"/>
       <c r="E127" s="171"/>
-      <c r="F127" s="166" t="s">
-        <v>382</v>
-      </c>
       <c r="H127" s="170"/>
-      <c r="I127" s="166" t="s">
-        <v>420</v>
-      </c>
       <c r="K127" s="170"/>
-      <c r="L127" s="166" t="s">
-        <v>396</v>
-      </c>
       <c r="N127" s="170"/>
-      <c r="O127" s="7" t="s">
-        <v>501</v>
-      </c>
       <c r="Q127" s="170"/>
-      <c r="R127" s="166" t="s">
-        <v>346</v>
-      </c>
       <c r="T127" s="170"/>
     </row>
-    <row r="128" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" s="166" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="38"/>
       <c r="C128" s="171"/>
       <c r="D128" s="171"/>
       <c r="E128" s="171"/>
       <c r="F128" s="166" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H128" s="170"/>
       <c r="I128" s="166" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K128" s="170"/>
-      <c r="L128" s="165" t="s">
-        <v>376</v>
+      <c r="L128" s="166" t="s">
+        <v>396</v>
       </c>
       <c r="N128" s="170"/>
-      <c r="O128" s="166" t="s">
-        <v>394</v>
+      <c r="O128" s="7" t="s">
+        <v>501</v>
       </c>
       <c r="Q128" s="170"/>
       <c r="R128" s="166" t="s">
-        <v>435</v>
+        <v>346</v>
       </c>
       <c r="T128" s="170"/>
     </row>
@@ -17151,21 +17144,24 @@
       <c r="D129" s="171"/>
       <c r="E129" s="171"/>
       <c r="F129" s="166" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="H129" s="170"/>
       <c r="I129" s="166" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="K129" s="170"/>
-      <c r="L129" s="166" t="s">
-        <v>402</v>
+      <c r="L129" s="165" t="s">
+        <v>376</v>
       </c>
       <c r="N129" s="170"/>
       <c r="O129" s="166" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="Q129" s="170"/>
+      <c r="R129" s="166" t="s">
+        <v>435</v>
+      </c>
       <c r="T129" s="170"/>
     </row>
     <row r="130" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -17173,20 +17169,20 @@
       <c r="C130" s="171"/>
       <c r="D130" s="171"/>
       <c r="E130" s="171"/>
-      <c r="F130" s="179" t="s">
-        <v>502</v>
+      <c r="F130" s="166" t="s">
+        <v>416</v>
       </c>
       <c r="H130" s="170"/>
       <c r="I130" s="166" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="K130" s="170"/>
       <c r="L130" s="166" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="N130" s="170"/>
       <c r="O130" s="166" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q130" s="170"/>
       <c r="T130" s="170"/>
@@ -17196,14 +17192,20 @@
       <c r="C131" s="171"/>
       <c r="D131" s="171"/>
       <c r="E131" s="171"/>
+      <c r="F131" s="179" t="s">
+        <v>502</v>
+      </c>
       <c r="H131" s="170"/>
+      <c r="I131" s="166" t="s">
+        <v>418</v>
+      </c>
       <c r="K131" s="170"/>
       <c r="L131" s="166" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N131" s="170"/>
       <c r="O131" s="166" t="s">
-        <v>342</v>
+        <v>433</v>
       </c>
       <c r="Q131" s="170"/>
       <c r="T131" s="170"/>
@@ -17215,9 +17217,12 @@
       <c r="E132" s="171"/>
       <c r="H132" s="170"/>
       <c r="K132" s="170"/>
+      <c r="L132" s="166" t="s">
+        <v>391</v>
+      </c>
       <c r="N132" s="170"/>
       <c r="O132" s="166" t="s">
-        <v>434</v>
+        <v>342</v>
       </c>
       <c r="Q132" s="170"/>
       <c r="T132" s="170"/>
@@ -17230,112 +17235,126 @@
       <c r="H133" s="170"/>
       <c r="K133" s="170"/>
       <c r="N133" s="170"/>
+      <c r="O133" s="166" t="s">
+        <v>434</v>
+      </c>
       <c r="Q133" s="170"/>
       <c r="T133" s="170"/>
     </row>
-    <row r="134" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F134" s="166" t="s">
+    <row r="134" spans="1:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="38"/>
+      <c r="C134" s="171"/>
+      <c r="D134" s="171"/>
+      <c r="E134" s="171"/>
+      <c r="H134" s="170"/>
+      <c r="K134" s="170"/>
+      <c r="N134" s="170"/>
+      <c r="Q134" s="170"/>
+      <c r="T134" s="170"/>
+    </row>
+    <row r="135" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="F135" s="166" t="s">
         <v>417</v>
       </c>
-      <c r="I134" s="166" t="s">
+      <c r="I135" s="166" t="s">
         <v>417</v>
       </c>
-      <c r="L134" s="166" t="s">
+      <c r="L135" s="166" t="s">
         <v>417</v>
       </c>
-      <c r="O134" t="s">
+      <c r="O135" t="s">
         <v>417</v>
       </c>
-      <c r="R134" t="s">
+      <c r="R135" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="135" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F135" s="166"/>
-      <c r="I135" s="166"/>
-      <c r="L135" s="166"/>
-    </row>
     <row r="136" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F136" s="166" t="s">
+      <c r="F136" s="166"/>
+      <c r="I136" s="166"/>
+      <c r="L136" s="166"/>
+    </row>
+    <row r="137" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="F137" s="166" t="s">
         <v>139</v>
       </c>
-      <c r="I136" s="166" t="s">
+      <c r="I137" s="166" t="s">
         <v>416</v>
       </c>
-      <c r="O136" t="s">
+      <c r="O137" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="137" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="I137" s="166" t="s">
+    <row r="138" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="I138" s="166" t="s">
         <v>415</v>
       </c>
-      <c r="L137" s="166" t="s">
+      <c r="L138" s="166" t="s">
         <v>414</v>
       </c>
-      <c r="O137" t="s">
+      <c r="O138" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="138" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="L138" s="166"/>
-    </row>
     <row r="139" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F139" s="166" t="s">
+      <c r="L139" s="166"/>
+    </row>
+    <row r="140" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="F140" s="166" t="s">
         <v>413</v>
       </c>
-      <c r="I139" s="166" t="s">
+      <c r="I140" s="166" t="s">
         <v>413</v>
       </c>
-      <c r="L139" s="166" t="s">
+      <c r="L140" s="166" t="s">
         <v>413</v>
       </c>
-      <c r="O139" t="s">
+      <c r="O140" t="s">
         <v>413</v>
       </c>
-      <c r="R139" t="s">
+      <c r="R140" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="140" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F141" s="166" t="s">
-        <v>385</v>
-      </c>
-      <c r="I141" s="166" t="s">
-        <v>387</v>
-      </c>
-      <c r="L141" s="166" t="s">
-        <v>389</v>
-      </c>
-      <c r="O141" t="s">
-        <v>438</v>
-      </c>
-      <c r="R141" t="s">
-        <v>439</v>
-      </c>
-    </row>
+    <row r="141" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="142" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="F142" s="166" t="s">
+        <v>385</v>
+      </c>
+      <c r="I142" s="166" t="s">
+        <v>387</v>
+      </c>
+      <c r="L142" s="166" t="s">
+        <v>389</v>
+      </c>
+      <c r="O142" t="s">
+        <v>438</v>
+      </c>
+      <c r="R142" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="F143" s="166" t="s">
         <v>386</v>
       </c>
-      <c r="I142" s="166" t="s">
+      <c r="I143" s="166" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="143" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="I143" s="166" t="s">
+    <row r="144" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="I144" s="166" t="s">
         <v>411</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="B113 B92 F96 B68 B54:C54 B53 F58:F59 F56 L48 O85 B48:C48 F63 F45 C49:C50 B49 B61:C62 B85:C85 I81:I83 L37:L45 I46 I60 I62 L61 I37:I44 B37:C46 B51:C52 I48:I54 L50:L54 I85">
+  <conditionalFormatting sqref="B114 B92 F96 B68 B54:C54 B53 F58:F59 F56 L48 O85 B48:C48 F63 F45 C49:C50 B49 B61:C62 B85:C85 I81:I83 L37:L45 I46 I60 I62 L61 I37:I44 B37:C46 B51:C52 I48:I54 L50:L54 I85">
     <cfRule type="cellIs" dxfId="20" priority="82" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I105 O109:O110 R111:R112 B94:C94 B96:C96 L106:L108 B105:C111 F94 B71:C71 F71 I66:I72 I74:I75 B81:C83 O105:O106 R106:R108 F96 I96">
+  <conditionalFormatting sqref="I105 O110:O111 R112:R113 B94:C94 B96:C96 L106:L109 B105:C112 F94 B71:C71 F71 I66:I72 I74:I75 B81:C83 O105:O106 R106:R109 F96 I96">
     <cfRule type="cellIs" dxfId="19" priority="65" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -19645,7 +19664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>

--- a/项目管理/进度计划/Demo-里程碑6/Demo-里程碑6计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑6/Demo-里程碑6计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="1400" windowWidth="28800" windowHeight="17540" tabRatio="349" activeTab="1"/>
+    <workbookView xWindow="6620" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="349" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑6" sheetId="1" r:id="rId1"/>
@@ -10781,7 +10781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="B26" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -14396,13 +14396,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T147"/>
+  <dimension ref="A2:T145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -15066,7 +15066,7 @@
       <c r="T22" s="110"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="179" t="s">
+      <c r="B23" s="219" t="s">
         <v>522</v>
       </c>
       <c r="C23" s="180"/>
@@ -15590,46 +15590,46 @@
       <c r="O42" s="159"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="145" t="s">
+      <c r="B43" s="235" t="s">
+        <v>356</v>
+      </c>
+      <c r="C43" s="108">
+        <v>3</v>
+      </c>
+      <c r="D43" s="108">
+        <f>SUM(G43+J43+M43+P43+S43)</f>
+        <v>3</v>
+      </c>
+      <c r="E43" s="218" t="s">
+        <v>688</v>
+      </c>
+      <c r="L43" s="178" t="s">
+        <v>497</v>
+      </c>
+      <c r="M43" s="110">
+        <v>3</v>
+      </c>
+      <c r="O43" s="160"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="145" t="s">
         <v>326</v>
       </c>
-      <c r="C43" s="151">
+      <c r="C44" s="151">
         <v>4</v>
       </c>
-      <c r="D43" s="108">
+      <c r="D44" s="108">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E43" s="218" t="s">
+      <c r="E44" s="218" t="s">
         <v>686</v>
       </c>
-      <c r="F43" s="165" t="s">
+      <c r="F44" s="165" t="s">
         <v>399</v>
       </c>
-      <c r="G43" s="110">
+      <c r="G44" s="110">
         <v>2</v>
-      </c>
-      <c r="I43" s="168" t="s">
-        <v>398</v>
-      </c>
-      <c r="J43" s="110">
-        <v>3</v>
-      </c>
-      <c r="L43" s="107"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="168" t="s">
-        <v>401</v>
-      </c>
-      <c r="C44" s="151">
-        <v>3</v>
-      </c>
-      <c r="D44" s="108">
-        <f>SUM(G44+J44+M44+P44+S44)</f>
-        <v>3</v>
-      </c>
-      <c r="E44" s="218" t="s">
-        <v>687</v>
       </c>
       <c r="I44" s="168" t="s">
         <v>398</v>
@@ -15637,75 +15637,75 @@
       <c r="J44" s="110">
         <v>3</v>
       </c>
-      <c r="L44" s="159"/>
-      <c r="O44" s="160"/>
+      <c r="L44" s="107"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="145" t="s">
+      <c r="B45" s="168" t="s">
+        <v>401</v>
+      </c>
+      <c r="C45" s="151">
+        <v>3</v>
+      </c>
+      <c r="D45" s="108">
+        <f>SUM(G45+J45+M45+P45+S45)</f>
+        <v>3</v>
+      </c>
+      <c r="E45" s="218" t="s">
+        <v>687</v>
+      </c>
+      <c r="I45" s="168" t="s">
+        <v>398</v>
+      </c>
+      <c r="J45" s="110">
+        <v>3</v>
+      </c>
+      <c r="L45" s="159"/>
+      <c r="O45" s="160"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="145" t="s">
         <v>327</v>
       </c>
-      <c r="C45" s="151">
+      <c r="C46" s="151">
         <v>1</v>
       </c>
-      <c r="D45" s="108">
+      <c r="D46" s="108">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F45" s="159"/>
-      <c r="L45" s="159" t="s">
+      <c r="F46" s="159"/>
+      <c r="L46" s="159" t="s">
         <v>352</v>
       </c>
-      <c r="M45" s="110">
+      <c r="M46" s="110">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="107" t="s">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="C46" s="108">
+      <c r="C47" s="108">
         <v>4</v>
       </c>
-      <c r="D46" s="108">
+      <c r="D47" s="108">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I46" s="107"/>
-      <c r="L46" s="160" t="s">
+      <c r="I47" s="107"/>
+      <c r="L47" s="160" t="s">
         <v>358</v>
       </c>
-      <c r="M46" s="110">
+      <c r="M47" s="110">
         <v>2</v>
       </c>
-      <c r="O46" s="160" t="s">
+      <c r="O47" s="160" t="s">
         <v>351</v>
       </c>
-      <c r="P46" s="110">
+      <c r="P47" s="110">
         <v>2</v>
       </c>
-      <c r="R46" s="160"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="235" t="s">
-        <v>356</v>
-      </c>
-      <c r="C47" s="108">
-        <v>3</v>
-      </c>
-      <c r="D47" s="108">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E47" s="218" t="s">
-        <v>688</v>
-      </c>
-      <c r="L47" s="178" t="s">
-        <v>497</v>
-      </c>
-      <c r="M47" s="110">
-        <v>3</v>
-      </c>
-      <c r="O47" s="160"/>
+      <c r="R47" s="160"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B48" s="159" t="s">
@@ -16079,8 +16079,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="108">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R64" s="165" t="s">
         <v>402</v>
@@ -16137,7 +16136,7 @@
       </c>
       <c r="D67" s="108">
         <f>SUM(D55:D66)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G67" s="108">
         <f>SUM(G55:G65)</f>
@@ -16184,7 +16183,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="108">
-        <f t="shared" ref="D69:D93" si="4">SUM(G69+J69+M69+P69+S69)</f>
+        <f t="shared" ref="D69:D91" si="4">SUM(G69+J69+M69+P69+S69)</f>
         <v>0</v>
       </c>
       <c r="I69" s="111"/>
@@ -16334,360 +16333,388 @@
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B77" s="220"/>
-      <c r="F77" s="165"/>
-      <c r="I77" s="165"/>
+      <c r="B77" s="148" t="s">
+        <v>348</v>
+      </c>
+      <c r="C77" s="151">
+        <v>2</v>
+      </c>
+      <c r="D77" s="108">
+        <f>SUM(G77+J77+M77+P77+S77)</f>
+        <v>2</v>
+      </c>
+      <c r="E77" s="218" t="s">
+        <v>692</v>
+      </c>
+      <c r="F77" s="224" t="s">
+        <v>348</v>
+      </c>
+      <c r="G77" s="110">
+        <v>2</v>
+      </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B78" s="220"/>
-      <c r="F78" s="165"/>
-      <c r="I78" s="165"/>
+      <c r="B78" s="148" t="s">
+        <v>349</v>
+      </c>
+      <c r="C78" s="151">
+        <v>3</v>
+      </c>
+      <c r="D78" s="108">
+        <f>SUM(G78+J78+M78+P78+S78)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F78" s="148" t="s">
+        <v>349</v>
+      </c>
+      <c r="G78" s="110">
+        <v>1</v>
+      </c>
+      <c r="I78" s="148" t="s">
+        <v>349</v>
+      </c>
+      <c r="J78" s="110">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B79" s="148" t="s">
-        <v>348</v>
+      <c r="B79" s="224" t="s">
+        <v>347</v>
       </c>
       <c r="C79" s="151">
         <v>2</v>
       </c>
       <c r="D79" s="108">
-        <f>SUM(G79+J79+M79+P79+S79)</f>
+        <f t="shared" ref="D79:D90" si="6">SUM(G79+J79+M79+P79+S79)</f>
         <v>2</v>
       </c>
-      <c r="E79" s="218" t="s">
-        <v>692</v>
-      </c>
-      <c r="F79" s="224" t="s">
-        <v>348</v>
-      </c>
-      <c r="G79" s="110">
+      <c r="I79" s="210" t="s">
+        <v>633</v>
+      </c>
+      <c r="J79" s="110">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B80" s="148" t="s">
-        <v>349</v>
-      </c>
-      <c r="C80" s="151">
-        <v>3</v>
-      </c>
-      <c r="D80" s="108">
-        <f>SUM(G80+J80+M80+P80+S80)</f>
-        <v>3.5</v>
-      </c>
-      <c r="F80" s="148" t="s">
-        <v>349</v>
-      </c>
-      <c r="G80" s="110">
-        <v>1</v>
-      </c>
-      <c r="I80" s="148" t="s">
-        <v>349</v>
-      </c>
-      <c r="J80" s="110">
-        <v>2.5</v>
-      </c>
-    </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B81" s="224" t="s">
-        <v>347</v>
-      </c>
-      <c r="C81" s="151">
-        <v>2</v>
-      </c>
+      <c r="A81" s="110"/>
+      <c r="B81" s="163" t="s">
+        <v>366</v>
+      </c>
+      <c r="C81" s="153"/>
       <c r="D81" s="108">
-        <f t="shared" ref="D81:D92" si="6">SUM(G81+J81+M81+P81+S81)</f>
-        <v>2</v>
-      </c>
-      <c r="I81" s="210" t="s">
-        <v>633</v>
-      </c>
-      <c r="J81" s="110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" s="110"/>
-      <c r="B83" s="163" t="s">
-        <v>366</v>
-      </c>
-      <c r="C83" s="153"/>
-      <c r="D83" s="108">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G83" s="112"/>
-      <c r="I83" s="159"/>
-      <c r="J83" s="112"/>
-      <c r="L83" s="160"/>
-      <c r="R83" s="41" t="s">
+      <c r="G81" s="112"/>
+      <c r="I81" s="159"/>
+      <c r="J81" s="112"/>
+      <c r="L81" s="160"/>
+      <c r="R81" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="S83" s="110">
+      <c r="S81" s="110">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="110"/>
-      <c r="B84" s="163" t="s">
+    <row r="82" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="110"/>
+      <c r="B82" s="163" t="s">
         <v>365</v>
       </c>
-      <c r="C84" s="153">
+      <c r="C82" s="153">
         <v>1.5</v>
       </c>
-      <c r="D84" s="108">
+      <c r="D82" s="108">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="G84" s="112"/>
-      <c r="I84" s="107"/>
-      <c r="J84" s="112"/>
-      <c r="L84" s="41" t="s">
+      <c r="G82" s="112"/>
+      <c r="I82" s="107"/>
+      <c r="J82" s="112"/>
+      <c r="L82" s="41" t="s">
         <v>742</v>
       </c>
+      <c r="M82" s="110">
+        <v>1</v>
+      </c>
+      <c r="O82" s="41" t="s">
+        <v>740</v>
+      </c>
+      <c r="P82" s="110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B83" s="229" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B84" s="148" t="s">
+        <v>329</v>
+      </c>
+      <c r="C84" s="151">
+        <v>3</v>
+      </c>
+      <c r="D84" s="108">
+        <f>SUM(G84+J84+M84+P84+S84)</f>
+        <v>4</v>
+      </c>
+      <c r="L84" s="165" t="s">
+        <v>405</v>
+      </c>
       <c r="M84" s="110">
+        <v>3</v>
+      </c>
+      <c r="O84" s="165" t="s">
+        <v>377</v>
+      </c>
+      <c r="P84" s="110">
         <v>1</v>
       </c>
-      <c r="O84" s="41" t="s">
-        <v>740</v>
-      </c>
-      <c r="P84" s="110">
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B85" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C85" s="108">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B85" s="229" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B86" s="148" t="s">
-        <v>329</v>
-      </c>
-      <c r="C86" s="151">
-        <v>3</v>
-      </c>
-      <c r="D86" s="108">
-        <f>SUM(G86+J86+M86+P86+S86)</f>
-        <v>4</v>
-      </c>
-      <c r="L86" s="165" t="s">
-        <v>405</v>
-      </c>
-      <c r="M86" s="110">
-        <v>3</v>
-      </c>
-      <c r="O86" s="165" t="s">
-        <v>377</v>
-      </c>
-      <c r="P86" s="110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B87" s="107" t="s">
-        <v>215</v>
-      </c>
-      <c r="C87" s="108">
+      <c r="D85" s="108">
+        <f>SUM(G85+J85+M85+P85+S85)</f>
         <v>2</v>
       </c>
-      <c r="D87" s="108">
-        <f>SUM(G87+J87+M87+P87+S87)</f>
+      <c r="I85" s="107"/>
+      <c r="O85" s="107"/>
+      <c r="R85" s="107" t="s">
+        <v>230</v>
+      </c>
+      <c r="S85" s="110">
         <v>2</v>
       </c>
-      <c r="I87" s="107"/>
-      <c r="O87" s="107"/>
-      <c r="R87" s="107" t="s">
-        <v>230</v>
-      </c>
-      <c r="S87" s="110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D92" s="108">
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D90" s="108">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B93" s="111"/>
-      <c r="C93" s="149"/>
-      <c r="D93" s="108">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B91" s="111"/>
+      <c r="C91" s="149"/>
+      <c r="D91" s="108">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="110"/>
+      <c r="B92" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="108">
+        <f>SUM(C70:C90)</f>
+        <v>20</v>
+      </c>
+      <c r="D92" s="108">
+        <f>SUM(D70:D90)</f>
+        <v>25</v>
+      </c>
+      <c r="G92" s="108">
+        <f>SUM(G70:G90)</f>
+        <v>5</v>
+      </c>
+      <c r="J92" s="108">
+        <f>SUM(J70:J90)</f>
+        <v>6</v>
+      </c>
+      <c r="M92" s="108">
+        <f>SUM(M70:M90)</f>
+        <v>6</v>
+      </c>
+      <c r="P92" s="108">
+        <f>SUM(P70:P90)</f>
+        <v>5</v>
+      </c>
+      <c r="S92" s="108">
+        <f>SUM(S70:S90)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="118"/>
+      <c r="D93" s="118"/>
+      <c r="E93" s="118"/>
+      <c r="H93" s="120"/>
+      <c r="K93" s="120"/>
+      <c r="N93" s="120"/>
+      <c r="Q93" s="120"/>
+      <c r="T93" s="120"/>
+    </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" s="110"/>
-      <c r="B94" s="108" t="s">
-        <v>145</v>
-      </c>
-      <c r="C94" s="108">
-        <f>SUM(C70:C92)</f>
-        <v>20</v>
+      <c r="A94" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" s="223" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" s="155">
+        <v>1</v>
       </c>
       <c r="D94" s="108">
-        <f>SUM(D70:D92)</f>
-        <v>25</v>
+        <f t="shared" ref="D94" si="7">SUM(G94+J94+M94+P94+S94)</f>
+        <v>1</v>
+      </c>
+      <c r="F94" s="223" t="s">
+        <v>148</v>
       </c>
       <c r="G94" s="108">
-        <f>SUM(G70:G92)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B95" s="224" t="s">
+        <v>343</v>
+      </c>
+      <c r="C95" s="108">
+        <v>2</v>
+      </c>
+      <c r="D95" s="108">
+        <f>SUM(G95+J95+M95+P95+S95)</f>
+        <v>2</v>
+      </c>
+      <c r="F95" s="224" t="s">
+        <v>343</v>
+      </c>
+      <c r="G95" s="110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B96" s="214" t="s">
+        <v>682</v>
+      </c>
+      <c r="C96" s="156">
         <v>5</v>
       </c>
-      <c r="J94" s="108">
-        <f>SUM(J70:J92)</f>
-        <v>6</v>
-      </c>
-      <c r="M94" s="108">
-        <f>SUM(M70:M92)</f>
-        <v>6</v>
-      </c>
-      <c r="P94" s="108">
-        <f>SUM(P70:P92)</f>
+      <c r="D96" s="108">
+        <f t="shared" ref="D96:D114" si="8">SUM(G96+J96+M96+P96+S96)</f>
         <v>5</v>
       </c>
-      <c r="S94" s="108">
-        <f>SUM(S70:S92)</f>
+      <c r="F96" s="214" t="s">
+        <v>682</v>
+      </c>
+      <c r="G96" s="108">
+        <v>2</v>
+      </c>
+      <c r="I96" s="214" t="s">
+        <v>682</v>
+      </c>
+      <c r="J96" s="110">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="118"/>
-      <c r="D95" s="118"/>
-      <c r="E95" s="118"/>
-      <c r="H95" s="120"/>
-      <c r="K95" s="120"/>
-      <c r="N95" s="120"/>
-      <c r="Q95" s="120"/>
-      <c r="T95" s="120"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="B96" s="223" t="s">
-        <v>148</v>
-      </c>
-      <c r="C96" s="155">
-        <v>1</v>
-      </c>
-      <c r="D96" s="108">
-        <f t="shared" ref="D96" si="7">SUM(G96+J96+M96+P96+S96)</f>
-        <v>1</v>
-      </c>
-      <c r="F96" s="223" t="s">
-        <v>148</v>
-      </c>
-      <c r="G96" s="108">
-        <v>1</v>
-      </c>
+      <c r="T96" s="110"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B97" s="224" t="s">
-        <v>343</v>
-      </c>
-      <c r="C97" s="108">
-        <v>2</v>
+      <c r="B97" s="237" t="s">
+        <v>331</v>
+      </c>
+      <c r="C97" s="149">
+        <v>3</v>
       </c>
       <c r="D97" s="108">
-        <f>SUM(G97+J97+M97+P97+S97)</f>
-        <v>2</v>
-      </c>
-      <c r="F97" s="224" t="s">
-        <v>343</v>
-      </c>
-      <c r="G97" s="110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B98" s="214" t="s">
-        <v>682</v>
-      </c>
-      <c r="C98" s="156">
-        <v>5</v>
-      </c>
-      <c r="D98" s="108">
-        <f t="shared" ref="D98:D116" si="8">SUM(G98+J98+M98+P98+S98)</f>
-        <v>5</v>
-      </c>
-      <c r="F98" s="214" t="s">
-        <v>682</v>
-      </c>
-      <c r="G98" s="108">
-        <v>2</v>
-      </c>
-      <c r="I98" s="214" t="s">
-        <v>682</v>
-      </c>
-      <c r="J98" s="110">
-        <v>3</v>
-      </c>
-      <c r="T98" s="110"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B99" s="237" t="s">
-        <v>331</v>
-      </c>
-      <c r="C99" s="149">
-        <v>3</v>
-      </c>
-      <c r="D99" s="108">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="G99" s="110">
+      <c r="G97" s="110">
         <v>0</v>
       </c>
-      <c r="I99" s="165" t="s">
+      <c r="I97" s="165" t="s">
         <v>376</v>
       </c>
+      <c r="J97" s="108">
+        <v>2</v>
+      </c>
+      <c r="L97" s="165" t="s">
+        <v>377</v>
+      </c>
+      <c r="M97" s="110">
+        <v>1</v>
+      </c>
+      <c r="T97" s="110"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B98" s="238" t="s">
+        <v>745</v>
+      </c>
+      <c r="C98" s="149"/>
+      <c r="I98" s="165"/>
+      <c r="J98" s="108"/>
+      <c r="L98" s="165"/>
+      <c r="T98" s="110"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B99" s="164" t="s">
+        <v>375</v>
+      </c>
+      <c r="C99" s="149">
+        <v>1</v>
+      </c>
+      <c r="I99" s="164" t="s">
+        <v>375</v>
+      </c>
       <c r="J99" s="108">
-        <v>2</v>
-      </c>
-      <c r="L99" s="165" t="s">
-        <v>377</v>
+        <v>1</v>
+      </c>
+      <c r="L99" s="164" t="s">
+        <v>375</v>
       </c>
       <c r="M99" s="110">
+        <v>0.5</v>
+      </c>
+      <c r="T99" s="110"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B100" s="148" t="s">
+        <v>333</v>
+      </c>
+      <c r="C100" s="108">
         <v>1</v>
       </c>
-      <c r="T99" s="110"/>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B100" s="238" t="s">
-        <v>745</v>
-      </c>
-      <c r="C100" s="149"/>
-      <c r="I100" s="165"/>
-      <c r="J100" s="108"/>
-      <c r="L100" s="165"/>
+      <c r="D100" s="108">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L100" s="148" t="s">
+        <v>333</v>
+      </c>
+      <c r="M100" s="110">
+        <v>1</v>
+      </c>
       <c r="T100" s="110"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B101" s="164" t="s">
-        <v>375</v>
-      </c>
-      <c r="C101" s="149">
+      <c r="B101" s="148" t="s">
+        <v>334</v>
+      </c>
+      <c r="C101" s="108">
         <v>1</v>
       </c>
-      <c r="I101" s="164" t="s">
-        <v>375</v>
-      </c>
-      <c r="J101" s="108">
+      <c r="D101" s="108">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="L101" s="164" t="s">
-        <v>375</v>
+      <c r="L101" s="148" t="s">
+        <v>334</v>
       </c>
       <c r="M101" s="110">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T101" s="110"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B102" s="148" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C102" s="108">
         <v>1</v>
@@ -16697,7 +16724,7 @@
         <v>1</v>
       </c>
       <c r="L102" s="148" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="M102" s="110">
         <v>1</v>
@@ -16706,7 +16733,7 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B103" s="148" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C103" s="108">
         <v>1</v>
@@ -16716,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="L103" s="148" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M103" s="110">
         <v>1</v>
@@ -16725,171 +16752,156 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B104" s="148" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C104" s="108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D104" s="108">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L104" s="148" t="s">
-        <v>340</v>
-      </c>
-      <c r="M104" s="110">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L104" s="148"/>
+      <c r="O104" s="229" t="s">
+        <v>743</v>
+      </c>
+      <c r="P104" s="110">
+        <v>2</v>
       </c>
       <c r="T104" s="110"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B105" s="148" t="s">
-        <v>339</v>
-      </c>
-      <c r="C105" s="108">
-        <v>1</v>
+      <c r="B105" s="226" t="s">
+        <v>695</v>
       </c>
       <c r="D105" s="108">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L105" s="148" t="s">
-        <v>339</v>
-      </c>
-      <c r="M105" s="110">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L105" s="148"/>
+      <c r="O105" s="148"/>
       <c r="T105" s="110"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B106" s="148" t="s">
-        <v>341</v>
-      </c>
-      <c r="C106" s="108">
+    <row r="106" spans="1:20" ht="51" x14ac:dyDescent="0.25">
+      <c r="A106" s="110"/>
+      <c r="B106" s="144" t="s">
+        <v>316</v>
+      </c>
+      <c r="C106" s="156">
         <v>3</v>
       </c>
       <c r="D106" s="108">
         <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="I106" s="106"/>
+      <c r="J106" s="108"/>
+      <c r="O106" s="144" t="s">
+        <v>316</v>
+      </c>
+      <c r="P106" s="110">
+        <v>3</v>
+      </c>
+      <c r="T106" s="110"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B107" s="147" t="s">
+        <v>342</v>
+      </c>
+      <c r="C107" s="155">
+        <v>3</v>
+      </c>
+      <c r="D107" s="108">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="L106" s="148"/>
-      <c r="O106" s="229" t="s">
-        <v>743</v>
-      </c>
-      <c r="P106" s="110">
-        <v>2</v>
-      </c>
-      <c r="T106" s="110"/>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B107" s="226" t="s">
-        <v>695</v>
-      </c>
-      <c r="D107" s="108">
-        <v>2</v>
-      </c>
-      <c r="L107" s="148"/>
-      <c r="O107" s="148"/>
+      <c r="L107" s="106"/>
+      <c r="M107" s="108"/>
+      <c r="O107" s="147" t="s">
+        <v>342</v>
+      </c>
+      <c r="P107" s="110">
+        <v>1</v>
+      </c>
+      <c r="R107" s="147" t="s">
+        <v>342</v>
+      </c>
+      <c r="S107" s="160">
+        <v>1</v>
+      </c>
       <c r="T107" s="110"/>
     </row>
-    <row r="108" spans="1:20" ht="51" x14ac:dyDescent="0.25">
-      <c r="A108" s="110"/>
-      <c r="B108" s="144" t="s">
-        <v>316</v>
-      </c>
-      <c r="C108" s="156">
-        <v>3</v>
-      </c>
+    <row r="108" spans="1:20" ht="34" x14ac:dyDescent="0.25">
+      <c r="B108" s="106" t="s">
+        <v>245</v>
+      </c>
+      <c r="C108" s="155"/>
       <c r="D108" s="108">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="I108" s="106"/>
-      <c r="J108" s="108"/>
-      <c r="O108" s="144" t="s">
-        <v>316</v>
-      </c>
-      <c r="P108" s="110">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="L108" s="106"/>
+      <c r="M108" s="108"/>
+      <c r="R108" s="106" t="s">
+        <v>245</v>
+      </c>
+      <c r="S108" s="110">
+        <v>2</v>
       </c>
       <c r="T108" s="110"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B109" s="147" t="s">
-        <v>342</v>
-      </c>
-      <c r="C109" s="155">
-        <v>3</v>
-      </c>
+    <row r="109" spans="1:20" ht="34" x14ac:dyDescent="0.25">
+      <c r="B109" s="106" t="s">
+        <v>246</v>
+      </c>
+      <c r="C109" s="155"/>
       <c r="D109" s="108">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="L109" s="106"/>
       <c r="M109" s="108"/>
-      <c r="O109" s="147" t="s">
-        <v>342</v>
-      </c>
-      <c r="P109" s="110">
-        <v>1</v>
-      </c>
-      <c r="R109" s="147" t="s">
-        <v>342</v>
-      </c>
-      <c r="S109" s="160">
-        <v>1</v>
+      <c r="R109" s="106" t="s">
+        <v>246</v>
+      </c>
+      <c r="S109" s="110">
+        <v>2</v>
       </c>
       <c r="T109" s="110"/>
     </row>
-    <row r="110" spans="1:20" ht="34" x14ac:dyDescent="0.25">
-      <c r="B110" s="106" t="s">
-        <v>245</v>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B110" s="228" t="s">
+        <v>739</v>
       </c>
       <c r="C110" s="155"/>
       <c r="D110" s="108">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="L110" s="106"/>
       <c r="M110" s="108"/>
-      <c r="R110" s="106" t="s">
-        <v>245</v>
-      </c>
-      <c r="S110" s="110">
-        <v>2</v>
-      </c>
+      <c r="R110" s="106"/>
       <c r="T110" s="110"/>
     </row>
-    <row r="111" spans="1:20" ht="34" x14ac:dyDescent="0.25">
-      <c r="B111" s="106" t="s">
-        <v>246</v>
-      </c>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" s="110"/>
+      <c r="B111" s="106"/>
       <c r="C111" s="155"/>
       <c r="D111" s="108">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="L111" s="106"/>
-      <c r="M111" s="108"/>
-      <c r="R111" s="106" t="s">
-        <v>246</v>
-      </c>
-      <c r="S111" s="110">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O111" s="106"/>
+      <c r="P111" s="108"/>
       <c r="T111" s="110"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B112" s="228" t="s">
-        <v>739</v>
-      </c>
+      <c r="B112" s="106"/>
       <c r="C112" s="155"/>
       <c r="D112" s="108">
-        <v>2</v>
-      </c>
-      <c r="L112" s="106"/>
-      <c r="M112" s="108"/>
-      <c r="R112" s="106"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O112" s="106"/>
+      <c r="P112" s="108"/>
       <c r="T112" s="110"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
@@ -16900,119 +16912,117 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O113" s="106"/>
-      <c r="P113" s="108"/>
+      <c r="R113" s="106"/>
+      <c r="S113" s="108"/>
       <c r="T113" s="110"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B114" s="106"/>
-      <c r="C114" s="155"/>
       <c r="D114" s="108">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O114" s="106"/>
-      <c r="P114" s="108"/>
+      <c r="R114" s="106"/>
+      <c r="S114" s="108"/>
       <c r="T114" s="110"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A115" s="110"/>
-      <c r="B115" s="106"/>
-      <c r="C115" s="155"/>
+      <c r="B115" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C115" s="108">
+        <f>SUM(C94:C113)</f>
+        <v>25</v>
+      </c>
       <c r="D115" s="108">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R115" s="106"/>
-      <c r="S115" s="108"/>
-      <c r="T115" s="110"/>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D116" s="108">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R116" s="106"/>
-      <c r="S116" s="108"/>
-      <c r="T116" s="110"/>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B117" s="108" t="s">
-        <v>145</v>
-      </c>
-      <c r="C117" s="108">
-        <f>SUM(C96:C115)</f>
-        <v>25</v>
-      </c>
-      <c r="D117" s="108">
-        <f>SUM(D96:D115)</f>
+        <f>SUM(D94:D113)</f>
         <v>30</v>
       </c>
-      <c r="G117" s="108">
-        <f>SUM(G96:G115)</f>
+      <c r="G115" s="108">
+        <f>SUM(G94:G113)</f>
         <v>5</v>
       </c>
-      <c r="J117" s="108">
-        <f>SUM(J96:J115)</f>
+      <c r="J115" s="108">
+        <f>SUM(J94:J113)</f>
         <v>6</v>
       </c>
-      <c r="M117" s="108">
-        <f>SUM(M96:M115)</f>
+      <c r="M115" s="108">
+        <f>SUM(M94:M113)</f>
         <v>5.5</v>
       </c>
-      <c r="P117" s="108">
-        <f>SUM(P96:P115)</f>
+      <c r="P115" s="108">
+        <f>SUM(P94:P113)</f>
         <v>6</v>
       </c>
-      <c r="S117" s="108">
-        <f>SUM(S96:S116)</f>
+      <c r="S115" s="108">
+        <f>SUM(S94:S114)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F120" t="s">
+    <row r="118" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
         <v>424</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I118" t="s">
         <v>423</v>
       </c>
-      <c r="L120" t="s">
+      <c r="L118" t="s">
         <v>422</v>
       </c>
-      <c r="O120" t="s">
+      <c r="O118" t="s">
         <v>421</v>
       </c>
-      <c r="R120" t="s">
+      <c r="R118" t="s">
         <v>420</v>
       </c>
+    </row>
+    <row r="119" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="38"/>
+      <c r="B119" s="165" t="s">
+        <v>379</v>
+      </c>
+      <c r="C119" s="170"/>
+      <c r="D119" s="170"/>
+      <c r="E119" s="170"/>
+      <c r="F119" s="165" t="s">
+        <v>419</v>
+      </c>
+      <c r="H119" s="169"/>
+      <c r="I119" s="165" t="s">
+        <v>419</v>
+      </c>
+      <c r="K119" s="169"/>
+      <c r="L119" s="165" t="s">
+        <v>419</v>
+      </c>
+      <c r="N119" s="169"/>
+      <c r="O119" s="165" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q119" s="169"/>
+      <c r="R119" s="165" t="s">
+        <v>419</v>
+      </c>
+      <c r="T119" s="169"/>
+    </row>
+    <row r="120" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="38"/>
+      <c r="C120" s="170"/>
+      <c r="D120" s="170"/>
+      <c r="E120" s="170"/>
+      <c r="H120" s="169"/>
+      <c r="K120" s="169"/>
+      <c r="N120" s="169"/>
+      <c r="Q120" s="169"/>
+      <c r="T120" s="169"/>
     </row>
     <row r="121" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="38"/>
-      <c r="B121" s="165" t="s">
-        <v>379</v>
-      </c>
       <c r="C121" s="170"/>
       <c r="D121" s="170"/>
       <c r="E121" s="170"/>
-      <c r="F121" s="165" t="s">
-        <v>419</v>
-      </c>
-      <c r="H121" s="169"/>
-      <c r="I121" s="165" t="s">
-        <v>419</v>
-      </c>
       <c r="K121" s="169"/>
-      <c r="L121" s="165" t="s">
-        <v>419</v>
-      </c>
       <c r="N121" s="169"/>
-      <c r="O121" s="165" t="s">
-        <v>419</v>
-      </c>
       <c r="Q121" s="169"/>
-      <c r="R121" s="165" t="s">
-        <v>419</v>
-      </c>
       <c r="T121" s="169"/>
     </row>
     <row r="122" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
@@ -17020,10 +17030,25 @@
       <c r="C122" s="170"/>
       <c r="D122" s="170"/>
       <c r="E122" s="170"/>
+      <c r="F122" s="165" t="s">
+        <v>397</v>
+      </c>
       <c r="H122" s="169"/>
+      <c r="I122" s="165" t="s">
+        <v>428</v>
+      </c>
       <c r="K122" s="169"/>
+      <c r="L122" s="165" t="s">
+        <v>390</v>
+      </c>
       <c r="N122" s="169"/>
+      <c r="O122" s="165" t="s">
+        <v>427</v>
+      </c>
       <c r="Q122" s="169"/>
+      <c r="R122" s="165" t="s">
+        <v>433</v>
+      </c>
       <c r="T122" s="169"/>
     </row>
     <row r="123" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
@@ -17032,8 +17057,17 @@
       <c r="D123" s="170"/>
       <c r="E123" s="170"/>
       <c r="K123" s="169"/>
+      <c r="L123" s="165" t="s">
+        <v>391</v>
+      </c>
       <c r="N123" s="169"/>
+      <c r="O123" s="165" t="s">
+        <v>396</v>
+      </c>
       <c r="Q123" s="169"/>
+      <c r="R123" s="165" t="s">
+        <v>434</v>
+      </c>
       <c r="T123" s="169"/>
     </row>
     <row r="124" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
@@ -17041,25 +17075,13 @@
       <c r="C124" s="170"/>
       <c r="D124" s="170"/>
       <c r="E124" s="170"/>
-      <c r="F124" s="165" t="s">
-        <v>397</v>
-      </c>
       <c r="H124" s="169"/>
-      <c r="I124" s="165" t="s">
-        <v>428</v>
-      </c>
       <c r="K124" s="169"/>
       <c r="L124" s="165" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="N124" s="169"/>
-      <c r="O124" s="165" t="s">
-        <v>427</v>
-      </c>
       <c r="Q124" s="169"/>
-      <c r="R124" s="165" t="s">
-        <v>433</v>
-      </c>
       <c r="T124" s="169"/>
     </row>
     <row r="125" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
@@ -17067,18 +17089,13 @@
       <c r="C125" s="170"/>
       <c r="D125" s="170"/>
       <c r="E125" s="170"/>
+      <c r="H125" s="169"/>
       <c r="K125" s="169"/>
       <c r="L125" s="165" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N125" s="169"/>
-      <c r="O125" s="165" t="s">
-        <v>396</v>
-      </c>
       <c r="Q125" s="169"/>
-      <c r="R125" s="165" t="s">
-        <v>434</v>
-      </c>
       <c r="T125" s="169"/>
     </row>
     <row r="126" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
@@ -17088,9 +17105,6 @@
       <c r="E126" s="170"/>
       <c r="H126" s="169"/>
       <c r="K126" s="169"/>
-      <c r="L126" s="165" t="s">
-        <v>418</v>
-      </c>
       <c r="N126" s="169"/>
       <c r="Q126" s="169"/>
       <c r="T126" s="169"/>
@@ -17100,13 +17114,25 @@
       <c r="C127" s="170"/>
       <c r="D127" s="170"/>
       <c r="E127" s="170"/>
+      <c r="F127" s="165" t="s">
+        <v>377</v>
+      </c>
       <c r="H127" s="169"/>
+      <c r="I127" s="165" t="s">
+        <v>377</v>
+      </c>
       <c r="K127" s="169"/>
       <c r="L127" s="165" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="N127" s="169"/>
+      <c r="O127" s="165" t="s">
+        <v>377</v>
+      </c>
       <c r="Q127" s="169"/>
+      <c r="R127" s="165" t="s">
+        <v>377</v>
+      </c>
       <c r="T127" s="169"/>
     </row>
     <row r="128" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
@@ -17120,29 +17146,29 @@
       <c r="Q128" s="169"/>
       <c r="T128" s="169"/>
     </row>
-    <row r="129" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" s="165" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="38"/>
       <c r="C129" s="170"/>
       <c r="D129" s="170"/>
       <c r="E129" s="170"/>
       <c r="F129" s="165" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H129" s="169"/>
       <c r="I129" s="165" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="K129" s="169"/>
       <c r="L129" s="165" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="N129" s="169"/>
-      <c r="O129" s="165" t="s">
-        <v>377</v>
+      <c r="O129" s="7" t="s">
+        <v>498</v>
       </c>
       <c r="Q129" s="169"/>
       <c r="R129" s="165" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="T129" s="169"/>
     </row>
@@ -17151,36 +17177,48 @@
       <c r="C130" s="170"/>
       <c r="D130" s="170"/>
       <c r="E130" s="170"/>
+      <c r="F130" s="165" t="s">
+        <v>382</v>
+      </c>
       <c r="H130" s="169"/>
+      <c r="I130" s="165" t="s">
+        <v>416</v>
+      </c>
       <c r="K130" s="169"/>
+      <c r="L130" s="164" t="s">
+        <v>375</v>
+      </c>
       <c r="N130" s="169"/>
+      <c r="O130" s="165" t="s">
+        <v>392</v>
+      </c>
       <c r="Q130" s="169"/>
+      <c r="R130" s="165" t="s">
+        <v>432</v>
+      </c>
       <c r="T130" s="169"/>
     </row>
-    <row r="131" spans="1:20" s="165" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="38"/>
       <c r="C131" s="170"/>
       <c r="D131" s="170"/>
       <c r="E131" s="170"/>
       <c r="F131" s="165" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="H131" s="169"/>
       <c r="I131" s="165" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="K131" s="169"/>
       <c r="L131" s="165" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="N131" s="169"/>
-      <c r="O131" s="7" t="s">
-        <v>498</v>
+      <c r="O131" s="165" t="s">
+        <v>429</v>
       </c>
       <c r="Q131" s="169"/>
-      <c r="R131" s="165" t="s">
-        <v>345</v>
-      </c>
       <c r="T131" s="169"/>
     </row>
     <row r="132" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
@@ -17188,25 +17226,22 @@
       <c r="C132" s="170"/>
       <c r="D132" s="170"/>
       <c r="E132" s="170"/>
-      <c r="F132" s="165" t="s">
-        <v>382</v>
+      <c r="F132" s="178" t="s">
+        <v>499</v>
       </c>
       <c r="H132" s="169"/>
       <c r="I132" s="165" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K132" s="169"/>
-      <c r="L132" s="164" t="s">
-        <v>375</v>
+      <c r="L132" s="165" t="s">
+        <v>386</v>
       </c>
       <c r="N132" s="169"/>
       <c r="O132" s="165" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="Q132" s="169"/>
-      <c r="R132" s="165" t="s">
-        <v>432</v>
-      </c>
       <c r="T132" s="169"/>
     </row>
     <row r="133" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
@@ -17214,20 +17249,14 @@
       <c r="C133" s="170"/>
       <c r="D133" s="170"/>
       <c r="E133" s="170"/>
-      <c r="F133" s="165" t="s">
-        <v>413</v>
-      </c>
       <c r="H133" s="169"/>
-      <c r="I133" s="165" t="s">
-        <v>381</v>
-      </c>
       <c r="K133" s="169"/>
       <c r="L133" s="165" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="N133" s="169"/>
       <c r="O133" s="165" t="s">
-        <v>429</v>
+        <v>341</v>
       </c>
       <c r="Q133" s="169"/>
       <c r="T133" s="169"/>
@@ -17237,20 +17266,11 @@
       <c r="C134" s="170"/>
       <c r="D134" s="170"/>
       <c r="E134" s="170"/>
-      <c r="F134" s="178" t="s">
-        <v>499</v>
-      </c>
       <c r="H134" s="169"/>
-      <c r="I134" s="165" t="s">
-        <v>415</v>
-      </c>
       <c r="K134" s="169"/>
-      <c r="L134" s="165" t="s">
-        <v>386</v>
-      </c>
       <c r="N134" s="169"/>
       <c r="O134" s="165" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q134" s="169"/>
       <c r="T134" s="169"/>
@@ -17262,144 +17282,113 @@
       <c r="E135" s="170"/>
       <c r="H135" s="169"/>
       <c r="K135" s="169"/>
-      <c r="L135" s="165" t="s">
-        <v>389</v>
-      </c>
       <c r="N135" s="169"/>
-      <c r="O135" s="165" t="s">
-        <v>341</v>
-      </c>
       <c r="Q135" s="169"/>
       <c r="T135" s="169"/>
     </row>
-    <row r="136" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="38"/>
-      <c r="C136" s="170"/>
-      <c r="D136" s="170"/>
-      <c r="E136" s="170"/>
-      <c r="H136" s="169"/>
-      <c r="K136" s="169"/>
-      <c r="N136" s="169"/>
-      <c r="O136" s="165" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q136" s="169"/>
-      <c r="T136" s="169"/>
-    </row>
-    <row r="137" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="38"/>
-      <c r="C137" s="170"/>
-      <c r="D137" s="170"/>
-      <c r="E137" s="170"/>
-      <c r="H137" s="169"/>
-      <c r="K137" s="169"/>
-      <c r="N137" s="169"/>
-      <c r="Q137" s="169"/>
-      <c r="T137" s="169"/>
+    <row r="136" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="F136" s="165" t="s">
+        <v>414</v>
+      </c>
+      <c r="I136" s="165" t="s">
+        <v>414</v>
+      </c>
+      <c r="L136" s="165" t="s">
+        <v>414</v>
+      </c>
+      <c r="O136" t="s">
+        <v>414</v>
+      </c>
+      <c r="R136" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="F137" s="165"/>
+      <c r="I137" s="165"/>
+      <c r="L137" s="165"/>
     </row>
     <row r="138" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="F138" s="165" t="s">
-        <v>414</v>
+        <v>139</v>
       </c>
       <c r="I138" s="165" t="s">
-        <v>414</v>
-      </c>
-      <c r="L138" s="165" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O138" t="s">
-        <v>414</v>
-      </c>
-      <c r="R138" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="139" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F139" s="165"/>
-      <c r="I139" s="165"/>
-      <c r="L139" s="165"/>
+      <c r="I139" s="165" t="s">
+        <v>412</v>
+      </c>
+      <c r="L139" s="165" t="s">
+        <v>411</v>
+      </c>
+      <c r="O139" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="140" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F140" s="165" t="s">
-        <v>139</v>
-      </c>
-      <c r="I140" s="165" t="s">
-        <v>413</v>
-      </c>
-      <c r="O140" t="s">
-        <v>426</v>
-      </c>
+      <c r="L140" s="165"/>
     </row>
     <row r="141" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="F141" s="165" t="s">
+        <v>410</v>
+      </c>
       <c r="I141" s="165" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L141" s="165" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O141" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="L142" s="165"/>
-    </row>
+        <v>410</v>
+      </c>
+      <c r="R141" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="143" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="F143" s="165" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="I143" s="165" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="L143" s="165" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="O143" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="R143" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="6:18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F145" s="165" t="s">
-        <v>383</v>
-      </c>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="F144" s="165" t="s">
+        <v>384</v>
+      </c>
+      <c r="I144" s="165" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="145" spans="9:9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="I145" s="165" t="s">
-        <v>385</v>
-      </c>
-      <c r="L145" s="165" t="s">
-        <v>387</v>
-      </c>
-      <c r="O145" t="s">
-        <v>435</v>
-      </c>
-      <c r="R145" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="146" spans="6:18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F146" s="165" t="s">
-        <v>384</v>
-      </c>
-      <c r="I146" s="165" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="147" spans="6:18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="I147" s="165" t="s">
         <v>408</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
-  <conditionalFormatting sqref="B117 B94 F98 B67 B54:C54 B53 F56 L48 O87 B48:C48 F58:F60 F45 C49:C50 B49 B62:C63 B87:C87 L37:L45 I46 I61 I63 L62 I37:I44 B37:C46 B51:C52 I48:I54 L50:L54 I87 I83:I84 I76">
+  <conditionalFormatting sqref="B115 B92 F96 B67 B54:C54 B53 F56 L48 O85 F58:F60 F46 C49:C50 B49 B62:C63 B85:C85 L37:L42 I61 I63 L62 I37:I42 B37:C42 B51:C52 I47:I54 L50:L54 I85 I81:I82 I76 B44:C48 I44:I45 L44:L46">
     <cfRule type="cellIs" dxfId="20" priority="82" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I108 O113:O114 R115:R116 B96:C96 B98:C98 L109:L112 B108:C115 F96 B70:C70 F70 I66:I71 I73:I74 O108:O109 R109:R112 F98 I98 B83:C84 B76:C76">
+  <conditionalFormatting sqref="I106 O111:O112 R113:R114 B94:C94 B96:C96 L107:L110 B106:C113 F94 B70:C70 F70 I66:I71 I73:I74 O106:O107 R107:R110 F96 I96 B81:C82 B76:C76">
     <cfRule type="cellIs" dxfId="19" priority="65" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -17409,7 +17398,7 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R87">
+  <conditionalFormatting sqref="R85">
     <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>

--- a/项目管理/进度计划/Demo-里程碑6/Demo-里程碑6计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑6/Demo-里程碑6计划.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/项目管理/进度计划/Demo-里程碑6/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="349" activeTab="1"/>
+    <workbookView xWindow="4200" yWindow="320" windowWidth="28800" windowHeight="17540" tabRatio="349"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑6" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">里程碑6!$A$14:$M$142</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -66,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="748">
   <si>
     <t>分类</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -7029,10 +7024,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>主界面村落，自动战斗</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>内容</t>
     <rPh sb="0" eb="1">
       <t>nei'rong</t>
@@ -7069,22 +7060,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>场景拼接（火山，巢穴）</t>
-    <rPh sb="0" eb="1">
-      <t>chang'jing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pin'jie</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>huo'shan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>chao'xue</t>
-    </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>角色原画；boss原画*2</t>
     <rPh sb="0" eb="1">
       <t>jue'se</t>
@@ -7123,37 +7098,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>qing'k</t>
-    </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物界面调整，性格相关；商城功能补充；通天塔；热更新</t>
-    <rPh sb="0" eb="1">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tiao'zheng</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>shagn'cheng</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>gong'neng</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>bu'chong</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>tong'tian'ta</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>re'geng'xing</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>geng'xin</t>
     </rPh>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -7177,10 +7121,6 @@
     <t>小怪设计*9</t>
   </si>
   <si>
-    <t>任务内容设计，装备道具配置</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>副本小怪设计*9，包含美术需求</t>
     <rPh sb="8" eb="9">
       <t>mei'shu</t>
@@ -8390,13 +8330,114 @@
   </si>
   <si>
     <t>设计和佈怪 （先考虑是不是所有怪都有4技能）</t>
+  </si>
+  <si>
+    <t>主界面村落，自动战斗</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>宠物界面调整，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>性格相关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；商城功能补充；通天塔；热更新</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shagn'cheng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bu'chong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>re'geng'xing</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>geng'xin</t>
+    </rPh>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>场景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拼接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（火山，巢穴）</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pin'jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo'shan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chao'xue</t>
+    </rPh>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会boss</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务内容设计，装备道具配置</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8533,7 +8574,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8541,7 +8582,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8566,7 +8607,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8674,7 +8715,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8801,6 +8842,12 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -9290,7 +9337,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9874,339 +9921,340 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="331">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="298"/>
     <cellStyle name="常规 12" xfId="157"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 25" xfId="283"/>
     <cellStyle name="常规 3" xfId="190"/>
     <cellStyle name="常规 4" xfId="144"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -10781,11 +10829,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView topLeftCell="B26" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="7" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="8" customWidth="1"/>
@@ -10802,7 +10850,7 @@
     <col min="14" max="16384" width="8.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1">
       <c r="B1" s="2" t="s">
         <v>102</v>
       </c>
@@ -10814,7 +10862,7 @@
       <c r="I1" s="3"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="32">
       <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
@@ -10833,7 +10881,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="C3" s="10" t="s">
         <v>92</v>
       </c>
@@ -10849,19 +10897,19 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="C4" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="122" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
@@ -10869,7 +10917,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="122" t="s">
-        <v>669</v>
+        <v>743</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="10" t="s">
@@ -10880,12 +10928,12 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="217" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="10" t="s">
@@ -10896,13 +10944,13 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="122" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="10" t="s">
@@ -10912,13 +10960,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="122" t="s">
-        <v>673</v>
+        <v>745</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="10" t="s">
@@ -10928,7 +10976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30">
       <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
@@ -10936,7 +10984,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="122" t="s">
-        <v>677</v>
+        <v>744</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="10" t="s">
@@ -10946,40 +10994,40 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
         <v>663</v>
       </c>
       <c r="D10" s="122" t="s">
-        <v>221</v>
+        <v>746</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D11" s="122" t="s">
-        <v>680</v>
+        <v>747</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="C12" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="122" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -11004,7 +11052,7 @@
       </c>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A14" s="17" t="s">
         <v>9</v>
       </c>
@@ -11045,7 +11093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -11076,7 +11124,7 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -11107,7 +11155,7 @@
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
     </row>
-    <row r="17" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -11140,7 +11188,7 @@
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
     </row>
-    <row r="18" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -11171,7 +11219,7 @@
       </c>
       <c r="M18" s="21"/>
     </row>
-    <row r="19" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A19" s="5">
         <v>5</v>
       </c>
@@ -11204,7 +11252,7 @@
       </c>
       <c r="M19" s="21"/>
     </row>
-    <row r="20" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A20" s="5">
         <v>6</v>
       </c>
@@ -11237,7 +11285,7 @@
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15">
       <c r="A21" s="5">
         <v>7</v>
       </c>
@@ -11266,7 +11314,7 @@
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
     </row>
-    <row r="22" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A22" s="5">
         <v>8</v>
       </c>
@@ -11295,7 +11343,7 @@
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15">
       <c r="A23" s="5">
         <v>9</v>
       </c>
@@ -11324,7 +11372,7 @@
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
     </row>
-    <row r="24" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A24" s="5">
         <v>10</v>
       </c>
@@ -11355,7 +11403,7 @@
       </c>
       <c r="M24" s="21"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15">
       <c r="A25" s="5">
         <v>11</v>
       </c>
@@ -11388,7 +11436,7 @@
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15">
       <c r="A26" s="5">
         <v>12</v>
       </c>
@@ -11416,7 +11464,7 @@
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15">
       <c r="A27" s="5">
         <v>13</v>
       </c>
@@ -11449,7 +11497,7 @@
       </c>
       <c r="M27" s="37"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15">
       <c r="A28" s="5">
         <v>14</v>
       </c>
@@ -11478,7 +11526,7 @@
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15">
       <c r="A29" s="5">
         <v>15</v>
       </c>
@@ -11511,7 +11559,7 @@
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15">
       <c r="A30" s="5">
         <v>16</v>
       </c>
@@ -11540,7 +11588,7 @@
       <c r="L30" s="37"/>
       <c r="M30" s="37"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15">
       <c r="A31" s="5">
         <v>17</v>
       </c>
@@ -11571,7 +11619,7 @@
       <c r="L31" s="37"/>
       <c r="M31" s="37"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15">
       <c r="A32" s="5">
         <v>18</v>
       </c>
@@ -11604,7 +11652,7 @@
       </c>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15">
       <c r="A33" s="5">
         <v>19</v>
       </c>
@@ -11633,7 +11681,7 @@
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="5">
         <v>20</v>
       </c>
@@ -11662,7 +11710,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15">
       <c r="A35" s="5">
         <v>21</v>
       </c>
@@ -11695,7 +11743,7 @@
       </c>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15">
       <c r="A36" s="5">
         <v>22</v>
       </c>
@@ -11728,7 +11776,7 @@
       </c>
       <c r="M36" s="21"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15">
       <c r="A37" s="5">
         <v>23</v>
       </c>
@@ -11761,7 +11809,7 @@
       </c>
       <c r="M37" s="21"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15">
       <c r="A38" s="5">
         <v>24</v>
       </c>
@@ -11792,7 +11840,7 @@
       </c>
       <c r="M38" s="21"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15">
       <c r="A39" s="5">
         <v>25</v>
       </c>
@@ -11821,7 +11869,7 @@
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15">
       <c r="A40" s="5">
         <v>26</v>
       </c>
@@ -11850,7 +11898,7 @@
       </c>
       <c r="M40" s="21"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15">
       <c r="A41" s="5">
         <v>27</v>
       </c>
@@ -11879,7 +11927,7 @@
       </c>
       <c r="M41" s="21"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15">
       <c r="A42" s="5">
         <v>28</v>
       </c>
@@ -11908,7 +11956,7 @@
       </c>
       <c r="M42" s="21"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15">
       <c r="A43" s="5">
         <v>29</v>
       </c>
@@ -11935,7 +11983,7 @@
       <c r="L43" s="22"/>
       <c r="M43" s="21"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15">
       <c r="A44" s="5">
         <v>30</v>
       </c>
@@ -11946,7 +11994,7 @@
         <v>68</v>
       </c>
       <c r="D44" s="208" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E44" s="21">
         <v>2</v>
@@ -11962,7 +12010,7 @@
       <c r="L44" s="22"/>
       <c r="M44" s="21"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15">
       <c r="A45" s="5">
         <v>31</v>
       </c>
@@ -11991,7 +12039,7 @@
       </c>
       <c r="M45" s="22"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15">
       <c r="A46" s="5">
         <v>32</v>
       </c>
@@ -12010,7 +12058,7 @@
       <c r="L46" s="22"/>
       <c r="M46" s="21"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15">
       <c r="A47" s="5">
         <v>33</v>
       </c>
@@ -12039,7 +12087,7 @@
       <c r="L47" s="22"/>
       <c r="M47" s="21"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15">
       <c r="A48" s="5">
         <v>34</v>
       </c>
@@ -12068,7 +12116,7 @@
       <c r="L48" s="22"/>
       <c r="M48" s="21"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15">
       <c r="A49" s="5">
         <v>35</v>
       </c>
@@ -12097,7 +12145,7 @@
       <c r="L49" s="22"/>
       <c r="M49" s="21"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15">
       <c r="A50" s="5">
         <v>36</v>
       </c>
@@ -12126,7 +12174,7 @@
       <c r="L50" s="22"/>
       <c r="M50" s="21"/>
     </row>
-    <row r="51" spans="1:13" ht="32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="32">
       <c r="A51" s="5">
         <v>37</v>
       </c>
@@ -12155,7 +12203,7 @@
       <c r="L51" s="22"/>
       <c r="M51" s="21"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15">
       <c r="A52" s="5">
         <v>38</v>
       </c>
@@ -12184,7 +12232,7 @@
       <c r="L52" s="22"/>
       <c r="M52" s="21"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15">
       <c r="A53" s="5">
         <v>39</v>
       </c>
@@ -12213,7 +12261,7 @@
       <c r="L53" s="22"/>
       <c r="M53" s="21"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15">
       <c r="A54" s="5">
         <v>40</v>
       </c>
@@ -12242,7 +12290,7 @@
       <c r="L54" s="22"/>
       <c r="M54" s="21"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15">
       <c r="A55" s="5">
         <v>41</v>
       </c>
@@ -12271,7 +12319,7 @@
       <c r="L55" s="22"/>
       <c r="M55" s="21"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15">
       <c r="A56" s="5">
         <v>42</v>
       </c>
@@ -12300,7 +12348,7 @@
       <c r="L56" s="22"/>
       <c r="M56" s="21"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15">
       <c r="A57" s="5">
         <v>43</v>
       </c>
@@ -12329,7 +12377,7 @@
       <c r="L57" s="22"/>
       <c r="M57" s="21"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15">
       <c r="A58" s="5">
         <v>44</v>
       </c>
@@ -12358,7 +12406,7 @@
       <c r="L58" s="22"/>
       <c r="M58" s="21"/>
     </row>
-    <row r="59" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="48">
       <c r="A59" s="5">
         <v>45</v>
       </c>
@@ -12387,7 +12435,7 @@
       <c r="L59" s="22"/>
       <c r="M59" s="21"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15">
       <c r="A60" s="5">
         <v>46</v>
       </c>
@@ -12416,7 +12464,7 @@
       </c>
       <c r="M60" s="21"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="15">
       <c r="A61" s="5">
         <v>47</v>
       </c>
@@ -12445,7 +12493,7 @@
       </c>
       <c r="M61" s="21"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="15">
       <c r="A62" s="5">
         <v>48</v>
       </c>
@@ -12474,7 +12522,7 @@
       </c>
       <c r="M62" s="21"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="15">
       <c r="A63" s="5">
         <v>49</v>
       </c>
@@ -12493,7 +12541,7 @@
       <c r="L63" s="21"/>
       <c r="M63" s="21"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="15">
       <c r="A64" s="5">
         <v>50</v>
       </c>
@@ -12522,7 +12570,7 @@
       <c r="L64" s="21"/>
       <c r="M64" s="21"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="15">
       <c r="A65" s="5">
         <v>51</v>
       </c>
@@ -12551,7 +12599,7 @@
       <c r="L65" s="21"/>
       <c r="M65" s="21"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="15">
       <c r="A66" s="5">
         <v>52</v>
       </c>
@@ -12580,7 +12628,7 @@
       <c r="L66" s="21"/>
       <c r="M66" s="21"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="15">
       <c r="A67" s="5">
         <v>53</v>
       </c>
@@ -12609,7 +12657,7 @@
       <c r="L67" s="21"/>
       <c r="M67" s="21"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="15">
       <c r="A68" s="5">
         <v>54</v>
       </c>
@@ -12638,7 +12686,7 @@
       <c r="L68" s="21"/>
       <c r="M68" s="21"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="15">
       <c r="A69" s="5">
         <v>55</v>
       </c>
@@ -12669,7 +12717,7 @@
       </c>
       <c r="M69" s="21"/>
     </row>
-    <row r="70" spans="1:13" ht="32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="32">
       <c r="A70" s="5">
         <v>56</v>
       </c>
@@ -12698,7 +12746,7 @@
       <c r="L70" s="21"/>
       <c r="M70" s="21"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="15">
       <c r="A71" s="5">
         <v>57</v>
       </c>
@@ -12727,7 +12775,7 @@
       <c r="L71" s="21"/>
       <c r="M71" s="21"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="15">
       <c r="A72" s="5">
         <v>58</v>
       </c>
@@ -12756,7 +12804,7 @@
       </c>
       <c r="M72" s="21"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="15">
       <c r="A73" s="5">
         <v>59</v>
       </c>
@@ -12782,7 +12830,7 @@
       <c r="L73" s="21"/>
       <c r="M73" s="21"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="15">
       <c r="A74" s="5">
         <v>60</v>
       </c>
@@ -12801,7 +12849,7 @@
       <c r="L74" s="22"/>
       <c r="M74" s="21"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="15">
       <c r="A75" s="5">
         <v>61</v>
       </c>
@@ -12830,7 +12878,7 @@
       <c r="L75" s="21"/>
       <c r="M75" s="21"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="15">
       <c r="A76" s="5">
         <v>62</v>
       </c>
@@ -12859,7 +12907,7 @@
       <c r="L76" s="22"/>
       <c r="M76" s="21"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="15">
       <c r="A77" s="5">
         <v>63</v>
       </c>
@@ -12888,7 +12936,7 @@
       <c r="L77" s="22"/>
       <c r="M77" s="21"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="15">
       <c r="A78" s="5">
         <v>64</v>
       </c>
@@ -12917,7 +12965,7 @@
       <c r="L78" s="22"/>
       <c r="M78" s="21"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="15">
       <c r="A79" s="5">
         <v>65</v>
       </c>
@@ -12944,7 +12992,7 @@
       <c r="L79" s="37"/>
       <c r="M79" s="37"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="15">
       <c r="A80" s="5">
         <v>66</v>
       </c>
@@ -12971,7 +13019,7 @@
       <c r="L80" s="37"/>
       <c r="M80" s="37"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="15">
       <c r="A81" s="5">
         <v>67</v>
       </c>
@@ -12998,7 +13046,7 @@
       <c r="L81" s="37"/>
       <c r="M81" s="37"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="15">
       <c r="A82" s="5">
         <v>68</v>
       </c>
@@ -13025,7 +13073,7 @@
       <c r="L82" s="37"/>
       <c r="M82" s="37"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="15">
       <c r="A83" s="5">
         <v>69</v>
       </c>
@@ -13052,7 +13100,7 @@
       <c r="L83" s="71"/>
       <c r="M83" s="37"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="15">
       <c r="A84" s="5">
         <v>70</v>
       </c>
@@ -13079,7 +13127,7 @@
       <c r="L84" s="71"/>
       <c r="M84" s="37"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="15">
       <c r="A85" s="5">
         <v>71</v>
       </c>
@@ -13105,7 +13153,7 @@
       <c r="L85" s="71"/>
       <c r="M85" s="37"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="15">
       <c r="A86" s="5">
         <v>72</v>
       </c>
@@ -13132,7 +13180,7 @@
       <c r="L86" s="71"/>
       <c r="M86" s="37"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="15">
       <c r="A87" s="5">
         <v>73</v>
       </c>
@@ -13159,7 +13207,7 @@
       <c r="L87" s="37"/>
       <c r="M87" s="37"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="15">
       <c r="A88" s="5">
         <v>74</v>
       </c>
@@ -13186,7 +13234,7 @@
       <c r="L88" s="37"/>
       <c r="M88" s="37"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="15">
       <c r="A89" s="5">
         <v>75</v>
       </c>
@@ -13215,7 +13263,7 @@
       <c r="L89" s="37"/>
       <c r="M89" s="37"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="15">
       <c r="A90" s="5">
         <v>76</v>
       </c>
@@ -13244,7 +13292,7 @@
       <c r="L90" s="71"/>
       <c r="M90" s="37"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="15">
       <c r="A91" s="5">
         <v>77</v>
       </c>
@@ -13273,7 +13321,7 @@
       <c r="L91" s="71"/>
       <c r="M91" s="37"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="15">
       <c r="A92" s="5">
         <v>78</v>
       </c>
@@ -13302,7 +13350,7 @@
       <c r="L92" s="71"/>
       <c r="M92" s="37"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="15">
       <c r="A93" s="5">
         <v>79</v>
       </c>
@@ -13331,7 +13379,7 @@
       <c r="L93" s="71"/>
       <c r="M93" s="37"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="15">
       <c r="A94" s="5">
         <v>80</v>
       </c>
@@ -13358,7 +13406,7 @@
       <c r="L94" s="71"/>
       <c r="M94" s="37"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="15">
       <c r="A95" s="5">
         <v>81</v>
       </c>
@@ -13385,7 +13433,7 @@
       <c r="L95" s="71"/>
       <c r="M95" s="37"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="15">
       <c r="A96" s="5">
         <v>82</v>
       </c>
@@ -13412,7 +13460,7 @@
       <c r="L96" s="71"/>
       <c r="M96" s="37"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="15">
       <c r="A97" s="5">
         <v>83</v>
       </c>
@@ -13441,7 +13489,7 @@
       <c r="L97" s="71"/>
       <c r="M97" s="37"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="15">
       <c r="A98" s="5">
         <v>84</v>
       </c>
@@ -13470,7 +13518,7 @@
       <c r="L98" s="71"/>
       <c r="M98" s="37"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="15">
       <c r="A99" s="5">
         <v>85</v>
       </c>
@@ -13501,7 +13549,7 @@
       <c r="L99" s="37"/>
       <c r="M99" s="37"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="15">
       <c r="A100" s="5">
         <v>86</v>
       </c>
@@ -13534,7 +13582,7 @@
       <c r="L100" s="37"/>
       <c r="M100" s="37"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="15">
       <c r="A101" s="5">
         <v>87</v>
       </c>
@@ -13563,7 +13611,7 @@
       </c>
       <c r="M101" s="37"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="15">
       <c r="A102" s="5">
         <v>88</v>
       </c>
@@ -13590,7 +13638,7 @@
       <c r="L102" s="37"/>
       <c r="M102" s="37"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="15">
       <c r="A103" s="5">
         <v>89</v>
       </c>
@@ -13617,7 +13665,7 @@
       <c r="L103" s="37"/>
       <c r="M103" s="37"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="15">
       <c r="A104" s="5">
         <v>90</v>
       </c>
@@ -13644,7 +13692,7 @@
       <c r="L104" s="37"/>
       <c r="M104" s="37"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="15">
       <c r="A105" s="5">
         <v>91</v>
       </c>
@@ -13663,7 +13711,7 @@
       <c r="L105" s="21"/>
       <c r="M105" s="21"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="15">
       <c r="A106" s="5">
         <v>92</v>
       </c>
@@ -13681,7 +13729,7 @@
       <c r="L106" s="21"/>
       <c r="M106" s="21"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="15">
       <c r="A107" s="5">
         <v>93</v>
       </c>
@@ -13700,7 +13748,7 @@
       <c r="L107" s="21"/>
       <c r="M107" s="21"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="15">
       <c r="A108" s="5">
         <v>94</v>
       </c>
@@ -13718,7 +13766,7 @@
       <c r="L108" s="21"/>
       <c r="M108" s="21"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="15">
       <c r="A109" s="5">
         <v>95</v>
       </c>
@@ -13737,7 +13785,7 @@
       <c r="L109" s="21"/>
       <c r="M109" s="21"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="15">
       <c r="A110" s="5">
         <v>96</v>
       </c>
@@ -13756,7 +13804,7 @@
       <c r="L110" s="22"/>
       <c r="M110" s="21"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="15">
       <c r="A111" s="5">
         <v>97</v>
       </c>
@@ -13775,7 +13823,7 @@
       <c r="L111" s="21"/>
       <c r="M111" s="21"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="15">
       <c r="A112" s="5">
         <v>98</v>
       </c>
@@ -13794,7 +13842,7 @@
       <c r="L112" s="37"/>
       <c r="M112" s="37"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="15">
       <c r="A113" s="5">
         <v>99</v>
       </c>
@@ -13813,7 +13861,7 @@
       <c r="L113" s="37"/>
       <c r="M113" s="37"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="15">
       <c r="A114" s="5">
         <v>100</v>
       </c>
@@ -13832,7 +13880,7 @@
       <c r="L114" s="37"/>
       <c r="M114" s="37"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="15">
       <c r="A115" s="5">
         <v>101</v>
       </c>
@@ -13851,7 +13899,7 @@
       <c r="L115" s="21"/>
       <c r="M115" s="21"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="15">
       <c r="A116" s="5">
         <v>102</v>
       </c>
@@ -13870,7 +13918,7 @@
       <c r="L116" s="21"/>
       <c r="M116" s="21"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="15">
       <c r="A117" s="5">
         <v>103</v>
       </c>
@@ -13889,7 +13937,7 @@
       <c r="L117" s="21"/>
       <c r="M117" s="21"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="15">
       <c r="A118" s="5">
         <v>104</v>
       </c>
@@ -13908,7 +13956,7 @@
       <c r="L118" s="21"/>
       <c r="M118" s="21"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="15">
       <c r="A119" s="5">
         <v>105</v>
       </c>
@@ -13927,7 +13975,7 @@
       <c r="L119" s="22"/>
       <c r="M119" s="22"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="15">
       <c r="A120" s="5">
         <v>106</v>
       </c>
@@ -13946,7 +13994,7 @@
       <c r="L120" s="21"/>
       <c r="M120" s="21"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="15">
       <c r="A121" s="5">
         <v>107</v>
       </c>
@@ -13965,7 +14013,7 @@
       <c r="L121" s="19"/>
       <c r="M121" s="19"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="15">
       <c r="A122" s="5">
         <v>108</v>
       </c>
@@ -13984,7 +14032,7 @@
       <c r="L122" s="22"/>
       <c r="M122" s="21"/>
     </row>
-    <row r="123" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="16.5" customHeight="1">
       <c r="A123" s="5">
         <v>109</v>
       </c>
@@ -14003,7 +14051,7 @@
       <c r="L123" s="22"/>
       <c r="M123" s="21"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="15">
       <c r="A124" s="5">
         <v>110</v>
       </c>
@@ -14022,7 +14070,7 @@
       <c r="L124" s="22"/>
       <c r="M124" s="21"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="15">
       <c r="A125" s="5">
         <v>111</v>
       </c>
@@ -14041,7 +14089,7 @@
       <c r="L125" s="21"/>
       <c r="M125" s="21"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="15">
       <c r="A126" s="5">
         <v>112</v>
       </c>
@@ -14059,7 +14107,7 @@
       <c r="L126" s="21"/>
       <c r="M126" s="21"/>
     </row>
-    <row r="127" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" s="35" customFormat="1" ht="15">
       <c r="A127" s="5">
         <v>113</v>
       </c>
@@ -14078,7 +14126,7 @@
       <c r="L127" s="33"/>
       <c r="M127" s="33"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="15">
       <c r="A128" s="5">
         <v>114</v>
       </c>
@@ -14097,7 +14145,7 @@
       <c r="L128" s="21"/>
       <c r="M128" s="21"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="15">
       <c r="A129" s="5">
         <v>115</v>
       </c>
@@ -14116,7 +14164,7 @@
       <c r="L129" s="21"/>
       <c r="M129" s="21"/>
     </row>
-    <row r="130" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" s="36" customFormat="1" ht="15">
       <c r="A130" s="5">
         <v>116</v>
       </c>
@@ -14135,7 +14183,7 @@
       <c r="L130" s="19"/>
       <c r="M130" s="19"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" ht="15">
       <c r="A131" s="5">
         <v>117</v>
       </c>
@@ -14154,7 +14202,7 @@
       <c r="L131" s="21"/>
       <c r="M131" s="21"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="15">
       <c r="A132" s="5">
         <v>118</v>
       </c>
@@ -14173,7 +14221,7 @@
       <c r="L132" s="21"/>
       <c r="M132" s="21"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="15">
       <c r="A133" s="5">
         <v>119</v>
       </c>
@@ -14192,7 +14240,7 @@
       <c r="L133" s="21"/>
       <c r="M133" s="21"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="15">
       <c r="A134" s="5">
         <v>120</v>
       </c>
@@ -14211,7 +14259,7 @@
       <c r="L134" s="21"/>
       <c r="M134" s="21"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="15">
       <c r="A135" s="5">
         <v>121</v>
       </c>
@@ -14230,7 +14278,7 @@
       <c r="L135" s="21"/>
       <c r="M135" s="21"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="15">
       <c r="A136" s="5">
         <v>122</v>
       </c>
@@ -14249,7 +14297,7 @@
       <c r="L136" s="21"/>
       <c r="M136" s="21"/>
     </row>
-    <row r="137" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" s="35" customFormat="1" ht="15">
       <c r="A137" s="5">
         <v>123</v>
       </c>
@@ -14268,7 +14316,7 @@
       <c r="L137" s="33"/>
       <c r="M137" s="33"/>
     </row>
-    <row r="138" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" s="35" customFormat="1" ht="15">
       <c r="A138" s="5">
         <v>124</v>
       </c>
@@ -14287,7 +14335,7 @@
       <c r="L138" s="33"/>
       <c r="M138" s="33"/>
     </row>
-    <row r="139" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" s="35" customFormat="1" ht="15">
       <c r="A139" s="5">
         <v>125</v>
       </c>
@@ -14306,7 +14354,7 @@
       <c r="L139" s="33"/>
       <c r="M139" s="33"/>
     </row>
-    <row r="140" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" s="35" customFormat="1" ht="15">
       <c r="A140" s="5">
         <v>126</v>
       </c>
@@ -14325,7 +14373,7 @@
       <c r="L140" s="33"/>
       <c r="M140" s="33"/>
     </row>
-    <row r="141" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" s="35" customFormat="1">
       <c r="A141" s="33"/>
       <c r="B141" s="34"/>
       <c r="C141" s="34"/>
@@ -14340,7 +14388,7 @@
       <c r="L141" s="33"/>
       <c r="M141" s="33"/>
     </row>
-    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="15" customHeight="1">
       <c r="A142" s="19"/>
       <c r="B142" s="26"/>
       <c r="C142" s="26"/>
@@ -14355,7 +14403,7 @@
       <c r="L142" s="19"/>
       <c r="M142" s="19"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13">
       <c r="L144" s="7"/>
     </row>
   </sheetData>
@@ -14391,6 +14439,11 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14398,14 +14451,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="38" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="110" customWidth="1"/>
@@ -14431,14 +14484,14 @@
     <col min="22" max="16384" width="8.7109375" style="110"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="38" customFormat="1">
       <c r="B2" s="38" t="s">
         <v>87</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
       <c r="E2" s="61" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>81</v>
@@ -14471,7 +14524,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="38" t="s">
         <v>526</v>
       </c>
@@ -14503,7 +14556,7 @@
       <c r="R3" s="178"/>
       <c r="S3" s="178"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="B4" s="219" t="s">
         <v>501</v>
       </c>
@@ -14532,7 +14585,7 @@
       <c r="R4" s="178"/>
       <c r="S4" s="178"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="B5" s="219" t="s">
         <v>502</v>
       </c>
@@ -14561,7 +14614,7 @@
       <c r="R5" s="178"/>
       <c r="S5" s="178"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="B6" s="219" t="s">
         <v>504</v>
       </c>
@@ -14590,7 +14643,7 @@
       <c r="R6" s="178"/>
       <c r="S6" s="178"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="B7" s="232" t="s">
         <v>506</v>
       </c>
@@ -14619,7 +14672,7 @@
       <c r="R7" s="178"/>
       <c r="S7" s="178"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="B8" s="232" t="s">
         <v>527</v>
       </c>
@@ -14648,7 +14701,7 @@
       <c r="R8" s="178"/>
       <c r="S8" s="178"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="B9" s="232" t="s">
         <v>508</v>
       </c>
@@ -14677,7 +14730,7 @@
       <c r="R9" s="178"/>
       <c r="S9" s="178"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="B10" s="219" t="s">
         <v>328</v>
       </c>
@@ -14710,7 +14763,7 @@
       <c r="R10" s="178"/>
       <c r="S10" s="178"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="B11" s="179" t="s">
         <v>511</v>
       </c>
@@ -14739,7 +14792,7 @@
       <c r="R11" s="178"/>
       <c r="S11" s="178"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="B12" s="219" t="s">
         <v>512</v>
       </c>
@@ -14768,7 +14821,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="B13" s="179" t="s">
         <v>513</v>
       </c>
@@ -14797,7 +14850,7 @@
       <c r="R13" s="178"/>
       <c r="S13" s="178"/>
     </row>
-    <row r="14" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="38" customFormat="1">
       <c r="B14" s="178" t="s">
         <v>514</v>
       </c>
@@ -14827,7 +14880,7 @@
       <c r="S14" s="178"/>
       <c r="T14" s="46"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="B15" s="178" t="s">
         <v>515</v>
       </c>
@@ -14856,7 +14909,7 @@
       <c r="R15" s="184"/>
       <c r="S15" s="181"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="B16" s="219" t="s">
         <v>516</v>
       </c>
@@ -14885,7 +14938,7 @@
       <c r="R16" s="179"/>
       <c r="S16" s="178"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20">
       <c r="B17" s="178" t="s">
         <v>517</v>
       </c>
@@ -14915,7 +14968,7 @@
       <c r="S17" s="178"/>
       <c r="T17" s="110"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20">
       <c r="B18" s="179" t="s">
         <v>518</v>
       </c>
@@ -14945,7 +14998,7 @@
       <c r="S18" s="178"/>
       <c r="T18" s="110"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20">
       <c r="B19" s="219" t="s">
         <v>519</v>
       </c>
@@ -14975,7 +15028,7 @@
       <c r="S19" s="178"/>
       <c r="T19" s="110"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20">
       <c r="B20" s="184" t="s">
         <v>528</v>
       </c>
@@ -15005,7 +15058,7 @@
       <c r="S20" s="178"/>
       <c r="T20" s="110"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20">
       <c r="B21" s="183" t="s">
         <v>521</v>
       </c>
@@ -15035,7 +15088,7 @@
       <c r="S21" s="178"/>
       <c r="T21" s="110"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20">
       <c r="B22" s="184" t="s">
         <v>338</v>
       </c>
@@ -15065,7 +15118,7 @@
       <c r="S22" s="178"/>
       <c r="T22" s="110"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20">
       <c r="B23" s="219" t="s">
         <v>522</v>
       </c>
@@ -15095,9 +15148,9 @@
       <c r="S23" s="178"/>
       <c r="T23" s="110"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20">
       <c r="B24" s="216" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C24" s="185"/>
       <c r="D24" s="181">
@@ -15125,7 +15178,7 @@
       <c r="S24" s="178"/>
       <c r="T24" s="110"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20">
       <c r="B25" s="178" t="s">
         <v>529</v>
       </c>
@@ -15155,7 +15208,7 @@
       <c r="S25" s="178"/>
       <c r="T25" s="110"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20">
       <c r="B26" s="179" t="s">
         <v>530</v>
       </c>
@@ -15185,7 +15238,7 @@
       <c r="S26" s="178"/>
       <c r="T26" s="110"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20">
       <c r="B27" s="178" t="s">
         <v>523</v>
       </c>
@@ -15215,7 +15268,7 @@
       <c r="S27" s="178"/>
       <c r="T27" s="110"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20">
       <c r="B28" s="178" t="s">
         <v>341</v>
       </c>
@@ -15245,7 +15298,7 @@
       </c>
       <c r="T28" s="110"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20">
       <c r="B29" s="178" t="s">
         <v>524</v>
       </c>
@@ -15275,7 +15328,7 @@
       </c>
       <c r="T29" s="110"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20">
       <c r="B30" s="178" t="s">
         <v>434</v>
       </c>
@@ -15305,7 +15358,7 @@
       </c>
       <c r="T30" s="110"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20">
       <c r="B31" s="184" t="s">
         <v>525</v>
       </c>
@@ -15335,7 +15388,7 @@
       </c>
       <c r="T31" s="110"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20">
       <c r="B32" s="178" t="s">
         <v>330</v>
       </c>
@@ -15361,7 +15414,7 @@
       <c r="S32" s="178"/>
       <c r="T32" s="110"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="B33" s="178"/>
       <c r="C33" s="181"/>
       <c r="D33" s="181"/>
@@ -15382,7 +15435,7 @@
       <c r="S33" s="178"/>
       <c r="T33" s="110"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="B34" s="178"/>
       <c r="C34" s="181"/>
       <c r="D34" s="181"/>
@@ -15403,7 +15456,7 @@
       <c r="S34" s="178"/>
       <c r="T34" s="110"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="B35" s="178"/>
       <c r="C35" s="181"/>
       <c r="D35" s="181">
@@ -15427,7 +15480,7 @@
       <c r="S35" s="178"/>
       <c r="T35" s="110"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="B36" s="183" t="s">
         <v>531</v>
       </c>
@@ -15468,7 +15521,7 @@
       </c>
       <c r="T36" s="110"/>
     </row>
-    <row r="37" spans="1:20" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="119" customFormat="1">
       <c r="A37" s="116"/>
       <c r="B37" s="117"/>
       <c r="C37" s="118"/>
@@ -15482,7 +15535,7 @@
       <c r="Q37" s="120"/>
       <c r="T37" s="120"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38" s="38" t="s">
         <v>236</v>
       </c>
@@ -15497,7 +15550,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="218" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F38" s="220" t="s">
         <v>240</v>
@@ -15508,7 +15561,7 @@
       <c r="I38" s="107"/>
       <c r="L38" s="107"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="B39" s="107" t="s">
         <v>237</v>
       </c>
@@ -15529,7 +15582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="B40" s="234" t="s">
         <v>332</v>
       </c>
@@ -15541,7 +15594,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="218" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F40" s="221" t="s">
         <v>398</v>
@@ -15552,7 +15605,7 @@
       <c r="I40" s="107"/>
       <c r="L40" s="107"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="B41" s="159" t="s">
         <v>355</v>
       </c>
@@ -15572,15 +15625,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="B42" s="225" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D42" s="108">
         <v>0.5</v>
       </c>
       <c r="F42" s="225" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G42" s="110">
         <v>0.5</v>
@@ -15589,7 +15642,7 @@
       <c r="L42" s="159"/>
       <c r="O42" s="159"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="B43" s="235" t="s">
         <v>356</v>
       </c>
@@ -15601,7 +15654,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="218" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="L43" s="178" t="s">
         <v>497</v>
@@ -15611,7 +15664,7 @@
       </c>
       <c r="O43" s="160"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20">
       <c r="B44" s="145" t="s">
         <v>326</v>
       </c>
@@ -15623,7 +15676,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="218" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F44" s="165" t="s">
         <v>399</v>
@@ -15639,7 +15692,7 @@
       </c>
       <c r="L44" s="107"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="B45" s="168" t="s">
         <v>401</v>
       </c>
@@ -15651,7 +15704,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="218" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="I45" s="168" t="s">
         <v>398</v>
@@ -15662,7 +15715,7 @@
       <c r="L45" s="159"/>
       <c r="O45" s="160"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="B46" s="145" t="s">
         <v>327</v>
       </c>
@@ -15681,7 +15734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="B47" s="107" t="s">
         <v>238</v>
       </c>
@@ -15707,7 +15760,7 @@
       </c>
       <c r="R47" s="160"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="B48" s="159" t="s">
         <v>357</v>
       </c>
@@ -15727,7 +15780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="B49" s="159" t="s">
         <v>367</v>
       </c>
@@ -15739,7 +15792,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="218" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="I49" s="107"/>
       <c r="O49" s="159" t="s">
@@ -15755,7 +15808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20">
       <c r="B50" s="160" t="s">
         <v>368</v>
       </c>
@@ -15776,7 +15829,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="B51" s="107" t="s">
         <v>241</v>
       </c>
@@ -15796,7 +15849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="B52" s="107"/>
       <c r="D52" s="108">
         <f t="shared" si="2"/>
@@ -15805,7 +15858,7 @@
       <c r="I52" s="107"/>
       <c r="L52" s="107"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="B53" s="107" t="s">
         <v>258</v>
       </c>
@@ -15841,7 +15894,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="119" customFormat="1">
       <c r="A54" s="116"/>
       <c r="B54" s="117"/>
       <c r="C54" s="118"/>
@@ -15855,7 +15908,7 @@
       <c r="Q54" s="120"/>
       <c r="T54" s="120"/>
     </row>
-    <row r="55" spans="1:20" s="105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="105" customFormat="1">
       <c r="A55" s="38" t="s">
         <v>140</v>
       </c>
@@ -15884,7 +15937,7 @@
       <c r="Q55" s="113"/>
       <c r="T55" s="113"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56" s="110"/>
       <c r="B56" s="105" t="s">
         <v>233</v>
@@ -15905,7 +15958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="A57" s="110"/>
       <c r="B57" s="236" t="s">
         <v>232</v>
@@ -15918,7 +15971,7 @@
         <v>3.5</v>
       </c>
       <c r="E57" s="218" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F57" s="220" t="s">
         <v>239</v>
@@ -15933,7 +15986,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="A58" s="110"/>
       <c r="B58" s="102" t="s">
         <v>259</v>
@@ -15954,7 +16007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="A59" s="110"/>
       <c r="B59" s="146" t="s">
         <v>328</v>
@@ -15967,7 +16020,7 @@
         <v>2.5</v>
       </c>
       <c r="E59" s="218" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F59" s="107"/>
       <c r="G59" s="112"/>
@@ -15978,7 +16031,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="B60" s="158" t="s">
         <v>345</v>
       </c>
@@ -16005,7 +16058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" s="110"/>
       <c r="B61" s="162" t="s">
         <v>364</v>
@@ -16032,7 +16085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="B62" s="107" t="s">
         <v>242</v>
       </c>
@@ -16051,7 +16104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="B63" s="159" t="s">
         <v>370</v>
       </c>
@@ -16071,7 +16124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="B64" s="148" t="s">
         <v>346</v>
       </c>
@@ -16088,7 +16141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20">
       <c r="B65" s="110" t="s">
         <v>220</v>
       </c>
@@ -16100,7 +16153,7 @@
         <v>4</v>
       </c>
       <c r="E65" s="218" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="I65" s="111"/>
       <c r="J65" s="108"/>
@@ -16119,14 +16172,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20">
       <c r="D66" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I66" s="115"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20">
       <c r="B67" s="108" t="s">
         <v>145</v>
       </c>
@@ -16160,7 +16213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:20" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" s="119" customFormat="1">
       <c r="A68" s="116"/>
       <c r="C68" s="118"/>
       <c r="D68" s="118"/>
@@ -16172,7 +16225,7 @@
       <c r="Q68" s="120"/>
       <c r="T68" s="120"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20">
       <c r="A69" s="38" t="s">
         <v>86</v>
       </c>
@@ -16188,7 +16241,7 @@
       </c>
       <c r="I69" s="111"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="B70" s="223" t="s">
         <v>234</v>
       </c>
@@ -16207,7 +16260,7 @@
       </c>
       <c r="I70" s="111"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20">
       <c r="B71" s="224" t="s">
         <v>336</v>
       </c>
@@ -16226,7 +16279,7 @@
       </c>
       <c r="I71" s="111"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20">
       <c r="B72" s="224" t="s">
         <v>337</v>
       </c>
@@ -16244,7 +16297,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20">
       <c r="B73" s="235" t="s">
         <v>362</v>
       </c>
@@ -16262,7 +16315,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20">
       <c r="B74" s="235" t="s">
         <v>363</v>
       </c>
@@ -16280,7 +16333,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20">
       <c r="B75" s="220" t="s">
         <v>142</v>
       </c>
@@ -16304,7 +16357,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="14" customHeight="1">
       <c r="A76" s="110"/>
       <c r="B76" s="157" t="s">
         <v>344</v>
@@ -16320,7 +16373,7 @@
       <c r="I76" s="159"/>
       <c r="J76" s="112"/>
       <c r="L76" s="41" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="M76" s="110">
         <v>2</v>
@@ -16332,7 +16385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20">
       <c r="B77" s="148" t="s">
         <v>348</v>
       </c>
@@ -16344,7 +16397,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="218" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F77" s="224" t="s">
         <v>348</v>
@@ -16353,7 +16406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20">
       <c r="B78" s="148" t="s">
         <v>349</v>
       </c>
@@ -16377,7 +16430,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20">
       <c r="B79" s="224" t="s">
         <v>347</v>
       </c>
@@ -16395,7 +16448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20">
       <c r="A81" s="110"/>
       <c r="B81" s="163" t="s">
         <v>366</v>
@@ -16416,7 +16469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="16" customHeight="1">
       <c r="A82" s="110"/>
       <c r="B82" s="163" t="s">
         <v>365</v>
@@ -16432,24 +16485,24 @@
       <c r="I82" s="107"/>
       <c r="J82" s="112"/>
       <c r="L82" s="41" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="M82" s="110">
         <v>1</v>
       </c>
       <c r="O82" s="41" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="P82" s="110">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20">
       <c r="B83" s="229" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="B84" s="148" t="s">
         <v>329</v>
       </c>
@@ -16473,7 +16526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20">
       <c r="B85" s="107" t="s">
         <v>215</v>
       </c>
@@ -16493,13 +16546,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20">
       <c r="D90" s="108">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20">
       <c r="B91" s="111"/>
       <c r="C91" s="149"/>
       <c r="D91" s="108">
@@ -16507,7 +16560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20">
       <c r="A92" s="110"/>
       <c r="B92" s="108" t="s">
         <v>145</v>
@@ -16541,7 +16594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" s="119" customFormat="1">
       <c r="C93" s="118"/>
       <c r="D93" s="118"/>
       <c r="E93" s="118"/>
@@ -16551,7 +16604,7 @@
       <c r="Q93" s="120"/>
       <c r="T93" s="120"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20">
       <c r="A94" s="38" t="s">
         <v>141</v>
       </c>
@@ -16572,7 +16625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20">
       <c r="B95" s="224" t="s">
         <v>343</v>
       </c>
@@ -16590,9 +16643,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20">
       <c r="B96" s="214" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C96" s="156">
         <v>5</v>
@@ -16602,20 +16655,20 @@
         <v>5</v>
       </c>
       <c r="F96" s="214" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G96" s="108">
         <v>2</v>
       </c>
       <c r="I96" s="214" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="J96" s="110">
         <v>3</v>
       </c>
       <c r="T96" s="110"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20">
       <c r="B97" s="237" t="s">
         <v>331</v>
       </c>
@@ -16643,9 +16696,9 @@
       </c>
       <c r="T97" s="110"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20">
       <c r="B98" s="238" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C98" s="149"/>
       <c r="I98" s="165"/>
@@ -16653,7 +16706,7 @@
       <c r="L98" s="165"/>
       <c r="T98" s="110"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20">
       <c r="B99" s="164" t="s">
         <v>375</v>
       </c>
@@ -16674,7 +16727,7 @@
       </c>
       <c r="T99" s="110"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20">
       <c r="B100" s="148" t="s">
         <v>333</v>
       </c>
@@ -16693,7 +16746,7 @@
       </c>
       <c r="T100" s="110"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20">
       <c r="B101" s="148" t="s">
         <v>334</v>
       </c>
@@ -16712,7 +16765,7 @@
       </c>
       <c r="T101" s="110"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20">
       <c r="B102" s="148" t="s">
         <v>340</v>
       </c>
@@ -16731,7 +16784,7 @@
       </c>
       <c r="T102" s="110"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20">
       <c r="B103" s="148" t="s">
         <v>339</v>
       </c>
@@ -16750,7 +16803,7 @@
       </c>
       <c r="T103" s="110"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20">
       <c r="B104" s="148" t="s">
         <v>341</v>
       </c>
@@ -16763,16 +16816,16 @@
       </c>
       <c r="L104" s="148"/>
       <c r="O104" s="229" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="P104" s="110">
         <v>2</v>
       </c>
       <c r="T104" s="110"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20">
       <c r="B105" s="226" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D105" s="108">
         <v>2</v>
@@ -16781,7 +16834,7 @@
       <c r="O105" s="148"/>
       <c r="T105" s="110"/>
     </row>
-    <row r="106" spans="1:20" ht="51" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="51">
       <c r="A106" s="110"/>
       <c r="B106" s="144" t="s">
         <v>316</v>
@@ -16803,7 +16856,7 @@
       </c>
       <c r="T106" s="110"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20">
       <c r="B107" s="147" t="s">
         <v>342</v>
       </c>
@@ -16830,7 +16883,7 @@
       </c>
       <c r="T107" s="110"/>
     </row>
-    <row r="108" spans="1:20" ht="34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" ht="34">
       <c r="B108" s="106" t="s">
         <v>245</v>
       </c>
@@ -16849,7 +16902,7 @@
       </c>
       <c r="T108" s="110"/>
     </row>
-    <row r="109" spans="1:20" ht="34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" ht="34">
       <c r="B109" s="106" t="s">
         <v>246</v>
       </c>
@@ -16868,9 +16921,9 @@
       </c>
       <c r="T109" s="110"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20">
       <c r="B110" s="228" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C110" s="155"/>
       <c r="D110" s="108">
@@ -16881,7 +16934,7 @@
       <c r="R110" s="106"/>
       <c r="T110" s="110"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20">
       <c r="A111" s="110"/>
       <c r="B111" s="106"/>
       <c r="C111" s="155"/>
@@ -16893,7 +16946,7 @@
       <c r="P111" s="108"/>
       <c r="T111" s="110"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20">
       <c r="B112" s="106"/>
       <c r="C112" s="155"/>
       <c r="D112" s="108">
@@ -16904,7 +16957,7 @@
       <c r="P112" s="108"/>
       <c r="T112" s="110"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20">
       <c r="A113" s="110"/>
       <c r="B113" s="106"/>
       <c r="C113" s="155"/>
@@ -16916,7 +16969,7 @@
       <c r="S113" s="108"/>
       <c r="T113" s="110"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20">
       <c r="D114" s="108">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -16925,7 +16978,7 @@
       <c r="S114" s="108"/>
       <c r="T114" s="110"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20">
       <c r="B115" s="108" t="s">
         <v>145</v>
       </c>
@@ -16958,7 +17011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" customFormat="1" ht="18">
       <c r="F118" t="s">
         <v>424</v>
       </c>
@@ -16975,7 +17028,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="119" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" s="165" customFormat="1">
       <c r="A119" s="38"/>
       <c r="B119" s="165" t="s">
         <v>379</v>
@@ -17004,7 +17057,7 @@
       </c>
       <c r="T119" s="169"/>
     </row>
-    <row r="120" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" s="165" customFormat="1">
       <c r="A120" s="38"/>
       <c r="C120" s="170"/>
       <c r="D120" s="170"/>
@@ -17015,7 +17068,7 @@
       <c r="Q120" s="169"/>
       <c r="T120" s="169"/>
     </row>
-    <row r="121" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" s="165" customFormat="1">
       <c r="A121" s="38"/>
       <c r="C121" s="170"/>
       <c r="D121" s="170"/>
@@ -17025,7 +17078,7 @@
       <c r="Q121" s="169"/>
       <c r="T121" s="169"/>
     </row>
-    <row r="122" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" s="165" customFormat="1">
       <c r="A122" s="38"/>
       <c r="C122" s="170"/>
       <c r="D122" s="170"/>
@@ -17051,7 +17104,7 @@
       </c>
       <c r="T122" s="169"/>
     </row>
-    <row r="123" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" s="165" customFormat="1">
       <c r="A123" s="38"/>
       <c r="C123" s="170"/>
       <c r="D123" s="170"/>
@@ -17070,7 +17123,7 @@
       </c>
       <c r="T123" s="169"/>
     </row>
-    <row r="124" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" s="165" customFormat="1">
       <c r="A124" s="38"/>
       <c r="C124" s="170"/>
       <c r="D124" s="170"/>
@@ -17084,7 +17137,7 @@
       <c r="Q124" s="169"/>
       <c r="T124" s="169"/>
     </row>
-    <row r="125" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" s="165" customFormat="1">
       <c r="A125" s="38"/>
       <c r="C125" s="170"/>
       <c r="D125" s="170"/>
@@ -17098,7 +17151,7 @@
       <c r="Q125" s="169"/>
       <c r="T125" s="169"/>
     </row>
-    <row r="126" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" s="165" customFormat="1">
       <c r="A126" s="38"/>
       <c r="C126" s="170"/>
       <c r="D126" s="170"/>
@@ -17109,7 +17162,7 @@
       <c r="Q126" s="169"/>
       <c r="T126" s="169"/>
     </row>
-    <row r="127" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" s="165" customFormat="1">
       <c r="A127" s="38"/>
       <c r="C127" s="170"/>
       <c r="D127" s="170"/>
@@ -17135,7 +17188,7 @@
       </c>
       <c r="T127" s="169"/>
     </row>
-    <row r="128" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" s="165" customFormat="1">
       <c r="A128" s="38"/>
       <c r="C128" s="170"/>
       <c r="D128" s="170"/>
@@ -17146,7 +17199,7 @@
       <c r="Q128" s="169"/>
       <c r="T128" s="169"/>
     </row>
-    <row r="129" spans="1:20" s="165" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" s="165" customFormat="1" ht="18">
       <c r="A129" s="38"/>
       <c r="C129" s="170"/>
       <c r="D129" s="170"/>
@@ -17172,7 +17225,7 @@
       </c>
       <c r="T129" s="169"/>
     </row>
-    <row r="130" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" s="165" customFormat="1">
       <c r="A130" s="38"/>
       <c r="C130" s="170"/>
       <c r="D130" s="170"/>
@@ -17198,7 +17251,7 @@
       </c>
       <c r="T130" s="169"/>
     </row>
-    <row r="131" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" s="165" customFormat="1">
       <c r="A131" s="38"/>
       <c r="C131" s="170"/>
       <c r="D131" s="170"/>
@@ -17221,7 +17274,7 @@
       <c r="Q131" s="169"/>
       <c r="T131" s="169"/>
     </row>
-    <row r="132" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" s="165" customFormat="1">
       <c r="A132" s="38"/>
       <c r="C132" s="170"/>
       <c r="D132" s="170"/>
@@ -17244,7 +17297,7 @@
       <c r="Q132" s="169"/>
       <c r="T132" s="169"/>
     </row>
-    <row r="133" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" s="165" customFormat="1">
       <c r="A133" s="38"/>
       <c r="C133" s="170"/>
       <c r="D133" s="170"/>
@@ -17261,7 +17314,7 @@
       <c r="Q133" s="169"/>
       <c r="T133" s="169"/>
     </row>
-    <row r="134" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" s="165" customFormat="1">
       <c r="A134" s="38"/>
       <c r="C134" s="170"/>
       <c r="D134" s="170"/>
@@ -17275,7 +17328,7 @@
       <c r="Q134" s="169"/>
       <c r="T134" s="169"/>
     </row>
-    <row r="135" spans="1:20" s="165" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" s="165" customFormat="1">
       <c r="A135" s="38"/>
       <c r="C135" s="170"/>
       <c r="D135" s="170"/>
@@ -17286,7 +17339,7 @@
       <c r="Q135" s="169"/>
       <c r="T135" s="169"/>
     </row>
-    <row r="136" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" customFormat="1" ht="18">
       <c r="F136" s="165" t="s">
         <v>414</v>
       </c>
@@ -17303,12 +17356,12 @@
         <v>414</v>
       </c>
     </row>
-    <row r="137" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" customFormat="1" ht="18">
       <c r="F137" s="165"/>
       <c r="I137" s="165"/>
       <c r="L137" s="165"/>
     </row>
-    <row r="138" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" customFormat="1" ht="18">
       <c r="F138" s="165" t="s">
         <v>139</v>
       </c>
@@ -17319,7 +17372,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" customFormat="1" ht="18">
       <c r="I139" s="165" t="s">
         <v>412</v>
       </c>
@@ -17330,10 +17383,10 @@
         <v>425</v>
       </c>
     </row>
-    <row r="140" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" customFormat="1" ht="18">
       <c r="L140" s="165"/>
     </row>
-    <row r="141" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" customFormat="1" ht="18">
       <c r="F141" s="165" t="s">
         <v>410</v>
       </c>
@@ -17350,8 +17403,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="142" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" customFormat="1" ht="18"/>
+    <row r="143" spans="1:20" customFormat="1" ht="18">
       <c r="F143" s="165" t="s">
         <v>383</v>
       </c>
@@ -17368,7 +17421,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="144" spans="1:20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" customFormat="1" ht="18">
       <c r="F144" s="165" t="s">
         <v>384</v>
       </c>
@@ -17376,7 +17429,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="145" spans="9:9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:9" customFormat="1" ht="18">
       <c r="I145" s="165" t="s">
         <v>408</v>
       </c>
@@ -17430,6 +17483,11 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17444,7 +17502,7 @@
       <selection pane="bottomRight" activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="39"/>
     <col min="2" max="2" width="36.7109375" style="171" customWidth="1"/>
@@ -17459,7 +17517,7 @@
     <col min="11" max="16384" width="8.7109375" style="171"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="39" customFormat="1">
       <c r="B2" s="39" t="s">
         <v>265</v>
       </c>
@@ -17488,7 +17546,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="39" t="s">
         <v>437</v>
       </c>
@@ -17500,7 +17558,7 @@
       </c>
       <c r="J3" s="45"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="171" t="s">
         <v>485</v>
       </c>
@@ -17510,35 +17568,35 @@
       <c r="G4" s="47"/>
       <c r="I4" s="47"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="190" t="s">
         <v>572</v>
       </c>
       <c r="G5" s="47"/>
       <c r="I5" s="47"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="173" t="s">
         <v>445</v>
       </c>
       <c r="H6" s="53"/>
       <c r="I6" s="47"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="174" t="s">
         <v>443</v>
       </c>
       <c r="H7" s="53"/>
       <c r="I7" s="47"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="173" t="s">
         <v>444</v>
       </c>
       <c r="H8" s="53"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="173"/>
       <c r="D9" s="173" t="s">
         <v>449</v>
@@ -17551,7 +17609,7 @@
       </c>
       <c r="I9" s="47"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="C10" s="47"/>
       <c r="D10" s="45" t="s">
         <v>535</v>
@@ -17562,7 +17620,7 @@
       <c r="H10" s="125"/>
       <c r="I10" s="47"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="D11" s="45" t="s">
         <v>446</v>
       </c>
@@ -17572,7 +17630,7 @@
       <c r="H11" s="53"/>
       <c r="I11" s="47"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="173"/>
       <c r="D12" s="171" t="s">
         <v>447</v>
@@ -17580,7 +17638,7 @@
       <c r="G12" s="171"/>
       <c r="I12" s="47"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="173"/>
       <c r="F13" s="171" t="s">
         <v>486</v>
@@ -17591,9 +17649,9 @@
       </c>
       <c r="I13" s="47"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="D14" s="230" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F14" s="231" t="s">
         <v>442</v>
@@ -17601,7 +17659,7 @@
       <c r="G14" s="171"/>
       <c r="I14" s="47"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="D15" s="173"/>
       <c r="F15" s="171" t="s">
         <v>451</v>
@@ -17609,7 +17667,7 @@
       <c r="G15" s="175"/>
       <c r="I15" s="47"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="G16" s="171"/>
       <c r="H16" s="173" t="s">
         <v>487</v>
@@ -17618,20 +17676,20 @@
         <v>440</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="H17" s="171" t="s">
         <v>452</v>
       </c>
       <c r="I17" s="47"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="B18" s="173"/>
       <c r="H18" s="171" t="s">
         <v>453</v>
       </c>
       <c r="I18" s="47"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="B19" s="173"/>
       <c r="D19" s="173"/>
       <c r="H19" s="171" t="s">
@@ -17639,7 +17697,7 @@
       </c>
       <c r="I19" s="47"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="B20" s="173"/>
       <c r="D20" s="173"/>
       <c r="H20" s="171" t="s">
@@ -17647,7 +17705,7 @@
       </c>
       <c r="I20" s="47"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="B21" s="173"/>
       <c r="D21" s="173"/>
       <c r="H21" s="53"/>
@@ -17656,14 +17714,14 @@
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="18" customHeight="1">
       <c r="B22" s="53"/>
       <c r="I22" s="47"/>
       <c r="J22" s="171" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="B23" s="173" t="s">
         <v>539</v>
       </c>
@@ -17673,7 +17731,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="B24" s="173" t="s">
         <v>135</v>
       </c>
@@ -17683,11 +17741,11 @@
       <c r="H24" s="53"/>
       <c r="I24" s="47"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="B25" s="53"/>
       <c r="I25" s="47"/>
     </row>
-    <row r="26" spans="1:10" s="177" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="177" customFormat="1">
       <c r="A26" s="126"/>
       <c r="B26" s="129"/>
       <c r="C26" s="176"/>
@@ -17696,7 +17754,7 @@
       <c r="G26" s="176"/>
       <c r="I26" s="128"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="39" t="s">
         <v>458</v>
       </c>
@@ -17709,7 +17767,7 @@
       <c r="H27" s="53"/>
       <c r="I27" s="47"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="B28" s="171" t="s">
         <v>536</v>
       </c>
@@ -17721,7 +17779,7 @@
       </c>
       <c r="I28" s="47"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="B29" s="174" t="s">
         <v>537</v>
       </c>
@@ -17735,7 +17793,7 @@
       </c>
       <c r="I29" s="47"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="D30" s="171" t="s">
         <v>492</v>
       </c>
@@ -17747,7 +17805,7 @@
       </c>
       <c r="I30" s="47"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="D31" s="171" t="s">
         <v>491</v>
       </c>
@@ -17759,7 +17817,7 @@
       </c>
       <c r="I31" s="47"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="B32" s="174"/>
       <c r="C32" s="49"/>
       <c r="F32" s="171" t="s">
@@ -17774,7 +17832,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="H33" s="171" t="s">
         <v>452</v>
       </c>
@@ -17782,14 +17840,14 @@
         <v>466</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="177" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="177" customFormat="1">
       <c r="A35" s="126"/>
       <c r="C35" s="176"/>
       <c r="E35" s="176"/>
       <c r="G35" s="176"/>
       <c r="I35" s="176"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="39" t="s">
         <v>467</v>
       </c>
@@ -17808,7 +17866,7 @@
       </c>
       <c r="I36" s="47"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="D37" s="171" t="s">
         <v>447</v>
       </c>
@@ -17821,7 +17879,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="C38" s="47"/>
       <c r="G38" s="47"/>
       <c r="H38" s="171" t="s">
@@ -17832,7 +17890,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="H39" s="171" t="s">
         <v>472</v>
       </c>
@@ -17841,17 +17899,17 @@
         <v>563</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="B40" s="171" t="s">
         <v>540</v>
       </c>
       <c r="F40" s="43"/>
       <c r="H40" s="43"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="H41" s="43"/>
     </row>
-    <row r="42" spans="1:11" s="177" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="177" customFormat="1">
       <c r="A42" s="126"/>
       <c r="B42" s="127"/>
       <c r="C42" s="176"/>
@@ -17859,7 +17917,7 @@
       <c r="G42" s="176"/>
       <c r="I42" s="128"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="39" t="s">
         <v>473</v>
       </c>
@@ -17868,7 +17926,7 @@
       </c>
       <c r="I43" s="47"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="B44" s="171" t="s">
         <v>475</v>
       </c>
@@ -17884,13 +17942,13 @@
       </c>
       <c r="I44" s="47"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="D45" s="171" t="s">
         <v>270</v>
       </c>
       <c r="I45" s="47"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="B46" s="43"/>
       <c r="H46" s="171" t="s">
         <v>495</v>
@@ -17900,21 +17958,21 @@
       </c>
       <c r="K46" s="47"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="I47" s="47"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="B48" s="43"/>
       <c r="D48" s="43"/>
       <c r="H48" s="53"/>
       <c r="I48" s="47"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="B49" s="43"/>
       <c r="D49" s="43"/>
       <c r="I49" s="47"/>
     </row>
-    <row r="50" spans="1:10" s="177" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="177" customFormat="1">
       <c r="A50" s="126"/>
       <c r="C50" s="176"/>
       <c r="E50" s="176"/>
@@ -17922,7 +17980,7 @@
       <c r="H50" s="129"/>
       <c r="I50" s="176"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="39" t="s">
         <v>478</v>
       </c>
@@ -17930,7 +17988,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="B52" s="171" t="s">
         <v>480</v>
       </c>
@@ -17944,31 +18002,31 @@
       <c r="G52" s="47"/>
       <c r="I52" s="47"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="G53" s="47"/>
       <c r="I53" s="47"/>
       <c r="J53" s="171" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="G54" s="47"/>
       <c r="I54" s="47"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="G55" s="47"/>
       <c r="I55" s="47"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="E56" s="47"/>
       <c r="G56" s="47"/>
       <c r="I56" s="47"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="F57" s="43"/>
       <c r="I57" s="47"/>
     </row>
-    <row r="58" spans="1:10" s="177" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="177" customFormat="1">
       <c r="A58" s="126"/>
       <c r="C58" s="176"/>
       <c r="E58" s="176"/>
@@ -17976,7 +18034,7 @@
       <c r="G58" s="176"/>
       <c r="I58" s="128"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="39" t="s">
         <v>481</v>
       </c>
@@ -17990,7 +18048,7 @@
       </c>
       <c r="I59" s="47"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="B60" s="171" t="s">
         <v>274</v>
       </c>
@@ -17999,7 +18057,7 @@
       <c r="G60" s="47"/>
       <c r="I60" s="47"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="B61" s="174" t="s">
         <v>443</v>
       </c>
@@ -18012,7 +18070,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="D62" s="171" t="s">
         <v>533</v>
       </c>
@@ -18025,7 +18083,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="B63" s="174"/>
       <c r="E63" s="47"/>
       <c r="F63" s="171" t="s">
@@ -18037,13 +18095,13 @@
         <v>440</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="D64" s="43"/>
       <c r="H64" s="171" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:10">
       <c r="J65" s="171" t="s">
         <v>484</v>
       </c>
@@ -18077,6 +18135,11 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18091,7 +18154,7 @@
       <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="79"/>
     <col min="2" max="2" width="31.85546875" style="81" customWidth="1"/>
@@ -18107,7 +18170,7 @@
     <col min="12" max="16384" width="8.7109375" style="81"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="72" customFormat="1">
       <c r="B2" s="72" t="s">
         <v>248</v>
       </c>
@@ -18139,7 +18202,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="72" customFormat="1">
       <c r="A3" s="75" t="s">
         <v>88</v>
       </c>
@@ -18152,7 +18215,7 @@
       </c>
       <c r="E3" s="74"/>
     </row>
-    <row r="4" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="72" customFormat="1">
       <c r="A4" s="75"/>
       <c r="B4" s="130" t="s">
         <v>296</v>
@@ -18169,7 +18232,7 @@
       <c r="J4" s="83"/>
       <c r="K4" s="76"/>
     </row>
-    <row r="5" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="72" customFormat="1">
       <c r="B5" s="187" t="s">
         <v>546</v>
       </c>
@@ -18186,7 +18249,7 @@
       </c>
       <c r="K5" s="76"/>
     </row>
-    <row r="6" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="72" customFormat="1">
       <c r="A6" s="75"/>
       <c r="B6" s="130" t="s">
         <v>279</v>
@@ -18198,7 +18261,7 @@
       <c r="J6" s="77"/>
       <c r="K6" s="78"/>
     </row>
-    <row r="7" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="72" customFormat="1">
       <c r="D7" s="190" t="s">
         <v>551</v>
       </c>
@@ -18207,7 +18270,7 @@
       <c r="I7" s="77"/>
       <c r="K7" s="76"/>
     </row>
-    <row r="8" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="72" customFormat="1">
       <c r="A8" s="75"/>
       <c r="C8" s="77"/>
       <c r="D8" s="130" t="s">
@@ -18219,7 +18282,7 @@
       <c r="J8" s="85"/>
       <c r="K8" s="78"/>
     </row>
-    <row r="9" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="72" customFormat="1">
       <c r="C9" s="77"/>
       <c r="D9" s="131" t="s">
         <v>280</v>
@@ -18237,7 +18300,7 @@
       </c>
       <c r="K9" s="76"/>
     </row>
-    <row r="10" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="72" customFormat="1">
       <c r="C10" s="77"/>
       <c r="D10" s="131"/>
       <c r="F10" s="189" t="s">
@@ -18253,7 +18316,7 @@
       </c>
       <c r="K10" s="76"/>
     </row>
-    <row r="11" spans="1:11" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="72" customFormat="1">
       <c r="C11" s="77"/>
       <c r="F11" s="132" t="s">
         <v>286</v>
@@ -18264,7 +18327,7 @@
       <c r="J11" s="77"/>
       <c r="K11" s="76"/>
     </row>
-    <row r="12" spans="1:11" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="76" customFormat="1">
       <c r="A12" s="75"/>
       <c r="F12" s="130" t="s">
         <v>287</v>
@@ -18273,7 +18336,7 @@
       <c r="H12" s="77"/>
       <c r="I12" s="77"/>
     </row>
-    <row r="13" spans="1:11" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="76" customFormat="1">
       <c r="A13" s="75"/>
       <c r="F13" s="130"/>
       <c r="G13" s="77"/>
@@ -18285,7 +18348,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="76" customFormat="1">
       <c r="A14" s="75"/>
       <c r="F14" s="130"/>
       <c r="G14" s="77"/>
@@ -18297,7 +18360,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="76" customFormat="1">
       <c r="A15" s="75"/>
       <c r="F15" s="130"/>
       <c r="G15" s="77"/>
@@ -18306,7 +18369,7 @@
       </c>
       <c r="I15" s="77"/>
     </row>
-    <row r="16" spans="1:11" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="76" customFormat="1">
       <c r="A16" s="75"/>
       <c r="G16" s="77"/>
       <c r="H16" s="131" t="s">
@@ -18315,7 +18378,7 @@
       <c r="I16" s="77"/>
       <c r="J16" s="77"/>
     </row>
-    <row r="17" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="76" customFormat="1">
       <c r="A17" s="75"/>
       <c r="B17" s="77"/>
       <c r="C17" s="77"/>
@@ -18327,7 +18390,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="76" customFormat="1">
       <c r="A18" s="75"/>
       <c r="B18" s="77"/>
       <c r="C18" s="77"/>
@@ -18337,7 +18400,7 @@
       <c r="I18" s="77"/>
       <c r="J18" s="77"/>
     </row>
-    <row r="19" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="76" customFormat="1">
       <c r="A19" s="75"/>
       <c r="B19" s="77"/>
       <c r="C19" s="77"/>
@@ -18347,7 +18410,7 @@
       <c r="I19" s="77"/>
       <c r="J19" s="77"/>
     </row>
-    <row r="20" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="76" customFormat="1">
       <c r="A20" s="75"/>
       <c r="B20" s="77"/>
       <c r="C20" s="77"/>
@@ -18357,7 +18420,7 @@
       <c r="I20" s="77"/>
       <c r="J20" s="77"/>
     </row>
-    <row r="21" spans="1:10" s="193" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="193" customFormat="1">
       <c r="A21" s="191"/>
       <c r="B21" s="192"/>
       <c r="C21" s="192"/>
@@ -18367,7 +18430,7 @@
       <c r="I21" s="192"/>
       <c r="J21" s="192"/>
     </row>
-    <row r="22" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="76" customFormat="1">
       <c r="A22" s="75" t="s">
         <v>89</v>
       </c>
@@ -18379,7 +18442,7 @@
       <c r="I22" s="77"/>
       <c r="J22" s="77"/>
     </row>
-    <row r="23" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="76" customFormat="1">
       <c r="A23" s="75"/>
       <c r="D23" s="130" t="s">
         <v>278</v>
@@ -18396,7 +18459,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="76" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="76" customFormat="1" ht="34">
       <c r="A24" s="75"/>
       <c r="B24" s="130" t="s">
         <v>295</v>
@@ -18412,7 +18475,7 @@
       <c r="I24" s="77"/>
       <c r="J24" s="84"/>
     </row>
-    <row r="25" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="76" customFormat="1">
       <c r="A25" s="75"/>
       <c r="B25" s="187" t="s">
         <v>546</v>
@@ -18422,7 +18485,7 @@
       <c r="I25" s="77"/>
       <c r="J25" s="77"/>
     </row>
-    <row r="26" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="76" customFormat="1">
       <c r="A26" s="75"/>
       <c r="B26" s="77"/>
       <c r="C26" s="77"/>
@@ -18438,7 +18501,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="76" customFormat="1">
       <c r="A27" s="75"/>
       <c r="B27" s="83"/>
       <c r="C27" s="77"/>
@@ -18455,7 +18518,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="76" customFormat="1">
       <c r="A28" s="75"/>
       <c r="B28" s="77"/>
       <c r="C28" s="77"/>
@@ -18467,7 +18530,7 @@
       <c r="I28" s="77"/>
       <c r="J28" s="77"/>
     </row>
-    <row r="29" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="76" customFormat="1">
       <c r="A29" s="75"/>
       <c r="B29" s="83"/>
       <c r="C29" s="77"/>
@@ -18481,7 +18544,7 @@
       <c r="I29" s="77"/>
       <c r="J29" s="132"/>
     </row>
-    <row r="30" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="76" customFormat="1">
       <c r="A30" s="75"/>
       <c r="B30" s="83"/>
       <c r="C30" s="77"/>
@@ -18497,7 +18560,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="76" customFormat="1">
       <c r="A31" s="75"/>
       <c r="F31" s="130"/>
       <c r="G31" s="77"/>
@@ -18506,7 +18569,7 @@
       </c>
       <c r="I31" s="77"/>
     </row>
-    <row r="32" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="76" customFormat="1">
       <c r="A32" s="75"/>
       <c r="B32" s="77"/>
       <c r="C32" s="77"/>
@@ -18518,7 +18581,7 @@
       <c r="I32" s="77"/>
       <c r="J32" s="130"/>
     </row>
-    <row r="33" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="76" customFormat="1">
       <c r="A33" s="75"/>
       <c r="F33" s="130"/>
       <c r="G33" s="77"/>
@@ -18527,7 +18590,7 @@
       </c>
       <c r="I33" s="77"/>
     </row>
-    <row r="34" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="76" customFormat="1">
       <c r="A34" s="75"/>
       <c r="F34" s="130"/>
       <c r="G34" s="77"/>
@@ -18536,7 +18599,7 @@
       </c>
       <c r="I34" s="77"/>
     </row>
-    <row r="35" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="76" customFormat="1">
       <c r="A35" s="75"/>
       <c r="B35" s="77"/>
       <c r="C35" s="77"/>
@@ -18549,7 +18612,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="76" customFormat="1">
       <c r="A36" s="75"/>
       <c r="B36" s="77"/>
       <c r="C36" s="77"/>
@@ -18558,7 +18621,7 @@
       <c r="I36" s="77"/>
       <c r="J36" s="77"/>
     </row>
-    <row r="37" spans="1:10" s="76" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="76" customFormat="1">
       <c r="A37" s="75"/>
       <c r="B37" s="77"/>
       <c r="C37" s="77"/>
@@ -18569,7 +18632,7 @@
       <c r="I37" s="77"/>
       <c r="J37" s="77"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="B38" s="77"/>
       <c r="C38" s="77"/>
       <c r="D38" s="77"/>
@@ -18580,7 +18643,7 @@
       <c r="I38" s="77"/>
       <c r="J38" s="77"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="B39" s="77"/>
       <c r="C39" s="77"/>
       <c r="D39" s="77"/>
@@ -18591,7 +18654,7 @@
       <c r="I39" s="77"/>
       <c r="J39" s="77"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="B40" s="77"/>
       <c r="C40" s="77"/>
       <c r="D40" s="77"/>
@@ -18602,7 +18665,7 @@
       <c r="I40" s="77"/>
       <c r="J40" s="77"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="B41" s="77"/>
       <c r="C41" s="77"/>
       <c r="D41" s="77"/>
@@ -18637,6 +18700,11 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18645,13 +18713,13 @@
   <dimension ref="A2:O66"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="86" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="87" bestFit="1" customWidth="1"/>
@@ -18671,7 +18739,7 @@
     <col min="16" max="16384" width="8.7109375" style="86"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="46" customFormat="1">
       <c r="A2" s="198"/>
       <c r="B2" s="199"/>
       <c r="C2" s="200" t="s">
@@ -18708,7 +18776,7 @@
       </c>
       <c r="O2" s="198"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="38" t="s">
         <v>199</v>
       </c>
@@ -18738,7 +18806,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="38"/>
       <c r="C4" s="123" t="s">
         <v>300</v>
@@ -18763,7 +18831,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="C5" s="123" t="s">
         <v>301</v>
       </c>
@@ -18790,7 +18858,7 @@
       <c r="L5" s="42"/>
       <c r="N5" s="42"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="C6" s="194" t="s">
         <v>565</v>
       </c>
@@ -18805,14 +18873,14 @@
       <c r="L6" s="42"/>
       <c r="N6" s="42"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="E7" s="51"/>
       <c r="H7" s="48"/>
       <c r="J7" s="48"/>
       <c r="L7" s="42"/>
       <c r="N7" s="42"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="D8" s="123"/>
       <c r="E8" s="51"/>
       <c r="G8" s="42"/>
@@ -18827,7 +18895,7 @@
       <c r="L8" s="42"/>
       <c r="N8" s="42"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="G9" s="42"/>
       <c r="H9" s="48"/>
       <c r="J9" s="51"/>
@@ -18835,7 +18903,7 @@
       <c r="L9" s="42"/>
       <c r="N9" s="42"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="C10" s="86" t="s">
         <v>163</v>
       </c>
@@ -18856,15 +18924,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="G11" s="42"/>
     </row>
-    <row r="12" spans="1:15" s="137" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="137" customFormat="1">
       <c r="B12" s="138"/>
       <c r="E12" s="139"/>
       <c r="J12" s="139"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="38" t="s">
         <v>247</v>
       </c>
@@ -18899,7 +18967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="38"/>
       <c r="C14" s="123" t="s">
         <v>308</v>
@@ -18932,37 +19000,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="38"/>
       <c r="I15" s="194" t="s">
         <v>585</v>
       </c>
       <c r="K15" s="52"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="38"/>
       <c r="D16" s="123"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="38"/>
       <c r="C17" s="194"/>
       <c r="D17" s="194"/>
       <c r="K17" s="52"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="38"/>
       <c r="C18" s="194"/>
       <c r="D18" s="194"/>
       <c r="K18" s="52"/>
     </row>
-    <row r="19" spans="1:15" s="137" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="137" customFormat="1">
       <c r="A19" s="141"/>
       <c r="B19" s="138"/>
       <c r="E19" s="139"/>
       <c r="J19" s="139"/>
       <c r="K19" s="142"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="38" t="s">
         <v>79</v>
       </c>
@@ -18988,7 +19056,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="38"/>
       <c r="C21" s="123" t="s">
         <v>304</v>
@@ -19006,16 +19074,16 @@
       <c r="J21" s="48"/>
       <c r="K21" s="194"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="38"/>
       <c r="H22" s="99"/>
     </row>
-    <row r="23" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="18" thickBot="1">
       <c r="A23" s="38" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="18" thickBot="1">
       <c r="A24" s="201" t="s">
         <v>191</v>
       </c>
@@ -19046,7 +19114,7 @@
       <c r="N24" s="206"/>
       <c r="O24" s="207"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="67" t="s">
         <v>164</v>
       </c>
@@ -19065,7 +19133,7 @@
       <c r="N25" s="65"/>
       <c r="O25" s="66"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="67" t="s">
         <v>165</v>
       </c>
@@ -19084,7 +19152,7 @@
       <c r="N26" s="65"/>
       <c r="O26" s="66"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="67" t="s">
         <v>166</v>
       </c>
@@ -19103,7 +19171,7 @@
       <c r="N27" s="65"/>
       <c r="O27" s="66"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="67" t="s">
         <v>167</v>
       </c>
@@ -19122,7 +19190,7 @@
       <c r="N28" s="65"/>
       <c r="O28" s="66"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="86" t="s">
         <v>158</v>
       </c>
@@ -19141,7 +19209,7 @@
       <c r="N29" s="89"/>
       <c r="O29" s="104"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="86" t="s">
         <v>183</v>
       </c>
@@ -19160,7 +19228,7 @@
       <c r="N30" s="89"/>
       <c r="O30" s="104"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="86" t="s">
         <v>162</v>
       </c>
@@ -19179,7 +19247,7 @@
       <c r="N31" s="89"/>
       <c r="O31" s="104"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="86" t="s">
         <v>160</v>
       </c>
@@ -19198,7 +19266,7 @@
       <c r="N32" s="89"/>
       <c r="O32" s="104"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="86" t="s">
         <v>182</v>
       </c>
@@ -19217,7 +19285,7 @@
       <c r="N33" s="89"/>
       <c r="O33" s="104"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" s="86" t="s">
         <v>156</v>
       </c>
@@ -19236,7 +19304,7 @@
       <c r="N34" s="89"/>
       <c r="O34" s="104"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" s="86" t="s">
         <v>159</v>
       </c>
@@ -19257,7 +19325,7 @@
       <c r="N35" s="89"/>
       <c r="O35" s="104"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="100" t="s">
         <v>200</v>
       </c>
@@ -19276,7 +19344,7 @@
       <c r="N36" s="89"/>
       <c r="O36" s="92"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="86" t="s">
         <v>157</v>
       </c>
@@ -19297,7 +19365,7 @@
       <c r="N37" s="89"/>
       <c r="O37" s="104"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="86" t="s">
         <v>155</v>
       </c>
@@ -19318,7 +19386,7 @@
       <c r="N38" s="89"/>
       <c r="O38" s="104"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="86" t="s">
         <v>161</v>
       </c>
@@ -19337,7 +19405,7 @@
       <c r="N39" s="89"/>
       <c r="O39" s="104"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="123" t="s">
         <v>297</v>
       </c>
@@ -19356,7 +19424,7 @@
       <c r="N40" s="89"/>
       <c r="O40" s="92"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="123" t="s">
         <v>298</v>
       </c>
@@ -19375,7 +19443,7 @@
       <c r="N41" s="89"/>
       <c r="O41" s="92"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="86" t="s">
         <v>312</v>
       </c>
@@ -19394,7 +19462,7 @@
       <c r="N42" s="89"/>
       <c r="O42" s="92"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="86" t="s">
         <v>192</v>
       </c>
@@ -19413,7 +19481,7 @@
       <c r="N43" s="89"/>
       <c r="O43" s="92"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="86" t="s">
         <v>193</v>
       </c>
@@ -19432,7 +19500,7 @@
       <c r="N44" s="89"/>
       <c r="O44" s="92"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="143" t="s">
         <v>313</v>
       </c>
@@ -19451,8 +19519,8 @@
       <c r="N45" s="89"/>
       <c r="O45" s="92"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="143" t="s">
+    <row r="46" spans="1:15">
+      <c r="A46" s="239" t="s">
         <v>194</v>
       </c>
       <c r="B46" s="93"/>
@@ -19470,7 +19538,7 @@
       <c r="N46" s="89"/>
       <c r="O46" s="92"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="B47" s="93"/>
       <c r="C47" s="89"/>
       <c r="D47" s="89"/>
@@ -19486,7 +19554,7 @@
       <c r="N47" s="89"/>
       <c r="O47" s="92"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="B48" s="90"/>
       <c r="C48" s="89"/>
       <c r="D48" s="89"/>
@@ -19502,7 +19570,7 @@
       <c r="N48" s="89"/>
       <c r="O48" s="92"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" s="123" t="s">
         <v>310</v>
       </c>
@@ -19521,7 +19589,7 @@
       <c r="N49" s="89"/>
       <c r="O49" s="92"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" s="123" t="s">
         <v>309</v>
       </c>
@@ -19539,7 +19607,7 @@
       <c r="N50" s="89"/>
       <c r="O50" s="92"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" s="194" t="s">
         <v>587</v>
       </c>
@@ -19556,7 +19624,7 @@
       <c r="N51" s="89"/>
       <c r="O51" s="92"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15">
       <c r="A52" s="194" t="s">
         <v>311</v>
       </c>
@@ -19573,7 +19641,7 @@
       <c r="N52" s="89"/>
       <c r="O52" s="92"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15">
       <c r="A53" s="194" t="s">
         <v>570</v>
       </c>
@@ -19590,7 +19658,7 @@
       <c r="N53" s="89"/>
       <c r="O53" s="92"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15">
       <c r="A54" s="194" t="s">
         <v>591</v>
       </c>
@@ -19607,7 +19675,7 @@
       <c r="N54" s="89"/>
       <c r="O54" s="92"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" s="123" t="s">
         <v>590</v>
       </c>
@@ -19624,7 +19692,7 @@
       <c r="N55" s="89"/>
       <c r="O55" s="92"/>
     </row>
-    <row r="56" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="18" thickBot="1">
       <c r="A56" s="94"/>
       <c r="B56" s="95"/>
       <c r="C56" s="96"/>
@@ -19641,41 +19709,41 @@
       <c r="N56" s="96"/>
       <c r="O56" s="98"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="B58" s="86"/>
       <c r="C58" s="41"/>
       <c r="D58" s="41"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="B59" s="86"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="B60" s="86"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15">
       <c r="B61" s="86"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15">
       <c r="B62" s="86"/>
       <c r="E62" s="86"/>
       <c r="J62" s="86"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15">
       <c r="B63" s="86"/>
       <c r="E63" s="86"/>
       <c r="J63" s="86"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="B64" s="86"/>
       <c r="E64" s="86"/>
       <c r="J64" s="86"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10">
       <c r="B65" s="86"/>
       <c r="E65" s="86"/>
       <c r="J65" s="86"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10">
       <c r="B66" s="86"/>
       <c r="E66" s="86"/>
       <c r="J66" s="86"/>
@@ -19700,6 +19768,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -19711,7 +19784,7 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="7"/>
     <col min="2" max="2" width="5.42578125" style="7" customWidth="1"/>
@@ -19719,280 +19792,280 @@
     <col min="4" max="16384" width="11.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="21">
       <c r="B2" s="28" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="7" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="C4" s="7" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="C5" s="7" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="C6" s="7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="C7" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="C8" s="7" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+    <row r="9" spans="2:5">
+      <c r="C9" s="7" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
+    <row r="10" spans="2:5">
+      <c r="C10" s="7" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5">
       <c r="B12" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5">
       <c r="D13" s="7" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="E16" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="E17" s="7" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="E18" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="E19" s="7" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E16" s="7" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="7" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="7" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="7" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5">
       <c r="C20" s="7">
         <v>2</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="E21" s="7" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="E22" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="E23" s="7" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="E24" s="7" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="7" t="s">
+    <row r="25" spans="3:5">
+      <c r="E25" s="7" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="7" t="s">
+    <row r="26" spans="3:5">
+      <c r="E26" s="7" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="7" t="s">
+    <row r="27" spans="3:5">
+      <c r="E27" s="227" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="7" t="s">
+    <row r="28" spans="3:5">
+      <c r="E28" s="7" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="7" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="7" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="227" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="7" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5">
       <c r="C29" s="7">
         <v>3</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
       <c r="C30" s="7">
         <v>4</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
       <c r="C31" s="7">
         <v>5</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="E33" s="227"/>
     </row>
-    <row r="35" spans="2:5" ht="21" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="21">
       <c r="B35" s="28" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5">
       <c r="B36" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5">
       <c r="C37" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5">
       <c r="C38" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5">
       <c r="C39" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5">
       <c r="C40" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5">
       <c r="C41" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5">
       <c r="C42" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5">
       <c r="C43" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5">
       <c r="B45" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5">
       <c r="C46" s="7">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
       <c r="D47" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
       <c r="C48" s="7">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
       <c r="D49" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4">
       <c r="C50" s="7">
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
       <c r="D51" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
       <c r="C52" s="7">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
       <c r="D53" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4">
       <c r="C54" s="7">
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
       <c r="D55" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
       <c r="C56" s="7">
         <v>6</v>
       </c>
@@ -20000,7 +20073,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4">
       <c r="C57" s="7">
         <v>7</v>
       </c>
@@ -20008,128 +20081,128 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4">
       <c r="D58" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
       <c r="C59" s="7">
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
       <c r="C60" s="7">
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
       <c r="C61" s="7">
         <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
       <c r="C62" s="7">
         <v>11</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
       <c r="C63" s="7">
         <v>12</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4">
       <c r="D64"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4">
       <c r="D65"/>
     </row>
-    <row r="66" spans="2:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" ht="21">
       <c r="B66" s="28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4">
       <c r="B67" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4">
       <c r="C68" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4">
       <c r="C69" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4">
       <c r="C70" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4">
       <c r="C71" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4">
       <c r="C72" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4">
       <c r="C73" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4">
       <c r="C74" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4">
       <c r="C75" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4">
       <c r="C76" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4">
       <c r="C78" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4">
       <c r="C79" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4">
       <c r="B81" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4">
       <c r="B82" s="7">
         <v>1</v>
       </c>
@@ -20137,7 +20210,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4">
       <c r="B83" s="7">
         <v>2</v>
       </c>
@@ -20145,7 +20218,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4">
       <c r="B84" s="7">
         <v>3</v>
       </c>
@@ -20153,22 +20226,22 @@
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4">
       <c r="C85" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4">
       <c r="C86" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4">
       <c r="B90" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4">
       <c r="B91" s="7">
         <v>1</v>
       </c>
@@ -20177,25 +20250,25 @@
       </c>
       <c r="D91" s="50"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4">
       <c r="C92" s="50"/>
       <c r="D92" s="50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4">
       <c r="C93" s="50"/>
       <c r="D93" s="50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4">
       <c r="C94" s="50"/>
       <c r="D94" s="50" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4">
       <c r="B95" s="7">
         <v>2</v>
       </c>
@@ -20203,7 +20276,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4">
       <c r="B96" s="7">
         <v>3</v>
       </c>
@@ -20211,7 +20284,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3">
       <c r="B97" s="29">
         <v>4</v>
       </c>
@@ -20219,7 +20292,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3">
       <c r="B98" s="7">
         <v>5</v>
       </c>
@@ -20227,62 +20300,62 @@
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="21" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" ht="21">
       <c r="B101" s="28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3">
       <c r="B102" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3">
       <c r="C103" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3">
       <c r="C104" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3">
       <c r="C105" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3">
       <c r="C106" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3">
       <c r="C107" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3">
       <c r="C108" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3">
       <c r="C110" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3">
       <c r="C111" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3">
       <c r="C112" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9">
       <c r="C113" s="7" t="s">
         <v>114</v>
       </c>
@@ -20290,27 +20363,27 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9">
       <c r="C114" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9">
       <c r="C116" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9">
       <c r="C117" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9">
       <c r="B119" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9">
       <c r="B120" s="7">
         <v>1</v>
       </c>
@@ -20318,22 +20391,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9">
       <c r="D121" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9">
       <c r="D122" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9">
       <c r="D123" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9">
       <c r="B124" s="7">
         <v>2</v>
       </c>
@@ -20341,7 +20414,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9">
       <c r="B125" s="7">
         <v>3</v>
       </c>
@@ -20349,7 +20422,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9">
       <c r="B126" s="7">
         <v>4</v>
       </c>
@@ -20357,7 +20430,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9">
       <c r="B127" s="7">
         <v>5</v>
       </c>
@@ -20365,23 +20438,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8">
       <c r="B129" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8">
       <c r="B130" s="7">
         <v>1</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8">
       <c r="B131" s="7">
         <v>2</v>
       </c>
@@ -20392,37 +20465,37 @@
         <v>118</v>
       </c>
     </row>
-    <row r="134" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:8" ht="21">
       <c r="B134" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8">
       <c r="C135" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8">
       <c r="C136" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8">
       <c r="C137" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8">
       <c r="C138" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8">
       <c r="C139" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8">
       <c r="C140" s="29" t="s">
         <v>15</v>
       </c>
@@ -20430,36 +20503,36 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8">
       <c r="C141" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8">
       <c r="C142" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8">
       <c r="C143" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G143" s="30"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8">
       <c r="C144" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="G144" s="30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:8">
       <c r="C145" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:8">
       <c r="C146" s="7" t="s">
         <v>24</v>
       </c>
@@ -20467,7 +20540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:8">
       <c r="C147" s="7" t="s">
         <v>19</v>
       </c>
@@ -20475,7 +20548,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:8">
       <c r="C148" s="7" t="s">
         <v>20</v>
       </c>
@@ -20483,14 +20556,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:8">
       <c r="C149" s="7" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/项目管理/进度计划/Demo-里程碑6/Demo-里程碑6计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑6/Demo-里程碑6计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1240" windowWidth="31900" windowHeight="19520" tabRatio="349"/>
+    <workbookView xWindow="40220" yWindow="1200" windowWidth="31900" windowHeight="19520" tabRatio="349"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑6" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="791">
   <si>
     <t>分类</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -8863,6 +8863,16 @@
     <t>新玩法 - 公会Boss - 投放回收</t>
     <rPh sb="6" eb="7">
       <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wan'cheng</t>
     </rPh>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -9778,7 +9788,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10365,9 +10375,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="331">
     <cellStyle name="Normal 2" xfId="298"/>
@@ -10703,6 +10710,13 @@
     <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="53">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11139,13 +11153,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -11486,11 +11493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -12058,7 +12064,7 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:13" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>10</v>
       </c>
@@ -12179,7 +12185,9 @@
       <c r="F27" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
       <c r="J27" s="34" t="s">
@@ -12344,7 +12352,9 @@
       <c r="F32" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G32" s="21"/>
+      <c r="G32" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="H32" s="21" t="s">
         <v>70</v>
       </c>
@@ -12428,7 +12438,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>21</v>
       </c>
@@ -12463,7 +12473,7 @@
       </c>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>22</v>
       </c>
@@ -12498,7 +12508,7 @@
       </c>
       <c r="M36" s="21"/>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>23</v>
       </c>
@@ -12533,7 +12543,7 @@
       </c>
       <c r="M37" s="21"/>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>24</v>
       </c>
@@ -12552,7 +12562,7 @@
       <c r="F38" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="G38" s="240" t="s">
+      <c r="G38" s="5" t="s">
         <v>710</v>
       </c>
       <c r="H38" s="21"/>
@@ -12568,7 +12578,7 @@
       </c>
       <c r="M38" s="21"/>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>25</v>
       </c>
@@ -12599,7 +12609,7 @@
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>26</v>
       </c>
@@ -12630,7 +12640,7 @@
       </c>
       <c r="M40" s="21"/>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>27</v>
       </c>
@@ -12649,7 +12659,7 @@
       <c r="F41" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="G41" s="240" t="s">
+      <c r="G41" s="5" t="s">
         <v>710</v>
       </c>
       <c r="H41" s="21"/>
@@ -12663,7 +12673,7 @@
       </c>
       <c r="M41" s="21"/>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>28</v>
       </c>
@@ -12694,7 +12704,7 @@
       </c>
       <c r="M42" s="21"/>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>29</v>
       </c>
@@ -12723,7 +12733,7 @@
       <c r="L43" s="22"/>
       <c r="M43" s="21"/>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>30</v>
       </c>
@@ -12742,7 +12752,7 @@
       <c r="F44" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G44" s="240" t="s">
+      <c r="G44" s="5" t="s">
         <v>710</v>
       </c>
       <c r="H44" s="21"/>
@@ -12756,7 +12766,7 @@
       </c>
       <c r="M44" s="21"/>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>31</v>
       </c>
@@ -12787,7 +12797,7 @@
       </c>
       <c r="M45" s="22"/>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>32</v>
       </c>
@@ -13108,7 +13118,9 @@
       <c r="F56" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="G56" s="21"/>
+      <c r="G56" s="21" t="s">
+        <v>710</v>
+      </c>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="220" t="s">
@@ -13168,7 +13180,9 @@
       <c r="F58" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="G58" s="21"/>
+      <c r="G58" s="21" t="s">
+        <v>710</v>
+      </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
       <c r="J58" s="22"/>
@@ -13240,7 +13254,7 @@
       </c>
       <c r="M60" s="21"/>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>47</v>
       </c>
@@ -13271,7 +13285,7 @@
       </c>
       <c r="M61" s="21"/>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>48</v>
       </c>
@@ -13302,7 +13316,7 @@
       </c>
       <c r="M62" s="21"/>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>49</v>
       </c>
@@ -13449,7 +13463,7 @@
       <c r="L67" s="21"/>
       <c r="M67" s="21"/>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>54</v>
       </c>
@@ -13482,7 +13496,7 @@
       <c r="L68" s="21"/>
       <c r="M68" s="21"/>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>55</v>
       </c>
@@ -13515,7 +13529,7 @@
       </c>
       <c r="M69" s="21"/>
     </row>
-    <row r="70" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="32" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>56</v>
       </c>
@@ -13546,7 +13560,7 @@
       <c r="L70" s="21"/>
       <c r="M70" s="21"/>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>57</v>
       </c>
@@ -13577,7 +13591,7 @@
       <c r="L71" s="21"/>
       <c r="M71" s="21"/>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>58</v>
       </c>
@@ -13608,7 +13622,7 @@
       </c>
       <c r="M72" s="21"/>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>59</v>
       </c>
@@ -13656,7 +13670,9 @@
       <c r="F74" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="G74" s="5"/>
+      <c r="G74" s="5" t="s">
+        <v>785</v>
+      </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="21"/>
@@ -13666,7 +13682,7 @@
       <c r="L74" s="21"/>
       <c r="M74" s="21"/>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>61</v>
       </c>
@@ -13735,7 +13751,9 @@
       <c r="F77" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="G77" s="5"/>
+      <c r="G77" s="5" t="s">
+        <v>785</v>
+      </c>
       <c r="H77" s="21"/>
       <c r="I77" s="220" t="s">
         <v>622</v>
@@ -13766,7 +13784,9 @@
       <c r="F78" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="G78" s="5"/>
+      <c r="G78" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="H78" s="21"/>
       <c r="I78" s="22"/>
       <c r="J78" s="220" t="s">
@@ -13828,14 +13848,18 @@
       <c r="F80" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G80" s="5"/>
+      <c r="G80" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="H80" s="34"/>
       <c r="I80" s="65"/>
       <c r="J80" s="34"/>
-      <c r="K80" s="34" t="s">
+      <c r="K80" s="221" t="s">
         <v>744</v>
       </c>
-      <c r="L80" s="34"/>
+      <c r="L80" s="34" t="s">
+        <v>744</v>
+      </c>
       <c r="M80" s="34"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -13857,14 +13881,18 @@
       <c r="F81" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G81" s="5"/>
+      <c r="G81" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="H81" s="34"/>
       <c r="I81" s="65"/>
       <c r="J81" s="19"/>
-      <c r="K81" s="34" t="s">
+      <c r="K81" s="221" t="s">
         <v>744</v>
       </c>
-      <c r="L81" s="34"/>
+      <c r="L81" s="34" t="s">
+        <v>744</v>
+      </c>
       <c r="M81" s="34"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -13886,14 +13914,18 @@
       <c r="F82" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G82" s="5"/>
+      <c r="G82" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="H82" s="34"/>
       <c r="I82" s="65"/>
       <c r="J82" s="19"/>
-      <c r="K82" s="34" t="s">
+      <c r="K82" s="221" t="s">
         <v>744</v>
       </c>
-      <c r="L82" s="34"/>
+      <c r="L82" s="34" t="s">
+        <v>744</v>
+      </c>
       <c r="M82" s="34"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -13915,14 +13947,18 @@
       <c r="F83" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G83" s="5"/>
+      <c r="G83" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="H83" s="34"/>
       <c r="I83" s="65"/>
       <c r="J83" s="19"/>
-      <c r="K83" s="34" t="s">
+      <c r="K83" s="221" t="s">
         <v>744</v>
       </c>
-      <c r="L83" s="34"/>
+      <c r="L83" s="34" t="s">
+        <v>744</v>
+      </c>
       <c r="M83" s="34"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -13944,14 +13980,18 @@
       <c r="F84" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G84" s="5"/>
+      <c r="G84" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="H84" s="34"/>
       <c r="I84" s="34"/>
       <c r="J84" s="65"/>
-      <c r="K84" s="34" t="s">
+      <c r="K84" s="221" t="s">
         <v>744</v>
       </c>
-      <c r="L84" s="65"/>
+      <c r="L84" s="34" t="s">
+        <v>744</v>
+      </c>
       <c r="M84" s="34"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -13973,14 +14013,18 @@
       <c r="F85" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G85" s="5"/>
+      <c r="G85" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="H85" s="34"/>
       <c r="I85" s="34"/>
       <c r="J85" s="65"/>
-      <c r="K85" s="34" t="s">
+      <c r="K85" s="221" t="s">
         <v>744</v>
       </c>
-      <c r="L85" s="65"/>
+      <c r="L85" s="34" t="s">
+        <v>744</v>
+      </c>
       <c r="M85" s="34"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -14002,13 +14046,17 @@
       <c r="F86" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G86" s="5"/>
+      <c r="G86" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="H86" s="34"/>
       <c r="J86" s="65"/>
-      <c r="K86" s="34" t="s">
+      <c r="K86" s="221" t="s">
         <v>744</v>
       </c>
-      <c r="L86" s="65"/>
+      <c r="L86" s="34" t="s">
+        <v>744</v>
+      </c>
       <c r="M86" s="34"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -14030,16 +14078,20 @@
       <c r="F87" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G87" s="5"/>
+      <c r="G87" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="H87" s="34"/>
       <c r="I87" s="34" t="s">
         <v>72</v>
       </c>
       <c r="J87" s="65"/>
-      <c r="K87" s="34" t="s">
+      <c r="K87" s="221" t="s">
         <v>744</v>
       </c>
-      <c r="L87" s="65"/>
+      <c r="L87" s="34" t="s">
+        <v>744</v>
+      </c>
       <c r="M87" s="34"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -14061,16 +14113,20 @@
       <c r="F88" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G88" s="5"/>
+      <c r="G88" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="H88" s="34" t="s">
         <v>72</v>
       </c>
       <c r="I88" s="65"/>
       <c r="J88" s="19"/>
-      <c r="K88" s="34" t="s">
+      <c r="K88" s="221" t="s">
         <v>744</v>
       </c>
-      <c r="L88" s="34"/>
+      <c r="L88" s="34" t="s">
+        <v>744</v>
+      </c>
       <c r="M88" s="34"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -14092,16 +14148,20 @@
       <c r="F89" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G89" s="5"/>
+      <c r="G89" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="H89" s="34"/>
       <c r="I89" s="65" t="s">
         <v>72</v>
       </c>
       <c r="J89" s="19"/>
-      <c r="K89" s="34" t="s">
+      <c r="K89" s="221" t="s">
         <v>744</v>
       </c>
-      <c r="L89" s="34"/>
+      <c r="L89" s="34" t="s">
+        <v>744</v>
+      </c>
       <c r="M89" s="34"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -14321,7 +14381,9 @@
       <c r="F96" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G96" s="5"/>
+      <c r="G96" s="5" t="s">
+        <v>790</v>
+      </c>
       <c r="H96" s="34"/>
       <c r="I96" s="34"/>
       <c r="J96" s="221" t="s">
@@ -14352,7 +14414,9 @@
       <c r="F97" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G97" s="5"/>
+      <c r="G97" s="5" t="s">
+        <v>790</v>
+      </c>
       <c r="H97" s="34"/>
       <c r="I97" s="221" t="s">
         <v>161</v>
@@ -14383,7 +14447,9 @@
       <c r="F98" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G98" s="20"/>
+      <c r="G98" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="H98" s="221" t="s">
         <v>167</v>
       </c>
@@ -14416,7 +14482,9 @@
       <c r="F99" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G99" s="20"/>
+      <c r="G99" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="H99" s="34" t="s">
         <v>161</v>
       </c>
@@ -14463,7 +14531,7 @@
       </c>
       <c r="M100" s="34"/>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>87</v>
       </c>
@@ -14492,7 +14560,7 @@
       <c r="L101" s="34"/>
       <c r="M101" s="34"/>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>88</v>
       </c>
@@ -14521,7 +14589,7 @@
       <c r="L102" s="34"/>
       <c r="M102" s="34"/>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>89</v>
       </c>
@@ -14550,7 +14618,7 @@
       <c r="L103" s="34"/>
       <c r="M103" s="34"/>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>90</v>
       </c>
@@ -14581,7 +14649,7 @@
       <c r="L104" s="21"/>
       <c r="M104" s="21"/>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>91</v>
       </c>
@@ -14614,7 +14682,7 @@
       <c r="L105" s="21"/>
       <c r="M105" s="21"/>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>92</v>
       </c>
@@ -14633,7 +14701,7 @@
       <c r="L106" s="21"/>
       <c r="M106" s="21"/>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>93</v>
       </c>
@@ -14651,7 +14719,7 @@
       <c r="L107" s="21"/>
       <c r="M107" s="21"/>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>94</v>
       </c>
@@ -14669,7 +14737,7 @@
       <c r="L108" s="21"/>
       <c r="M108" s="21"/>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>95</v>
       </c>
@@ -14688,7 +14756,7 @@
       <c r="L109" s="22"/>
       <c r="M109" s="21"/>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>96</v>
       </c>
@@ -14707,7 +14775,7 @@
       <c r="L110" s="21"/>
       <c r="M110" s="21"/>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>97</v>
       </c>
@@ -14726,7 +14794,7 @@
       <c r="L111" s="34"/>
       <c r="M111" s="34"/>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>98</v>
       </c>
@@ -14745,7 +14813,7 @@
       <c r="L112" s="34"/>
       <c r="M112" s="34"/>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>99</v>
       </c>
@@ -14764,7 +14832,7 @@
       <c r="L113" s="34"/>
       <c r="M113" s="34"/>
     </row>
-    <row r="114" spans="1:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="31"/>
       <c r="B114" s="32"/>
       <c r="C114" s="32"/>
@@ -14779,7 +14847,7 @@
       <c r="L114" s="31"/>
       <c r="M114" s="31"/>
     </row>
-    <row r="115" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
       <c r="B115" s="26"/>
       <c r="C115" s="26"/>
@@ -14798,140 +14866,139 @@
       <c r="L117" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A14:M115">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A14:M115"/>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="B115:M115 E114:M114 H13:M13 F7:F8 D13 F12 C40:C42 B38:E39 B40:B41 A14:M14 D40:F41 B42:E42 E107:F107 D106:F106 B106:C107 B73:E73 B43:F57 B59:F72 B58 D58:F58 B108:F108 B75:F83 B88:F88 E87:F87 B84:C85 B87:C87 B98:F103 D109:M113 B17:F37 E84:F85 H106:M108 H46:M46 A15:F16 M15:M45 H63:M63 M47:M62 I75:J75 L75 K74 B89:C97 E89:F97 M64:M105 H94:J97 A17:A113 B109:C114">
-    <cfRule type="cellIs" dxfId="51" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="525" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K109 K110:L110 M76 E76:F76 M40:M41 F35:F37 E40:F41 M35:M37 K46 I107:J107 F106:F109 M65:M66 M72:M74 E66 F63:F66 E71:F72 E67:F67 F68:F70 I75:J75 L75 K74">
-    <cfRule type="cellIs" dxfId="50" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="527" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="527" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="50" priority="528" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K109 K110:L110 M76 E76:F76 M40:M41 F35:F37 E40:F41 I1:I6 M35:M37 K46 I107:J107 F106:F109 M65:M66 M72:M74 E66 F63:F66 E71:F72 E67:F67 F68:F70 I75:J75 L75 K74">
-    <cfRule type="cellIs" dxfId="48" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="526" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114 D51">
-    <cfRule type="cellIs" dxfId="47" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="210" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:C86 E86:F86">
-    <cfRule type="cellIs" dxfId="46" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="24" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25 H27:H33 I25:L33 H15:L24 H34:L45">
-    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42 I38:J39 J40:L41 K32 L29 J29 H40:H41 K42:L42 J35:L37 H35:H37 K34 K44:K45">
-    <cfRule type="cellIs" dxfId="44" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="22" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="22" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="44" priority="23" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42 I38:J39 J40:L41 K32 L29 J29 H40:H41 K42:L42 J35:L37 H35:H37 K34 K44:K45">
-    <cfRule type="cellIs" dxfId="42" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:L62">
-    <cfRule type="cellIs" dxfId="41" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="16" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52 I53:I62 I47:I51">
-    <cfRule type="cellIs" dxfId="40" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="18" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="18" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="40" priority="19" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",I47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52 I53:I62 I47:I51">
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="17" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73:L73 H73:H74 H64:L72 L74 H74:J74">
-    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73:L73 H65:L66 H72:L72 K69 H73:H74 L74 H74:J74">
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="14" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",H65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73:L73 H65:L66 H72:L72 K69 H73:H74 L74 H74:J74">
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:E74">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L105 H105:J105 I103:L104 I91:I93 J80:J83 J89:L90 H86 I98:J102 L98:L102 H84:I85 H87:I87 H88:H93 H80:H83 H98:H104 J88 L88 L80:L83 K91:K93 K80:K88 H76:L79">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
+  <conditionalFormatting sqref="L105 H105:J105 I103:L104 I91:I93 J80:J83 J90:L90 H86 I98:J102 L98:L102 H84:I85 H87:I87 H88:H93 H80:H83 H98:H104 J88 K91:K93 K80:K88 H76:L79 J89:K89">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L105 H76:L76 K77:K79">
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="31" priority="10" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",H76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L105 H76:L76 K77:K79">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K105">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:F105">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:F105">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:F105">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L80:L89">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14944,7 +15011,7 @@
   <dimension ref="A2:T145"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
@@ -17944,62 +18011,62 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="F96 F56 L48 O85 F58:F60 F46 L37:L42 I61 I63 L62 I37:I42 I47:I54 L50:L54 I85 I81:I82 I76 I44:I45 L44:L46 C54 C62:C63 C85 C44:C52 C36:C42">
-    <cfRule type="cellIs" dxfId="23" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="85" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106 O111:O112 R113:R114 L107:L110 F94 F70 I66:I71 I73:I74 O106:O107 R107:R110 F96 I96 C94 C96 C106:C113 C70 C81:C82 C76">
-    <cfRule type="cellIs" dxfId="22" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="68" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R85">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41:O42">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16 I21 F5:F6 I36 G20:G21 G23 G18 G26">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115 B92 B67 B62:B63 B85 B37:B42 B51:B54 B44:B49">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 B96 B106:B113 B70 B81:B82 B76">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 B36">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18626,27 +18693,27 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="F44 H10 F9 D9 B12:B13 F14 B18:B21 D19:D21 B29 B32 B6:B9 J23 B24">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43 H16 D15">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61 B63">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19191,22 +19258,22 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="C25 D17:D20 B17:B20 J25 J36 H17 H36 H9:H12 H20:I20 H19 I7 J18:J19 H8:I8 J9:J10 B3:D3 C4:D4 G21:G22 C17:C22 B24:F24 D23:E23 I4:J4 E5 C8:D8 B6:C6 I6:J6 C9:C11 I9:I19 K4:K25 G4:G11 G27:G30 I21:I30 I32:J32">
-    <cfRule type="cellIs" dxfId="6" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="104" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21 B21 H18 H37 H35 H21 B24">
-    <cfRule type="cellIs" dxfId="5" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="71" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I34 K33:K34">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31 K31">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20258,17 +20325,17 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="F24:G24 I24 K24 A24:D24 M24:O24 A25:E28 H25:O28">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9 K14:K15 K17:K20">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:M14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20282,8 +20349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I149"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
